--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_3_27.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_3_27.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1373952.10397435</v>
+        <v>1431892.191025798</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>13283008.53108103</v>
+        <v>11857191.11602537</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2245491.494744291</v>
+        <v>698313.6830760745</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6951650.707479089</v>
+        <v>7467973.075670605</v>
       </c>
     </row>
     <row r="11">
@@ -656,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>294.9062684805532</v>
+        <v>15.64988064861473</v>
       </c>
       <c r="C2" t="n">
         <v>22.63172268683286</v>
@@ -674,10 +676,10 @@
         <v>0.2956717864458369</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,7 +709,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>103.323621185591</v>
+        <v>99.22789100784752</v>
       </c>
       <c r="T2" t="n">
         <v>218.7163152458132</v>
@@ -716,13 +718,13 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W2" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X2" t="n">
-        <v>407.6027988439302</v>
+        <v>7.602798843930202</v>
       </c>
       <c r="Y2" t="n">
         <v>401.2838973446586</v>
@@ -817,7 +819,7 @@
         <v>188.264309024945</v>
       </c>
       <c r="C4" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>161.683605144497</v>
@@ -829,13 +831,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G4" t="n">
-        <v>164.5944000087102</v>
+        <v>1.857062697108432</v>
       </c>
       <c r="H4" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I4" t="n">
-        <v>45.44275720140961</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -868,19 +870,19 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W4" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X4" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>224.0793406271554</v>
@@ -896,25 +898,25 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C5" t="n">
-        <v>422.6317226868329</v>
+        <v>22.63172268683286</v>
       </c>
       <c r="D5" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E5" t="n">
-        <v>421.717170453621</v>
+        <v>21.71717045362101</v>
       </c>
       <c r="F5" t="n">
-        <v>420.8729399924937</v>
+        <v>20.87293999249374</v>
       </c>
       <c r="G5" t="n">
-        <v>15.24289001803362</v>
+        <v>0.2956717864458369</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I5" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,13 +946,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>195.5104445397025</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -962,7 +964,7 @@
         <v>7.602798843930202</v>
       </c>
       <c r="Y5" t="n">
-        <v>1.283897344658556</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="6">
@@ -1054,7 +1056,7 @@
         <v>188.264309024945</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D7" t="n">
         <v>161.683605144497</v>
@@ -1066,13 +1068,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G7" t="n">
-        <v>138.9366442785481</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I7" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,25 +1101,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T7" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>277.3826040146988</v>
+        <v>92.01098438110826</v>
       </c>
       <c r="V7" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y7" t="n">
         <v>224.0793406271554</v>
@@ -1133,7 +1135,7 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C8" t="n">
-        <v>293.0089097051526</v>
+        <v>264.9481049475941</v>
       </c>
       <c r="D8" t="n">
         <v>19.05969460684969</v>
@@ -1142,13 +1144,13 @@
         <v>21.71717045362101</v>
       </c>
       <c r="F8" t="n">
-        <v>420.8729399924937</v>
+        <v>20.87293999249374</v>
       </c>
       <c r="G8" t="n">
-        <v>0.2956717864458369</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H8" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>34.5479025439635</v>
@@ -1184,22 +1186,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U8" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W8" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>407.6027988439302</v>
+        <v>7.602798843930202</v>
       </c>
       <c r="Y8" t="n">
-        <v>1.283897344658556</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="9">
@@ -1291,22 +1293,22 @@
         <v>188.264309024945</v>
       </c>
       <c r="C10" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E10" t="n">
-        <v>164.546123788675</v>
+        <v>35.21818527535722</v>
       </c>
       <c r="F10" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H10" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>98.77088257712678</v>
@@ -1339,25 +1341,25 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S10" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V10" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W10" t="n">
-        <v>87.64918803494936</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X10" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="11">
@@ -1370,22 +1372,22 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C11" t="n">
-        <v>422.6317226868329</v>
+        <v>314.6596914499</v>
       </c>
       <c r="D11" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H11" t="n">
-        <v>252.8105078992546</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I11" t="n">
         <v>34.5479025439635</v>
@@ -1418,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T11" t="n">
         <v>218.7163152458132</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V11" t="n">
         <v>353.914520725013</v>
@@ -1433,7 +1435,7 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y11" t="n">
         <v>401.2838973446586</v>
@@ -1525,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>170.2528374898731</v>
@@ -1540,7 +1542,7 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G13" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>142.3583058069271</v>
@@ -1576,25 +1578,25 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>134.9989678506928</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V13" t="n">
-        <v>115.1055716303386</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W13" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X13" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1604,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>393.5486526633647</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C14" t="n">
         <v>422.6317226868329</v>
@@ -1613,19 +1615,19 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T14" t="n">
         <v>218.7163152458132</v>
@@ -1664,13 +1666,13 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W14" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X14" t="n">
-        <v>407.6027988439302</v>
+        <v>299.6307676069974</v>
       </c>
       <c r="Y14" t="n">
         <v>401.2838973446586</v>
@@ -1762,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>161.683605144497</v>
+        <v>106.38799505241</v>
       </c>
       <c r="E16" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G16" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1825,13 +1827,13 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W16" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>24.9789066782202</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="17">
@@ -1856,13 +1858,13 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G17" t="n">
-        <v>400.2956717864458</v>
+        <v>400.2956717864467</v>
       </c>
       <c r="H17" t="n">
         <v>294.8896947407055</v>
       </c>
       <c r="I17" t="n">
-        <v>34.54790254396433</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -2002,7 +2004,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D19" t="n">
         <v>161.683605144497</v>
@@ -2011,7 +2013,7 @@
         <v>164.546123788675</v>
       </c>
       <c r="F19" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2020,7 +2022,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I19" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S19" t="n">
-        <v>127.7406918931089</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T19" t="n">
         <v>240.905954296359</v>
@@ -2065,7 +2067,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>11.39996927779299</v>
       </c>
       <c r="Y19" t="n">
         <v>224.0793406271554</v>
@@ -2081,7 +2083,7 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C20" t="n">
-        <v>422.6317226868337</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D20" t="n">
         <v>419.0596946068497</v>
@@ -2090,7 +2092,7 @@
         <v>421.717170453621</v>
       </c>
       <c r="F20" t="n">
-        <v>420.8729399924937</v>
+        <v>420.8729399924947</v>
       </c>
       <c r="G20" t="n">
         <v>400.2956717864458</v>
@@ -2242,7 +2244,7 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D22" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2251,10 +2253,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S22" t="n">
-        <v>104.9037564455521</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>240.905954296359</v>
+        <v>153.9723828910722</v>
       </c>
       <c r="U22" t="n">
         <v>277.3826040146988</v>
@@ -2473,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C25" t="n">
         <v>170.2528374898731</v>
@@ -2482,16 +2484,16 @@
         <v>161.683605144497</v>
       </c>
       <c r="E25" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>164.5944000087102</v>
+        <v>130.04008984845</v>
       </c>
       <c r="H25" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S25" t="n">
         <v>168.4336970060565</v>
@@ -2533,7 +2535,7 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V25" t="n">
-        <v>226.204333310803</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W25" t="n">
         <v>272.1038797892121</v>
@@ -2542,7 +2544,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="26">
@@ -2719,16 +2721,16 @@
         <v>161.683605144497</v>
       </c>
       <c r="E28" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>146.1447286778223</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,16 +2760,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V28" t="n">
         <v>278.8943527180514</v>
@@ -2776,7 +2778,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X28" t="n">
-        <v>240.1382575886529</v>
+        <v>130.0400898484501</v>
       </c>
       <c r="Y28" t="n">
         <v>224.0793406271554</v>
@@ -2953,16 +2955,16 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D31" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>164.546123788675</v>
+        <v>51.58543740429417</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2995,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S31" t="n">
         <v>168.4336970060565</v>
@@ -3010,10 +3012,10 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W31" t="n">
-        <v>119.5716730199757</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y31" t="n">
         <v>224.0793406271554</v>
@@ -3184,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E34" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G34" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H34" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3238,7 +3240,7 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T34" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>277.3826040146988</v>
@@ -3247,13 +3249,13 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W34" t="n">
-        <v>272.1038797892121</v>
+        <v>73.88082355467124</v>
       </c>
       <c r="X34" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y34" t="n">
-        <v>63.91221236482846</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="35">
@@ -3427,22 +3429,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D37" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>164.5944000087102</v>
+        <v>51.58543740429417</v>
       </c>
       <c r="H37" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,25 +3471,25 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S37" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U37" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X37" t="n">
-        <v>228.0996351671469</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y37" t="n">
         <v>224.0793406271554</v>
@@ -3509,10 +3511,10 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E38" t="n">
-        <v>421.717170453622</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F38" t="n">
-        <v>420.8729399924937</v>
+        <v>420.8729399924947</v>
       </c>
       <c r="G38" t="n">
         <v>400.2956717864458</v>
@@ -3670,16 +3672,16 @@
         <v>164.546123788675</v>
       </c>
       <c r="F40" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3712,22 +3714,22 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W40" t="n">
-        <v>218.7757544134975</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X40" t="n">
-        <v>240.1382575886529</v>
+        <v>189.5733066869336</v>
       </c>
       <c r="Y40" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3737,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C41" t="n">
         <v>422.6317226868329</v>
@@ -3746,13 +3748,13 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E41" t="n">
-        <v>14.47571231202166</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H41" t="n">
         <v>294.8896947407055</v>
@@ -3797,13 +3799,13 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V41" t="n">
-        <v>353.914520725013</v>
+        <v>245.9424894880796</v>
       </c>
       <c r="W41" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y41" t="n">
         <v>401.2838973446586</v>
@@ -3898,16 +3900,16 @@
         <v>188.264309024945</v>
       </c>
       <c r="C43" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F43" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>164.5944000087102</v>
@@ -3916,7 +3918,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3949,13 +3951,13 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T43" t="n">
-        <v>45.44275720140907</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>169.8571210237862</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W43" t="n">
         <v>272.1038797892121</v>
@@ -3983,19 +3985,19 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H44" t="n">
         <v>294.8896947407055</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4034,16 +4036,16 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V44" t="n">
-        <v>353.914520725013</v>
+        <v>245.9424894880796</v>
       </c>
       <c r="W44" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X44" t="n">
-        <v>34.65763155202895</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="45">
@@ -4144,10 +4146,10 @@
         <v>164.546123788675</v>
       </c>
       <c r="F46" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>142.3583058069271</v>
@@ -4180,28 +4182,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T46" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W46" t="n">
-        <v>272.1038797892121</v>
+        <v>220.5479980920884</v>
       </c>
       <c r="X46" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>144.8471851408333</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4304,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>129.9297397222204</v>
+        <v>462.6949895047144</v>
       </c>
       <c r="C2" t="n">
-        <v>107.0694137759246</v>
+        <v>439.8346635584186</v>
       </c>
       <c r="D2" t="n">
-        <v>87.81719700132894</v>
+        <v>420.5824467838229</v>
       </c>
       <c r="E2" t="n">
-        <v>65.88066118959054</v>
+        <v>398.6459109720846</v>
       </c>
       <c r="F2" t="n">
-        <v>44.79688341939484</v>
+        <v>377.5621332018889</v>
       </c>
       <c r="G2" t="n">
-        <v>44.49822504924753</v>
+        <v>377.2634748317415</v>
       </c>
       <c r="H2" t="n">
-        <v>44.49822504924753</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="I2" t="n">
         <v>44.49822504924753</v>
@@ -4331,49 +4333,49 @@
         <v>407.101683866143</v>
       </c>
       <c r="K2" t="n">
-        <v>407.101683866143</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="L2" t="n">
-        <v>549.9383681074144</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="M2" t="n">
-        <v>549.9383681074144</v>
+        <v>2059.098288819458</v>
       </c>
       <c r="N2" t="n">
-        <v>1100.603903091853</v>
+        <v>2059.098288819458</v>
       </c>
       <c r="O2" t="n">
-        <v>1100.603903091853</v>
+        <v>2059.098288819458</v>
       </c>
       <c r="P2" t="n">
-        <v>1651.269438076291</v>
+        <v>2059.098288819458</v>
       </c>
       <c r="Q2" t="n">
-        <v>2107.354917580474</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R2" t="n">
         <v>2224.911252462377</v>
       </c>
       <c r="S2" t="n">
-        <v>2120.543958335517</v>
+        <v>2124.681059525157</v>
       </c>
       <c r="T2" t="n">
-        <v>1899.61838738015</v>
+        <v>1903.75548856979</v>
       </c>
       <c r="U2" t="n">
-        <v>1641.263477976562</v>
+        <v>1645.400579166202</v>
       </c>
       <c r="V2" t="n">
-        <v>1641.263477976562</v>
+        <v>1287.911164292452</v>
       </c>
       <c r="W2" t="n">
-        <v>1244.872128276909</v>
+        <v>891.5198145927988</v>
       </c>
       <c r="X2" t="n">
-        <v>833.1521294446566</v>
+        <v>883.8402198009501</v>
       </c>
       <c r="Y2" t="n">
-        <v>427.8148593995469</v>
+        <v>478.5029497558403</v>
       </c>
     </row>
     <row r="3">
@@ -4407,25 +4409,25 @@
         <v>44.49822504924753</v>
       </c>
       <c r="J3" t="n">
-        <v>316.1957143288386</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K3" t="n">
-        <v>838.3748437825398</v>
+        <v>201.1892506764427</v>
       </c>
       <c r="L3" t="n">
-        <v>838.3748437825398</v>
+        <v>201.1892506764427</v>
       </c>
       <c r="M3" t="n">
-        <v>838.3748437825398</v>
+        <v>751.8547856608809</v>
       </c>
       <c r="N3" t="n">
-        <v>838.3748437825398</v>
+        <v>751.8547856608809</v>
       </c>
       <c r="O3" t="n">
-        <v>838.3748437825398</v>
+        <v>1302.520320645319</v>
       </c>
       <c r="P3" t="n">
-        <v>1389.040378766978</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="Q3" t="n">
         <v>1853.185855629757</v>
@@ -4462,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1073.812554264679</v>
+        <v>791.3256356528027</v>
       </c>
       <c r="C4" t="n">
-        <v>901.8399911435952</v>
+        <v>791.3256356528027</v>
       </c>
       <c r="D4" t="n">
-        <v>738.5232182703659</v>
+        <v>628.0088627795734</v>
       </c>
       <c r="E4" t="n">
-        <v>572.3150124232194</v>
+        <v>461.8006569324269</v>
       </c>
       <c r="F4" t="n">
-        <v>400.4532381977798</v>
+        <v>289.9388827069873</v>
       </c>
       <c r="G4" t="n">
-        <v>234.1962684920119</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="H4" t="n">
-        <v>90.40000000016633</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="I4" t="n">
         <v>44.49822504924753</v>
@@ -4516,22 +4518,22 @@
         <v>2007.737591668685</v>
       </c>
       <c r="T4" t="n">
-        <v>2007.737591668685</v>
+        <v>1764.398243894585</v>
       </c>
       <c r="U4" t="n">
-        <v>2007.737591668685</v>
+        <v>1764.398243894585</v>
       </c>
       <c r="V4" t="n">
-        <v>2007.737591668685</v>
+        <v>1482.686776502613</v>
       </c>
       <c r="W4" t="n">
-        <v>1732.885187841198</v>
+        <v>1207.834372675126</v>
       </c>
       <c r="X4" t="n">
-        <v>1490.321291287003</v>
+        <v>1207.834372675126</v>
       </c>
       <c r="Y4" t="n">
-        <v>1263.978522976745</v>
+        <v>981.4916043648684</v>
       </c>
     </row>
     <row r="5">
@@ -4541,49 +4543,49 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1796.086427374292</v>
+        <v>831.8385222885896</v>
       </c>
       <c r="C5" t="n">
-        <v>1369.185697387593</v>
+        <v>808.9781963422938</v>
       </c>
       <c r="D5" t="n">
-        <v>945.8930765725929</v>
+        <v>385.6855755272941</v>
       </c>
       <c r="E5" t="n">
-        <v>519.9161367204505</v>
+        <v>363.7490397155557</v>
       </c>
       <c r="F5" t="n">
-        <v>94.79195490985069</v>
+        <v>342.66526194536</v>
       </c>
       <c r="G5" t="n">
-        <v>79.39509630577632</v>
+        <v>342.3666035752127</v>
       </c>
       <c r="H5" t="n">
-        <v>79.39509630577632</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I5" t="n">
         <v>44.49822504924753</v>
       </c>
       <c r="J5" t="n">
-        <v>44.49822504924753</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K5" t="n">
-        <v>116.829168004879</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="L5" t="n">
-        <v>667.4947029893171</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="M5" t="n">
-        <v>1218.160237973755</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="N5" t="n">
-        <v>1218.160237973755</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="O5" t="n">
-        <v>1218.160237973755</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="P5" t="n">
-        <v>1768.825772958194</v>
+        <v>2059.098288819458</v>
       </c>
       <c r="Q5" t="n">
         <v>2224.911252462377</v>
@@ -4592,25 +4594,25 @@
         <v>2224.911252462377</v>
       </c>
       <c r="S5" t="n">
-        <v>2224.911252462377</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="T5" t="n">
-        <v>2224.911252462377</v>
+        <v>1923.058660820666</v>
       </c>
       <c r="U5" t="n">
-        <v>2224.911252462377</v>
+        <v>1664.703751417078</v>
       </c>
       <c r="V5" t="n">
-        <v>2224.911252462377</v>
+        <v>1664.703751417078</v>
       </c>
       <c r="W5" t="n">
-        <v>2224.911252462377</v>
+        <v>1664.703751417078</v>
       </c>
       <c r="X5" t="n">
-        <v>2217.231657670528</v>
+        <v>1657.024156625229</v>
       </c>
       <c r="Y5" t="n">
-        <v>2215.934791665823</v>
+        <v>1251.68688658012</v>
       </c>
     </row>
     <row r="6">
@@ -4644,22 +4646,22 @@
         <v>44.49822504924753</v>
       </c>
       <c r="J6" t="n">
-        <v>316.1957143288386</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K6" t="n">
-        <v>866.8612493132769</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="L6" t="n">
-        <v>1417.526784297715</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="M6" t="n">
-        <v>1417.526784297715</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="N6" t="n">
-        <v>1417.526784297715</v>
+        <v>1220.501010560616</v>
       </c>
       <c r="O6" t="n">
-        <v>1417.526784297715</v>
+        <v>1220.501010560616</v>
       </c>
       <c r="P6" t="n">
         <v>1771.166545545054</v>
@@ -4699,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>785.9935909805931</v>
+        <v>1027.91077931376</v>
       </c>
       <c r="C7" t="n">
-        <v>785.9935909805931</v>
+        <v>855.9382161926764</v>
       </c>
       <c r="D7" t="n">
-        <v>622.6768181073638</v>
+        <v>692.6214433194471</v>
       </c>
       <c r="E7" t="n">
-        <v>456.4686122602174</v>
+        <v>526.4132374723006</v>
       </c>
       <c r="F7" t="n">
-        <v>284.6068380347778</v>
+        <v>354.551463246861</v>
       </c>
       <c r="G7" t="n">
-        <v>144.2667933089716</v>
+        <v>188.2944935410931</v>
       </c>
       <c r="H7" t="n">
-        <v>144.2667933089716</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I7" t="n">
         <v>44.49822504924753</v>
@@ -4747,28 +4749,28 @@
         <v>2224.911252462376</v>
       </c>
       <c r="R7" t="n">
-        <v>2177.872639149549</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S7" t="n">
-        <v>2007.737591668684</v>
+        <v>2054.776204981511</v>
       </c>
       <c r="T7" t="n">
-        <v>1764.398243894584</v>
+        <v>2054.776204981511</v>
       </c>
       <c r="U7" t="n">
-        <v>1484.213795394888</v>
+        <v>1961.835816717766</v>
       </c>
       <c r="V7" t="n">
-        <v>1202.502328002917</v>
+        <v>1961.835816717766</v>
       </c>
       <c r="W7" t="n">
-        <v>1202.502328002917</v>
+        <v>1686.983412890279</v>
       </c>
       <c r="X7" t="n">
-        <v>1202.502328002917</v>
+        <v>1444.419516336084</v>
       </c>
       <c r="Y7" t="n">
-        <v>976.1595596926588</v>
+        <v>1218.076748025826</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1155.354547217811</v>
+        <v>813.6310375047708</v>
       </c>
       <c r="C8" t="n">
-        <v>859.3859515560411</v>
+        <v>546.0066890728575</v>
       </c>
       <c r="D8" t="n">
-        <v>840.1337347814454</v>
+        <v>526.7544722982618</v>
       </c>
       <c r="E8" t="n">
-        <v>818.197198969707</v>
+        <v>504.8179364865234</v>
       </c>
       <c r="F8" t="n">
-        <v>393.0730171591071</v>
+        <v>483.7341587163277</v>
       </c>
       <c r="G8" t="n">
-        <v>392.7743587889598</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="H8" t="n">
-        <v>94.90598026299462</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="I8" t="n">
-        <v>60.00910900646583</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J8" t="n">
-        <v>422.6125678233614</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K8" t="n">
-        <v>1138.12087579886</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="L8" t="n">
-        <v>1138.12087579886</v>
+        <v>549.9383681074144</v>
       </c>
       <c r="M8" t="n">
-        <v>1880.733599753875</v>
+        <v>549.9383681074144</v>
       </c>
       <c r="N8" t="n">
-        <v>2623.346323708889</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="O8" t="n">
-        <v>2882.899115441388</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="P8" t="n">
-        <v>2882.899115441388</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="Q8" t="n">
-        <v>2882.899115441388</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="R8" t="n">
-        <v>3000.455450323291</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S8" t="n">
-        <v>3000.455450323291</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T8" t="n">
-        <v>3000.455450323291</v>
+        <v>2003.98568150701</v>
       </c>
       <c r="U8" t="n">
-        <v>2742.100540919703</v>
+        <v>2003.98568150701</v>
       </c>
       <c r="V8" t="n">
-        <v>2384.611126045953</v>
+        <v>1646.496266633259</v>
       </c>
       <c r="W8" t="n">
-        <v>1988.2197763463</v>
+        <v>1646.496266633259</v>
       </c>
       <c r="X8" t="n">
-        <v>1576.499777514047</v>
+        <v>1638.81667184141</v>
       </c>
       <c r="Y8" t="n">
-        <v>1575.202911509341</v>
+        <v>1233.479401796301</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>627.1326000379211</v>
+        <v>611.6217160807028</v>
       </c>
       <c r="C9" t="n">
-        <v>509.6266965554258</v>
+        <v>494.1158125982075</v>
       </c>
       <c r="D9" t="n">
-        <v>405.7867380707108</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E9" t="n">
-        <v>301.084804343648</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F9" t="n">
-        <v>207.4389740265522</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G9" t="n">
-        <v>113.3852022441562</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H9" t="n">
-        <v>60.00910900646583</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I9" t="n">
-        <v>67.45575196837767</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J9" t="n">
-        <v>339.1532412479688</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K9" t="n">
-        <v>579.9192286844785</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="L9" t="n">
-        <v>579.9192286844785</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="M9" t="n">
-        <v>579.9192286844785</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="N9" t="n">
-        <v>1322.531952639493</v>
+        <v>1220.501010560616</v>
       </c>
       <c r="O9" t="n">
-        <v>1322.531952639493</v>
+        <v>1220.501010560616</v>
       </c>
       <c r="P9" t="n">
-        <v>1322.531952639493</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="Q9" t="n">
-        <v>1786.677429502272</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="R9" t="n">
-        <v>1868.696739586976</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="S9" t="n">
-        <v>1787.37249214823</v>
+        <v>1771.861608191012</v>
       </c>
       <c r="T9" t="n">
-        <v>1645.492556445908</v>
+        <v>1629.98167248869</v>
       </c>
       <c r="U9" t="n">
-        <v>1460.724360365545</v>
+        <v>1445.213476408327</v>
       </c>
       <c r="V9" t="n">
-        <v>1255.751221504811</v>
+        <v>1240.240337547593</v>
       </c>
       <c r="W9" t="n">
-        <v>1059.229844338028</v>
+        <v>1043.71896038081</v>
       </c>
       <c r="X9" t="n">
-        <v>895.7524981046914</v>
+        <v>880.2416141474731</v>
       </c>
       <c r="Y9" t="n">
-        <v>756.0596094579838</v>
+        <v>740.5487255007655</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>976.9332618249349</v>
+        <v>681.2762346339712</v>
       </c>
       <c r="C10" t="n">
-        <v>804.9606987038509</v>
+        <v>681.2762346339712</v>
       </c>
       <c r="D10" t="n">
-        <v>641.6439258306216</v>
+        <v>517.9594617607419</v>
       </c>
       <c r="E10" t="n">
-        <v>475.4357199834751</v>
+        <v>482.385537240179</v>
       </c>
       <c r="F10" t="n">
-        <v>303.5739457580355</v>
+        <v>310.5237630147394</v>
       </c>
       <c r="G10" t="n">
-        <v>303.5739457580355</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="H10" t="n">
-        <v>159.7776772661899</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="I10" t="n">
-        <v>60.00910900646583</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J10" t="n">
-        <v>117.5004372306238</v>
+        <v>101.9895532734055</v>
       </c>
       <c r="K10" t="n">
-        <v>344.028038436461</v>
+        <v>328.5171544792427</v>
       </c>
       <c r="L10" t="n">
-        <v>698.7173597308818</v>
+        <v>683.2064757736634</v>
       </c>
       <c r="M10" t="n">
-        <v>1089.903154701133</v>
+        <v>1074.392270743914</v>
       </c>
       <c r="N10" t="n">
-        <v>1467.394665577168</v>
+        <v>1451.88378161995</v>
       </c>
       <c r="O10" t="n">
-        <v>1822.822794256932</v>
+        <v>1807.311910299713</v>
       </c>
       <c r="P10" t="n">
-        <v>2113.422006178832</v>
+        <v>2097.911122221614</v>
       </c>
       <c r="Q10" t="n">
-        <v>2240.422136419594</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R10" t="n">
-        <v>2193.383523106767</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="S10" t="n">
-        <v>2023.248475625902</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="T10" t="n">
-        <v>1779.909127851802</v>
+        <v>1934.533291375449</v>
       </c>
       <c r="U10" t="n">
-        <v>1779.909127851802</v>
+        <v>1654.348842875753</v>
       </c>
       <c r="V10" t="n">
-        <v>1498.197660459831</v>
+        <v>1372.637375483782</v>
       </c>
       <c r="W10" t="n">
-        <v>1409.663127091195</v>
+        <v>1097.784971656295</v>
       </c>
       <c r="X10" t="n">
-        <v>1167.099230537</v>
+        <v>1097.784971656295</v>
       </c>
       <c r="Y10" t="n">
-        <v>1167.099230537</v>
+        <v>871.4422033460369</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1200.463480457881</v>
+        <v>2429.413071721394</v>
       </c>
       <c r="C11" t="n">
-        <v>773.5627504711808</v>
+        <v>2111.574999549778</v>
       </c>
       <c r="D11" t="n">
-        <v>350.2701296561811</v>
+        <v>1688.282378734778</v>
       </c>
       <c r="E11" t="n">
-        <v>350.2701296561811</v>
+        <v>1262.305438882635</v>
       </c>
       <c r="F11" t="n">
-        <v>350.2701296561811</v>
+        <v>837.1812570720355</v>
       </c>
       <c r="G11" t="n">
-        <v>350.2701296561811</v>
+        <v>432.8421946614841</v>
       </c>
       <c r="H11" t="n">
-        <v>94.90598026299462</v>
+        <v>134.9738161355189</v>
       </c>
       <c r="I11" t="n">
-        <v>60.00910900646583</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J11" t="n">
-        <v>422.6125678233614</v>
+        <v>462.6804036958856</v>
       </c>
       <c r="K11" t="n">
-        <v>422.6125678233614</v>
+        <v>1178.188711671385</v>
       </c>
       <c r="L11" t="n">
-        <v>422.6125678233614</v>
+        <v>1741.388990499732</v>
       </c>
       <c r="M11" t="n">
-        <v>1165.225291778376</v>
+        <v>2745.67509191879</v>
       </c>
       <c r="N11" t="n">
-        <v>1907.83801573339</v>
+        <v>3721.926150405491</v>
       </c>
       <c r="O11" t="n">
-        <v>2650.450739688405</v>
+        <v>3721.926150405491</v>
       </c>
       <c r="P11" t="n">
-        <v>2882.899115441388</v>
+        <v>4430.205429563419</v>
       </c>
       <c r="Q11" t="n">
-        <v>2882.899115441388</v>
+        <v>4886.290909067602</v>
       </c>
       <c r="R11" t="n">
-        <v>3000.455450323291</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="S11" t="n">
-        <v>3000.455450323291</v>
+        <v>4899.479949822645</v>
       </c>
       <c r="T11" t="n">
-        <v>2779.529879367924</v>
+        <v>4678.554378867278</v>
       </c>
       <c r="U11" t="n">
-        <v>2779.529879367924</v>
+        <v>4420.19946946369</v>
       </c>
       <c r="V11" t="n">
-        <v>2422.040464494174</v>
+        <v>4062.710054589939</v>
       </c>
       <c r="W11" t="n">
-        <v>2025.649114794521</v>
+        <v>3666.318704890286</v>
       </c>
       <c r="X11" t="n">
-        <v>2025.649114794521</v>
+        <v>3254.598706058034</v>
       </c>
       <c r="Y11" t="n">
-        <v>1620.311844749411</v>
+        <v>2849.261436012924</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>627.1326000379211</v>
+        <v>667.2004359104453</v>
       </c>
       <c r="C12" t="n">
-        <v>509.6266965554258</v>
+        <v>549.6945324279501</v>
       </c>
       <c r="D12" t="n">
-        <v>405.7867380707108</v>
+        <v>445.8545739432351</v>
       </c>
       <c r="E12" t="n">
-        <v>301.084804343648</v>
+        <v>341.1526402161723</v>
       </c>
       <c r="F12" t="n">
-        <v>207.4389740265522</v>
+        <v>247.5068098990765</v>
       </c>
       <c r="G12" t="n">
-        <v>113.3852022441562</v>
+        <v>153.4530381166805</v>
       </c>
       <c r="H12" t="n">
-        <v>60.00910900646583</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="I12" t="n">
-        <v>60.00910900646583</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J12" t="n">
-        <v>60.00910900646583</v>
+        <v>371.7744341585812</v>
       </c>
       <c r="K12" t="n">
-        <v>60.00910900646583</v>
+        <v>371.7744341585812</v>
       </c>
       <c r="L12" t="n">
-        <v>60.00910900646583</v>
+        <v>371.7744341585812</v>
       </c>
       <c r="M12" t="n">
-        <v>661.9385387691817</v>
+        <v>371.7744341585812</v>
       </c>
       <c r="N12" t="n">
-        <v>1404.551262724196</v>
+        <v>646.4020714735193</v>
       </c>
       <c r="O12" t="n">
-        <v>1404.551262724196</v>
+        <v>646.4020714735193</v>
       </c>
       <c r="P12" t="n">
-        <v>1404.551262724196</v>
+        <v>1362.599788512017</v>
       </c>
       <c r="Q12" t="n">
-        <v>1868.696739586976</v>
+        <v>1826.745265374797</v>
       </c>
       <c r="R12" t="n">
-        <v>1868.696739586976</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="S12" t="n">
-        <v>1787.37249214823</v>
+        <v>1827.440328020754</v>
       </c>
       <c r="T12" t="n">
-        <v>1645.492556445908</v>
+        <v>1685.560392318433</v>
       </c>
       <c r="U12" t="n">
-        <v>1460.724360365545</v>
+        <v>1500.792196238069</v>
       </c>
       <c r="V12" t="n">
-        <v>1255.751221504811</v>
+        <v>1295.819057377335</v>
       </c>
       <c r="W12" t="n">
-        <v>1059.229844338028</v>
+        <v>1099.297680210553</v>
       </c>
       <c r="X12" t="n">
-        <v>895.7524981046914</v>
+        <v>935.8203339772157</v>
       </c>
       <c r="Y12" t="n">
-        <v>756.0596094579838</v>
+        <v>796.1274453305081</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1143.190231530703</v>
+        <v>1017.001097697459</v>
       </c>
       <c r="C13" t="n">
-        <v>971.2176684096187</v>
+        <v>845.0285345763751</v>
       </c>
       <c r="D13" t="n">
-        <v>807.9008955363894</v>
+        <v>681.7117617031458</v>
       </c>
       <c r="E13" t="n">
-        <v>641.6926896892429</v>
+        <v>515.5035558559994</v>
       </c>
       <c r="F13" t="n">
-        <v>469.8309154638034</v>
+        <v>343.6417816305598</v>
       </c>
       <c r="G13" t="n">
-        <v>303.5739457580355</v>
+        <v>343.6417816305598</v>
       </c>
       <c r="H13" t="n">
-        <v>159.7776772661899</v>
+        <v>199.8455131387141</v>
       </c>
       <c r="I13" t="n">
-        <v>60.00910900646583</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J13" t="n">
-        <v>117.5004372306238</v>
+        <v>157.5682731031481</v>
       </c>
       <c r="K13" t="n">
-        <v>344.028038436461</v>
+        <v>384.0958743089853</v>
       </c>
       <c r="L13" t="n">
-        <v>698.7173597308818</v>
+        <v>738.785195603406</v>
       </c>
       <c r="M13" t="n">
-        <v>1089.903154701133</v>
+        <v>1129.970990573657</v>
       </c>
       <c r="N13" t="n">
-        <v>1467.394665577168</v>
+        <v>1507.462501449693</v>
       </c>
       <c r="O13" t="n">
-        <v>1822.822794256932</v>
+        <v>1862.890630129456</v>
       </c>
       <c r="P13" t="n">
-        <v>2113.422006178832</v>
+        <v>2153.489842051356</v>
       </c>
       <c r="Q13" t="n">
-        <v>2240.422136419594</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="R13" t="n">
-        <v>2193.383523106767</v>
+        <v>2233.451358979291</v>
       </c>
       <c r="S13" t="n">
-        <v>2193.383523106767</v>
+        <v>2097.088765190713</v>
       </c>
       <c r="T13" t="n">
-        <v>2193.383523106767</v>
+        <v>1853.749417416613</v>
       </c>
       <c r="U13" t="n">
-        <v>2193.383523106767</v>
+        <v>1573.564968916917</v>
       </c>
       <c r="V13" t="n">
-        <v>2077.115268934708</v>
+        <v>1291.853501524946</v>
       </c>
       <c r="W13" t="n">
-        <v>1802.262865107221</v>
+        <v>1017.001097697459</v>
       </c>
       <c r="X13" t="n">
-        <v>1559.698968553026</v>
+        <v>1017.001097697459</v>
       </c>
       <c r="Y13" t="n">
-        <v>1333.356200242768</v>
+        <v>1017.001097697459</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>910.2024598081655</v>
+        <v>2538.475729536478</v>
       </c>
       <c r="C14" t="n">
-        <v>483.3017298214656</v>
+        <v>2111.574999549778</v>
       </c>
       <c r="D14" t="n">
-        <v>60.00910900646583</v>
+        <v>1688.282378734778</v>
       </c>
       <c r="E14" t="n">
-        <v>60.00910900646583</v>
+        <v>1262.305438882635</v>
       </c>
       <c r="F14" t="n">
-        <v>60.00910900646583</v>
+        <v>837.1812570720355</v>
       </c>
       <c r="G14" t="n">
-        <v>60.00910900646583</v>
+        <v>432.8421946614841</v>
       </c>
       <c r="H14" t="n">
-        <v>60.00910900646583</v>
+        <v>134.9738161355189</v>
       </c>
       <c r="I14" t="n">
-        <v>60.00910900646583</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J14" t="n">
-        <v>60.00910900646583</v>
+        <v>462.6804036958856</v>
       </c>
       <c r="K14" t="n">
-        <v>775.5174169819649</v>
+        <v>1178.188711671385</v>
       </c>
       <c r="L14" t="n">
-        <v>1518.130140936979</v>
+        <v>2018.08677664988</v>
       </c>
       <c r="M14" t="n">
-        <v>1518.130140936979</v>
+        <v>2018.08677664988</v>
       </c>
       <c r="N14" t="n">
-        <v>2140.286391486374</v>
+        <v>2994.337835136581</v>
       </c>
       <c r="O14" t="n">
-        <v>2882.899115441388</v>
+        <v>3839.482485287394</v>
       </c>
       <c r="P14" t="n">
-        <v>2882.899115441388</v>
+        <v>4547.761764445321</v>
       </c>
       <c r="Q14" t="n">
-        <v>2882.899115441388</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="R14" t="n">
-        <v>3000.455450323291</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="S14" t="n">
-        <v>3000.455450323291</v>
+        <v>4899.479949822645</v>
       </c>
       <c r="T14" t="n">
-        <v>2779.529879367924</v>
+        <v>4678.554378867278</v>
       </c>
       <c r="U14" t="n">
-        <v>2521.174969964337</v>
+        <v>4420.19946946369</v>
       </c>
       <c r="V14" t="n">
-        <v>2521.174969964337</v>
+        <v>4062.710054589939</v>
       </c>
       <c r="W14" t="n">
-        <v>2124.783620264684</v>
+        <v>3666.318704890286</v>
       </c>
       <c r="X14" t="n">
-        <v>1713.063621432431</v>
+        <v>3363.661363873117</v>
       </c>
       <c r="Y14" t="n">
-        <v>1307.726351387322</v>
+        <v>2958.324093828008</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>627.1326000379211</v>
+        <v>667.2004359104453</v>
       </c>
       <c r="C15" t="n">
-        <v>509.6266965554258</v>
+        <v>549.6945324279501</v>
       </c>
       <c r="D15" t="n">
-        <v>405.7867380707108</v>
+        <v>445.8545739432351</v>
       </c>
       <c r="E15" t="n">
-        <v>301.084804343648</v>
+        <v>341.1526402161723</v>
       </c>
       <c r="F15" t="n">
-        <v>207.4389740265522</v>
+        <v>247.5068098990765</v>
       </c>
       <c r="G15" t="n">
-        <v>113.3852022441562</v>
+        <v>153.4530381166805</v>
       </c>
       <c r="H15" t="n">
-        <v>60.00910900646583</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="I15" t="n">
-        <v>60.00910900646583</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J15" t="n">
-        <v>331.7065982860569</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="K15" t="n">
-        <v>331.7065982860569</v>
+        <v>555.1378205852488</v>
       </c>
       <c r="L15" t="n">
-        <v>409.886298593463</v>
+        <v>555.1378205852488</v>
       </c>
       <c r="M15" t="n">
-        <v>409.886298593463</v>
+        <v>555.1378205852488</v>
       </c>
       <c r="N15" t="n">
-        <v>1152.499022548478</v>
+        <v>555.1378205852488</v>
       </c>
       <c r="O15" t="n">
-        <v>1152.499022548478</v>
+        <v>1444.619098596721</v>
       </c>
       <c r="P15" t="n">
-        <v>1868.696739586976</v>
+        <v>1444.619098596721</v>
       </c>
       <c r="Q15" t="n">
-        <v>1868.696739586976</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="R15" t="n">
-        <v>1868.696739586976</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="S15" t="n">
-        <v>1787.37249214823</v>
+        <v>1827.440328020754</v>
       </c>
       <c r="T15" t="n">
-        <v>1645.492556445908</v>
+        <v>1685.560392318433</v>
       </c>
       <c r="U15" t="n">
-        <v>1460.724360365545</v>
+        <v>1500.792196238069</v>
       </c>
       <c r="V15" t="n">
-        <v>1255.751221504811</v>
+        <v>1295.819057377335</v>
       </c>
       <c r="W15" t="n">
-        <v>1059.229844338028</v>
+        <v>1099.297680210553</v>
       </c>
       <c r="X15" t="n">
-        <v>895.7524981046914</v>
+        <v>935.8203339772157</v>
       </c>
       <c r="Y15" t="n">
-        <v>756.0596094579838</v>
+        <v>796.1274453305081</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>727.7636205536935</v>
+        <v>789.1743829682065</v>
       </c>
       <c r="C16" t="n">
-        <v>555.7910574326095</v>
+        <v>789.1743829682065</v>
       </c>
       <c r="D16" t="n">
-        <v>392.4742845593801</v>
+        <v>681.7117617031458</v>
       </c>
       <c r="E16" t="n">
-        <v>226.2660787122337</v>
+        <v>515.5035558559994</v>
       </c>
       <c r="F16" t="n">
-        <v>226.2660787122337</v>
+        <v>343.6417816305598</v>
       </c>
       <c r="G16" t="n">
-        <v>60.00910900646583</v>
+        <v>343.6417816305598</v>
       </c>
       <c r="H16" t="n">
-        <v>60.00910900646583</v>
+        <v>199.8455131387141</v>
       </c>
       <c r="I16" t="n">
-        <v>60.00910900646583</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J16" t="n">
-        <v>117.5004372306238</v>
+        <v>157.5682731031481</v>
       </c>
       <c r="K16" t="n">
-        <v>344.028038436461</v>
+        <v>384.0958743089853</v>
       </c>
       <c r="L16" t="n">
-        <v>698.7173597308818</v>
+        <v>738.785195603406</v>
       </c>
       <c r="M16" t="n">
-        <v>1089.903154701133</v>
+        <v>1129.970990573657</v>
       </c>
       <c r="N16" t="n">
-        <v>1467.394665577168</v>
+        <v>1507.462501449693</v>
       </c>
       <c r="O16" t="n">
-        <v>1822.822794256932</v>
+        <v>1862.890630129456</v>
       </c>
       <c r="P16" t="n">
-        <v>2113.422006178832</v>
+        <v>2153.489842051356</v>
       </c>
       <c r="Q16" t="n">
-        <v>2240.422136419594</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="R16" t="n">
-        <v>2193.383523106767</v>
+        <v>2233.451358979291</v>
       </c>
       <c r="S16" t="n">
-        <v>2023.248475625902</v>
+        <v>2063.316311498426</v>
       </c>
       <c r="T16" t="n">
-        <v>1779.909127851802</v>
+        <v>1819.976963724326</v>
       </c>
       <c r="U16" t="n">
-        <v>1499.724679352106</v>
+        <v>1539.792515224631</v>
       </c>
       <c r="V16" t="n">
-        <v>1218.013211960135</v>
+        <v>1258.081047832659</v>
       </c>
       <c r="W16" t="n">
-        <v>943.1608081326483</v>
+        <v>1258.081047832659</v>
       </c>
       <c r="X16" t="n">
-        <v>917.9295892657592</v>
+        <v>1015.517151278464</v>
       </c>
       <c r="Y16" t="n">
-        <v>917.9295892657592</v>
+        <v>789.1743829682065</v>
       </c>
     </row>
     <row r="17">
@@ -5504,10 +5506,10 @@
         <v>839.4070255988747</v>
       </c>
       <c r="G17" t="n">
-        <v>435.0679631883233</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H17" t="n">
-        <v>137.1995846623582</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I17" t="n">
         <v>102.3027134058285</v>
@@ -5528,7 +5530,7 @@
         <v>3160.951640103982</v>
       </c>
       <c r="O17" t="n">
-        <v>4006.096290254794</v>
+        <v>3950.770911629316</v>
       </c>
       <c r="P17" t="n">
         <v>4659.050190787244</v>
@@ -5589,28 +5591,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I18" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J18" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="K18" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="L18" t="n">
-        <v>390.8583291475138</v>
+        <v>855.0038060102931</v>
       </c>
       <c r="M18" t="n">
-        <v>1446.844867123559</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="N18" t="n">
-        <v>1446.844867123559</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O18" t="n">
-        <v>1446.844867123559</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P18" t="n">
-        <v>1446.844867123559</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q18" t="n">
         <v>1910.990343986338</v>
@@ -5647,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>847.2543031032136</v>
+        <v>747.5965237391339</v>
       </c>
       <c r="C19" t="n">
-        <v>847.2543031032136</v>
+        <v>575.6239606180499</v>
       </c>
       <c r="D19" t="n">
-        <v>683.9375302299843</v>
+        <v>412.3071877448206</v>
       </c>
       <c r="E19" t="n">
-        <v>517.7293243828378</v>
+        <v>246.0989818976742</v>
       </c>
       <c r="F19" t="n">
-        <v>345.8675501573982</v>
+        <v>246.0989818976742</v>
       </c>
       <c r="G19" t="n">
-        <v>345.8675501573982</v>
+        <v>246.0989818976742</v>
       </c>
       <c r="H19" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I19" t="n">
         <v>102.3027134058285</v>
@@ -5695,28 +5697,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R19" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S19" t="n">
-        <v>2153.684738906726</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T19" t="n">
-        <v>1910.345391132626</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U19" t="n">
-        <v>1630.16094263293</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V19" t="n">
-        <v>1348.449475240959</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="W19" t="n">
-        <v>1073.597071413472</v>
+        <v>985.454412532011</v>
       </c>
       <c r="X19" t="n">
-        <v>1073.597071413472</v>
+        <v>973.9392920493918</v>
       </c>
       <c r="Y19" t="n">
-        <v>847.2543031032136</v>
+        <v>747.5965237391339</v>
       </c>
     </row>
     <row r="20">
@@ -5729,13 +5731,13 @@
         <v>2540.701498063317</v>
       </c>
       <c r="C20" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076617</v>
       </c>
       <c r="D20" t="n">
-        <v>1690.508147261616</v>
+        <v>1690.508147261617</v>
       </c>
       <c r="E20" t="n">
-        <v>1264.531207409474</v>
+        <v>1264.531207409475</v>
       </c>
       <c r="F20" t="n">
         <v>839.4070255988738</v>
@@ -5750,28 +5752,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J20" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K20" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L20" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M20" t="n">
-        <v>2751.722170419663</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N20" t="n">
-        <v>3727.973228906364</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O20" t="n">
-        <v>4573.117879057176</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P20" t="n">
-        <v>5115.135670291427</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q20" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R20" t="n">
         <v>5115.135670291427</v>
@@ -5826,31 +5828,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I21" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J21" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="K21" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="L21" t="n">
-        <v>102.3027134058285</v>
+        <v>946.5481644506465</v>
       </c>
       <c r="M21" t="n">
-        <v>1158.289251381874</v>
+        <v>946.5481644506465</v>
       </c>
       <c r="N21" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="O21" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="P21" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="Q21" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R21" t="n">
         <v>1910.990343986338</v>
@@ -5884,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>437.5920494001418</v>
+        <v>584.328514724526</v>
       </c>
       <c r="C22" t="n">
-        <v>265.6194862790578</v>
+        <v>412.355951603442</v>
       </c>
       <c r="D22" t="n">
-        <v>102.3027134058285</v>
+        <v>412.355951603442</v>
       </c>
       <c r="E22" t="n">
-        <v>102.3027134058285</v>
+        <v>412.355951603442</v>
       </c>
       <c r="F22" t="n">
-        <v>102.3027134058285</v>
+        <v>412.355951603442</v>
       </c>
       <c r="G22" t="n">
-        <v>102.3027134058285</v>
+        <v>246.0989818976742</v>
       </c>
       <c r="H22" t="n">
         <v>102.3027134058285</v>
@@ -5932,28 +5934,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R22" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S22" t="n">
-        <v>2176.752350469914</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="T22" t="n">
-        <v>1933.413002695814</v>
+        <v>2080.149468020199</v>
       </c>
       <c r="U22" t="n">
-        <v>1653.228554196118</v>
+        <v>1799.965019520503</v>
       </c>
       <c r="V22" t="n">
-        <v>1371.517086804147</v>
+        <v>1518.253552128532</v>
       </c>
       <c r="W22" t="n">
-        <v>1096.66468297666</v>
+        <v>1243.401148301044</v>
       </c>
       <c r="X22" t="n">
-        <v>854.1007864224655</v>
+        <v>1000.83725174685</v>
       </c>
       <c r="Y22" t="n">
-        <v>627.7580181122075</v>
+        <v>774.4944834365917</v>
       </c>
     </row>
     <row r="23">
@@ -5996,16 +5998,16 @@
         <v>2110.0395278175</v>
       </c>
       <c r="M23" t="n">
-        <v>3114.325629236558</v>
+        <v>2837.654482149731</v>
       </c>
       <c r="N23" t="n">
-        <v>4090.576687723259</v>
+        <v>3813.905540636432</v>
       </c>
       <c r="O23" t="n">
-        <v>4935.721337874071</v>
+        <v>4659.050190787244</v>
       </c>
       <c r="P23" t="n">
-        <v>5115.135670291427</v>
+        <v>4659.050190787244</v>
       </c>
       <c r="Q23" t="n">
         <v>5115.135670291427</v>
@@ -6069,25 +6071,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K24" t="n">
-        <v>102.3027134058285</v>
+        <v>275.5106105659859</v>
       </c>
       <c r="L24" t="n">
-        <v>102.3027134058285</v>
+        <v>275.5106105659859</v>
       </c>
       <c r="M24" t="n">
-        <v>821.6753975134684</v>
+        <v>275.5106105659859</v>
       </c>
       <c r="N24" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="O24" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="P24" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q24" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R24" t="n">
         <v>1910.990343986338</v>
@@ -6121,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1085.715267670341</v>
+        <v>568.9456755096874</v>
       </c>
       <c r="C25" t="n">
-        <v>913.7427045492574</v>
+        <v>396.9731123886033</v>
       </c>
       <c r="D25" t="n">
-        <v>750.4259316760281</v>
+        <v>233.656339515374</v>
       </c>
       <c r="E25" t="n">
-        <v>584.2177258288816</v>
+        <v>233.656339515374</v>
       </c>
       <c r="F25" t="n">
-        <v>412.355951603442</v>
+        <v>233.656339515374</v>
       </c>
       <c r="G25" t="n">
-        <v>246.0989818976742</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H25" t="n">
         <v>102.3027134058285</v>
@@ -6169,28 +6171,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R25" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S25" t="n">
-        <v>2112.580693338092</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T25" t="n">
-        <v>1869.241345563992</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U25" t="n">
-        <v>1589.056897064296</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V25" t="n">
-        <v>1360.567671497828</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="W25" t="n">
-        <v>1085.715267670341</v>
+        <v>985.454412532011</v>
       </c>
       <c r="X25" t="n">
-        <v>1085.715267670341</v>
+        <v>985.454412532011</v>
       </c>
       <c r="Y25" t="n">
-        <v>1085.715267670341</v>
+        <v>759.1116442217531</v>
       </c>
     </row>
     <row r="26">
@@ -6224,28 +6226,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J26" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K26" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L26" t="n">
-        <v>1747.436069000604</v>
+        <v>1463.618246195026</v>
       </c>
       <c r="M26" t="n">
-        <v>2751.722170419663</v>
+        <v>2467.904347614084</v>
       </c>
       <c r="N26" t="n">
-        <v>3727.973228906364</v>
+        <v>3444.155406100785</v>
       </c>
       <c r="O26" t="n">
-        <v>4573.117879057176</v>
+        <v>4289.300056251597</v>
       </c>
       <c r="P26" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="Q26" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R26" t="n">
         <v>5115.135670291427</v>
@@ -6300,31 +6302,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I27" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J27" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K27" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="L27" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="M27" t="n">
-        <v>1021.509065974867</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="N27" t="n">
-        <v>1021.509065974867</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="O27" t="n">
-        <v>1910.990343986338</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="P27" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q27" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R27" t="n">
         <v>1910.990343986338</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3899.49916549545</v>
+        <v>437.5920494001418</v>
       </c>
       <c r="C28" t="n">
-        <v>3727.526602374366</v>
+        <v>265.6194862790578</v>
       </c>
       <c r="D28" t="n">
-        <v>3564.209829501137</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="E28" t="n">
-        <v>3398.00162365399</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="F28" t="n">
-        <v>3226.139849428551</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G28" t="n">
-        <v>3078.518911370144</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H28" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I28" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J28" t="n">
-        <v>2992.213971102457</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K28" t="n">
-        <v>3218.741572308294</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L28" t="n">
-        <v>3573.430893602715</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M28" t="n">
-        <v>3964.616688572966</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N28" t="n">
-        <v>4342.108199449001</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O28" t="n">
-        <v>4697.536328128765</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P28" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q28" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R28" t="n">
-        <v>5115.135670291427</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S28" t="n">
-        <v>5115.135670291427</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T28" t="n">
-        <v>5115.135670291427</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U28" t="n">
-        <v>5115.135670291427</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V28" t="n">
-        <v>4833.424202899456</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="W28" t="n">
-        <v>4558.571799071969</v>
+        <v>985.454412532011</v>
       </c>
       <c r="X28" t="n">
-        <v>4316.007902517774</v>
+        <v>854.1007864224655</v>
       </c>
       <c r="Y28" t="n">
-        <v>4089.665134207516</v>
+        <v>627.7580181122075</v>
       </c>
     </row>
     <row r="29">
@@ -6464,22 +6466,22 @@
         <v>464.9061722227241</v>
       </c>
       <c r="K29" t="n">
-        <v>1007.532766690843</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L29" t="n">
-        <v>1007.532766690843</v>
+        <v>1463.618246195026</v>
       </c>
       <c r="M29" t="n">
-        <v>2011.818868109901</v>
+        <v>2467.904347614084</v>
       </c>
       <c r="N29" t="n">
-        <v>2988.069926596602</v>
+        <v>3444.155406100785</v>
       </c>
       <c r="O29" t="n">
-        <v>3833.214576747414</v>
+        <v>4289.300056251597</v>
       </c>
       <c r="P29" t="n">
-        <v>4541.493855905342</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="Q29" t="n">
         <v>4997.579335409525</v>
@@ -6546,16 +6548,16 @@
         <v>102.3027134058285</v>
       </c>
       <c r="L30" t="n">
-        <v>102.3027134058285</v>
+        <v>305.3113489363686</v>
       </c>
       <c r="M30" t="n">
-        <v>821.6753975134684</v>
+        <v>305.3113489363686</v>
       </c>
       <c r="N30" t="n">
-        <v>1910.990343986338</v>
+        <v>305.3113489363686</v>
       </c>
       <c r="O30" t="n">
-        <v>1910.990343986338</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="P30" t="n">
         <v>1910.990343986338</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3602.477154425526</v>
+        <v>326.3817789554925</v>
       </c>
       <c r="C31" t="n">
-        <v>3430.504591304442</v>
+        <v>154.4092158344085</v>
       </c>
       <c r="D31" t="n">
-        <v>3267.187818431213</v>
+        <v>154.4092158344085</v>
       </c>
       <c r="E31" t="n">
-        <v>3100.979612584067</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="F31" t="n">
-        <v>3100.979612584067</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G31" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H31" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I31" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J31" t="n">
-        <v>2992.213971102457</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K31" t="n">
-        <v>3218.741572308294</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L31" t="n">
-        <v>3573.430893602715</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M31" t="n">
-        <v>3964.616688572966</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N31" t="n">
-        <v>4342.108199449001</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O31" t="n">
-        <v>4697.536328128765</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P31" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q31" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R31" t="n">
-        <v>5115.135670291427</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S31" t="n">
-        <v>4945.000622810562</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T31" t="n">
-        <v>4701.661275036462</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U31" t="n">
-        <v>4421.476826536767</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V31" t="n">
-        <v>4139.765359144795</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="W31" t="n">
-        <v>4018.98589144785</v>
+        <v>985.454412532011</v>
       </c>
       <c r="X31" t="n">
-        <v>4018.98589144785</v>
+        <v>742.8905159778161</v>
       </c>
       <c r="Y31" t="n">
-        <v>3792.643123137592</v>
+        <v>516.5477476675582</v>
       </c>
     </row>
     <row r="32">
@@ -6704,22 +6706,22 @@
         <v>1180.414480198223</v>
       </c>
       <c r="L32" t="n">
-        <v>2110.0395278175</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="M32" t="n">
-        <v>3114.325629236558</v>
+        <v>2011.818868109901</v>
       </c>
       <c r="N32" t="n">
-        <v>4090.576687723259</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O32" t="n">
-        <v>4090.576687723259</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P32" t="n">
-        <v>4659.050190787244</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q32" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R32" t="n">
         <v>5115.135670291427</v>
@@ -6777,28 +6779,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J33" t="n">
-        <v>102.3027134058285</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="K33" t="n">
-        <v>102.3027134058285</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="L33" t="n">
-        <v>102.3027134058285</v>
+        <v>1112.773316863137</v>
       </c>
       <c r="M33" t="n">
-        <v>1158.289251381874</v>
+        <v>1112.773316863137</v>
       </c>
       <c r="N33" t="n">
-        <v>1910.990343986338</v>
+        <v>1112.773316863137</v>
       </c>
       <c r="O33" t="n">
-        <v>1910.990343986338</v>
+        <v>1112.773316863137</v>
       </c>
       <c r="P33" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="Q33" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R33" t="n">
         <v>1910.990343986338</v>
@@ -6832,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>678.3327257103126</v>
+        <v>769.9464360574118</v>
       </c>
       <c r="C34" t="n">
-        <v>678.3327257103126</v>
+        <v>769.9464360574118</v>
       </c>
       <c r="D34" t="n">
-        <v>678.3327257103126</v>
+        <v>606.6296631841825</v>
       </c>
       <c r="E34" t="n">
-        <v>512.1245198631661</v>
+        <v>440.421457337036</v>
       </c>
       <c r="F34" t="n">
-        <v>512.1245198631661</v>
+        <v>268.5596831115964</v>
       </c>
       <c r="G34" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H34" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I34" t="n">
         <v>102.3027134058285</v>
@@ -6886,22 +6888,22 @@
         <v>2065.542080025265</v>
       </c>
       <c r="T34" t="n">
-        <v>1822.202732251165</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="U34" t="n">
-        <v>1542.018283751469</v>
+        <v>1785.357631525569</v>
       </c>
       <c r="V34" t="n">
-        <v>1260.306816359498</v>
+        <v>1503.646164133598</v>
       </c>
       <c r="W34" t="n">
-        <v>985.454412532011</v>
+        <v>1429.01906963393</v>
       </c>
       <c r="X34" t="n">
-        <v>742.8905159778161</v>
+        <v>1186.455173079735</v>
       </c>
       <c r="Y34" t="n">
-        <v>678.3327257103126</v>
+        <v>960.1124047694775</v>
       </c>
     </row>
     <row r="35">
@@ -6935,28 +6937,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J35" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K35" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L35" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M35" t="n">
-        <v>2751.722170419663</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N35" t="n">
-        <v>3727.973228906364</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O35" t="n">
-        <v>4406.8563911335</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="P35" t="n">
-        <v>5115.135670291427</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q35" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R35" t="n">
         <v>5115.135670291427</v>
@@ -7020,19 +7022,19 @@
         <v>102.3027134058285</v>
       </c>
       <c r="L36" t="n">
-        <v>939.1015214887346</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M36" t="n">
-        <v>939.1015214887346</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="N36" t="n">
-        <v>1910.990343986338</v>
+        <v>557.3635891120873</v>
       </c>
       <c r="O36" t="n">
-        <v>1910.990343986338</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="P36" t="n">
-        <v>1910.990343986338</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q36" t="n">
         <v>1910.990343986338</v>
@@ -7069,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1185.483835930065</v>
+        <v>326.3817789554925</v>
       </c>
       <c r="C37" t="n">
-        <v>1013.511272808982</v>
+        <v>154.4092158344085</v>
       </c>
       <c r="D37" t="n">
-        <v>850.1944999357522</v>
+        <v>154.4092158344085</v>
       </c>
       <c r="E37" t="n">
-        <v>683.9862940886057</v>
+        <v>154.4092158344085</v>
       </c>
       <c r="F37" t="n">
-        <v>512.1245198631661</v>
+        <v>154.4092158344085</v>
       </c>
       <c r="G37" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H37" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I37" t="n">
         <v>102.3027134058285</v>
@@ -7117,28 +7119,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R37" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S37" t="n">
-        <v>2112.580693338092</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T37" t="n">
-        <v>2112.580693338092</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U37" t="n">
-        <v>1832.396244838396</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V37" t="n">
-        <v>1832.396244838396</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="W37" t="n">
-        <v>1832.396244838396</v>
+        <v>985.454412532011</v>
       </c>
       <c r="X37" t="n">
-        <v>1601.992572952389</v>
+        <v>742.8905159778161</v>
       </c>
       <c r="Y37" t="n">
-        <v>1375.649804642131</v>
+        <v>516.5477476675582</v>
       </c>
     </row>
     <row r="38">
@@ -7157,7 +7159,7 @@
         <v>1690.508147261617</v>
       </c>
       <c r="E38" t="n">
-        <v>1264.531207409474</v>
+        <v>1264.531207409475</v>
       </c>
       <c r="F38" t="n">
         <v>839.4070255988738</v>
@@ -7175,25 +7177,25 @@
         <v>464.9061722227241</v>
       </c>
       <c r="K38" t="n">
-        <v>1125.089101572745</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L38" t="n">
-        <v>1125.089101572745</v>
+        <v>1715.81204584877</v>
       </c>
       <c r="M38" t="n">
-        <v>2129.375202991803</v>
+        <v>2720.098147267829</v>
       </c>
       <c r="N38" t="n">
-        <v>3105.626261478504</v>
+        <v>3696.34920575453</v>
       </c>
       <c r="O38" t="n">
-        <v>3950.770911629316</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="P38" t="n">
-        <v>4659.050190787244</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q38" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R38" t="n">
         <v>5115.135670291427</v>
@@ -7254,25 +7256,25 @@
         <v>374.0002026854196</v>
       </c>
       <c r="K39" t="n">
-        <v>964.4851292537592</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="L39" t="n">
-        <v>964.4851292537592</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="M39" t="n">
-        <v>964.4851292537592</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="N39" t="n">
-        <v>1910.990343986338</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="O39" t="n">
-        <v>1910.990343986338</v>
+        <v>1263.481480696891</v>
       </c>
       <c r="P39" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q39" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R39" t="n">
         <v>1910.990343986338</v>
@@ -7306,49 +7308,49 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1185.483835930065</v>
+        <v>603.8002552472883</v>
       </c>
       <c r="C40" t="n">
-        <v>1013.511272808982</v>
+        <v>431.8276921262043</v>
       </c>
       <c r="D40" t="n">
-        <v>850.1944999357522</v>
+        <v>268.510919252975</v>
       </c>
       <c r="E40" t="n">
-        <v>683.9862940886057</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="F40" t="n">
-        <v>512.1245198631661</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G40" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H40" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I40" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J40" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299896</v>
       </c>
       <c r="K40" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358268</v>
       </c>
       <c r="L40" t="n">
-        <v>741.0109641302445</v>
+        <v>741.0109641302475</v>
       </c>
       <c r="M40" t="n">
-        <v>1132.196759100495</v>
+        <v>1132.196759100498</v>
       </c>
       <c r="N40" t="n">
-        <v>1509.688269976531</v>
+        <v>1509.688269976534</v>
       </c>
       <c r="O40" t="n">
-        <v>1865.116398656294</v>
+        <v>1865.116398656297</v>
       </c>
       <c r="P40" t="n">
-        <v>2155.715610578195</v>
+        <v>2155.715610578198</v>
       </c>
       <c r="Q40" t="n">
         <v>2282.71574081896</v>
@@ -7360,22 +7362,22 @@
         <v>2065.542080025268</v>
       </c>
       <c r="T40" t="n">
-        <v>2065.542080025268</v>
+        <v>1822.202732251168</v>
       </c>
       <c r="U40" t="n">
-        <v>2065.542080025268</v>
+        <v>1542.018283751472</v>
       </c>
       <c r="V40" t="n">
-        <v>2065.542080025268</v>
+        <v>1260.306816359501</v>
       </c>
       <c r="W40" t="n">
-        <v>1844.556469506584</v>
+        <v>985.4544125320142</v>
       </c>
       <c r="X40" t="n">
-        <v>1601.992572952389</v>
+        <v>793.966223959354</v>
       </c>
       <c r="Y40" t="n">
-        <v>1375.649804642131</v>
+        <v>793.966223959354</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1257.589641218964</v>
+        <v>2538.475729536478</v>
       </c>
       <c r="C41" t="n">
-        <v>830.6889112322642</v>
+        <v>2111.574999549778</v>
       </c>
       <c r="D41" t="n">
-        <v>407.3962904172645</v>
+        <v>1688.282378734778</v>
       </c>
       <c r="E41" t="n">
-        <v>392.7743587889598</v>
+        <v>1262.305438882635</v>
       </c>
       <c r="F41" t="n">
-        <v>392.7743587889598</v>
+        <v>837.1812570720355</v>
       </c>
       <c r="G41" t="n">
-        <v>392.7743587889598</v>
+        <v>432.8421946614841</v>
       </c>
       <c r="H41" t="n">
-        <v>94.90598026299462</v>
+        <v>134.9738161355189</v>
       </c>
       <c r="I41" t="n">
-        <v>60.00910900646583</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J41" t="n">
-        <v>422.6125678233614</v>
+        <v>462.6804036958856</v>
       </c>
       <c r="K41" t="n">
-        <v>1138.12087579886</v>
+        <v>1178.188711671385</v>
       </c>
       <c r="L41" t="n">
-        <v>1880.733599753875</v>
+        <v>2107.813759290661</v>
       </c>
       <c r="M41" t="n">
-        <v>2623.346323708889</v>
+        <v>3112.09986070972</v>
       </c>
       <c r="N41" t="n">
-        <v>3000.455450323291</v>
+        <v>4088.350919196421</v>
       </c>
       <c r="O41" t="n">
-        <v>3000.455450323291</v>
+        <v>4430.205429563419</v>
       </c>
       <c r="P41" t="n">
-        <v>3000.455450323291</v>
+        <v>4430.205429563419</v>
       </c>
       <c r="Q41" t="n">
-        <v>3000.455450323291</v>
+        <v>4886.290909067602</v>
       </c>
       <c r="R41" t="n">
-        <v>3000.455450323291</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="S41" t="n">
-        <v>2896.088156196432</v>
+        <v>4899.479949822645</v>
       </c>
       <c r="T41" t="n">
-        <v>2675.162585241065</v>
+        <v>4678.554378867278</v>
       </c>
       <c r="U41" t="n">
-        <v>2416.807675837477</v>
+        <v>4420.19946946369</v>
       </c>
       <c r="V41" t="n">
-        <v>2059.318260963727</v>
+        <v>4171.772712405023</v>
       </c>
       <c r="W41" t="n">
-        <v>1662.926911264074</v>
+        <v>3775.38136270537</v>
       </c>
       <c r="X41" t="n">
-        <v>1662.926911264074</v>
+        <v>3363.661363873117</v>
       </c>
       <c r="Y41" t="n">
-        <v>1257.589641218964</v>
+        <v>2958.324093828008</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>627.1326000379211</v>
+        <v>3762.283104400451</v>
       </c>
       <c r="C42" t="n">
-        <v>509.6266965554258</v>
+        <v>3644.777200917955</v>
       </c>
       <c r="D42" t="n">
-        <v>405.7867380707108</v>
+        <v>3540.93724243324</v>
       </c>
       <c r="E42" t="n">
-        <v>301.084804343648</v>
+        <v>3436.235308706178</v>
       </c>
       <c r="F42" t="n">
-        <v>207.4389740265522</v>
+        <v>3342.589478389082</v>
       </c>
       <c r="G42" t="n">
-        <v>113.3852022441562</v>
+        <v>3248.535706606686</v>
       </c>
       <c r="H42" t="n">
-        <v>60.00910900646583</v>
+        <v>3195.159613368996</v>
       </c>
       <c r="I42" t="n">
-        <v>60.00910900646583</v>
+        <v>3195.159613368996</v>
       </c>
       <c r="J42" t="n">
-        <v>60.00910900646583</v>
+        <v>3195.159613368996</v>
       </c>
       <c r="K42" t="n">
-        <v>60.00910900646583</v>
+        <v>3195.159613368996</v>
       </c>
       <c r="L42" t="n">
-        <v>60.00910900646583</v>
+        <v>3195.159613368996</v>
       </c>
       <c r="M42" t="n">
-        <v>60.00910900646583</v>
+        <v>3195.159613368996</v>
       </c>
       <c r="N42" t="n">
-        <v>802.6218329614803</v>
+        <v>4284.474559841866</v>
       </c>
       <c r="O42" t="n">
-        <v>802.6218329614803</v>
+        <v>4284.474559841866</v>
       </c>
       <c r="P42" t="n">
-        <v>1518.819549999978</v>
+        <v>4539.701767086725</v>
       </c>
       <c r="Q42" t="n">
-        <v>1868.696739586976</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="R42" t="n">
-        <v>1868.696739586976</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="S42" t="n">
-        <v>1787.37249214823</v>
+        <v>4922.522996510759</v>
       </c>
       <c r="T42" t="n">
-        <v>1645.492556445908</v>
+        <v>4780.643060808437</v>
       </c>
       <c r="U42" t="n">
-        <v>1460.724360365545</v>
+        <v>4595.874864728074</v>
       </c>
       <c r="V42" t="n">
-        <v>1255.751221504811</v>
+        <v>4390.901725867341</v>
       </c>
       <c r="W42" t="n">
-        <v>1059.229844338028</v>
+        <v>4194.380348700558</v>
       </c>
       <c r="X42" t="n">
-        <v>895.7524981046914</v>
+        <v>4030.903002467221</v>
       </c>
       <c r="Y42" t="n">
-        <v>756.0596094579838</v>
+        <v>3891.210113820513</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1043.421663270979</v>
+        <v>3399.46422884086</v>
       </c>
       <c r="C43" t="n">
-        <v>871.4491001498947</v>
+        <v>3399.46422884086</v>
       </c>
       <c r="D43" t="n">
-        <v>708.1323272766654</v>
+        <v>3399.46422884086</v>
       </c>
       <c r="E43" t="n">
-        <v>541.9241214295189</v>
+        <v>3233.256022993713</v>
       </c>
       <c r="F43" t="n">
-        <v>370.0623472040793</v>
+        <v>3233.256022993713</v>
       </c>
       <c r="G43" t="n">
-        <v>203.8053774983114</v>
+        <v>3066.999053287946</v>
       </c>
       <c r="H43" t="n">
-        <v>60.00910900646583</v>
+        <v>2923.2027847961</v>
       </c>
       <c r="I43" t="n">
-        <v>60.00910900646583</v>
+        <v>2823.434216536376</v>
       </c>
       <c r="J43" t="n">
-        <v>117.5004372306238</v>
+        <v>2880.925544760534</v>
       </c>
       <c r="K43" t="n">
-        <v>344.028038436461</v>
+        <v>3107.453145966371</v>
       </c>
       <c r="L43" t="n">
-        <v>698.7173597308818</v>
+        <v>3462.142467260792</v>
       </c>
       <c r="M43" t="n">
-        <v>1089.903154701133</v>
+        <v>3853.328262231043</v>
       </c>
       <c r="N43" t="n">
-        <v>1467.394665577168</v>
+        <v>4230.819773107079</v>
       </c>
       <c r="O43" t="n">
-        <v>1822.822794256932</v>
+        <v>4586.247901786842</v>
       </c>
       <c r="P43" t="n">
-        <v>2113.422006178832</v>
+        <v>4876.847113708743</v>
       </c>
       <c r="Q43" t="n">
-        <v>2240.422136419594</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="R43" t="n">
-        <v>2193.383523106767</v>
+        <v>4956.808630636678</v>
       </c>
       <c r="S43" t="n">
-        <v>2023.248475625902</v>
+        <v>4786.673583155813</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.346700674984</v>
+        <v>4786.673583155813</v>
       </c>
       <c r="U43" t="n">
-        <v>1977.346700674984</v>
+        <v>4615.100733636837</v>
       </c>
       <c r="V43" t="n">
-        <v>1977.346700674984</v>
+        <v>4333.389266244865</v>
       </c>
       <c r="W43" t="n">
-        <v>1702.494296847497</v>
+        <v>4058.536862417378</v>
       </c>
       <c r="X43" t="n">
-        <v>1459.930400293302</v>
+        <v>3815.972965863184</v>
       </c>
       <c r="Y43" t="n">
-        <v>1233.587631983044</v>
+        <v>3589.630197552925</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1208.070838334131</v>
+        <v>2538.475729536478</v>
       </c>
       <c r="C44" t="n">
-        <v>781.1701083474308</v>
+        <v>2111.574999549778</v>
       </c>
       <c r="D44" t="n">
-        <v>357.877487532431</v>
+        <v>1688.282378734778</v>
       </c>
       <c r="E44" t="n">
-        <v>357.877487532431</v>
+        <v>1262.305438882635</v>
       </c>
       <c r="F44" t="n">
-        <v>357.877487532431</v>
+        <v>837.1812570720355</v>
       </c>
       <c r="G44" t="n">
-        <v>357.877487532431</v>
+        <v>432.8421946614841</v>
       </c>
       <c r="H44" t="n">
-        <v>60.00910900646583</v>
+        <v>134.9738161355189</v>
       </c>
       <c r="I44" t="n">
-        <v>60.00910900646583</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J44" t="n">
-        <v>422.6125678233614</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="K44" t="n">
-        <v>1138.12087579886</v>
+        <v>815.5852528544891</v>
       </c>
       <c r="L44" t="n">
-        <v>1138.12087579886</v>
+        <v>1745.210300473766</v>
       </c>
       <c r="M44" t="n">
-        <v>1718.534356779277</v>
+        <v>2749.496401892824</v>
       </c>
       <c r="N44" t="n">
-        <v>1718.534356779277</v>
+        <v>2876.781500254679</v>
       </c>
       <c r="O44" t="n">
-        <v>1718.534356779277</v>
+        <v>3721.926150405491</v>
       </c>
       <c r="P44" t="n">
-        <v>2426.813635937205</v>
+        <v>4430.205429563419</v>
       </c>
       <c r="Q44" t="n">
-        <v>2882.899115441388</v>
+        <v>4886.290909067602</v>
       </c>
       <c r="R44" t="n">
-        <v>3000.455450323291</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="S44" t="n">
-        <v>2896.088156196432</v>
+        <v>4899.479949822645</v>
       </c>
       <c r="T44" t="n">
-        <v>2675.162585241065</v>
+        <v>4678.554378867278</v>
       </c>
       <c r="U44" t="n">
-        <v>2416.807675837477</v>
+        <v>4420.19946946369</v>
       </c>
       <c r="V44" t="n">
-        <v>2059.318260963727</v>
+        <v>4171.772712405023</v>
       </c>
       <c r="W44" t="n">
-        <v>1662.926911264074</v>
+        <v>3775.38136270537</v>
       </c>
       <c r="X44" t="n">
-        <v>1627.919202625661</v>
+        <v>3363.661363873117</v>
       </c>
       <c r="Y44" t="n">
-        <v>1627.919202625661</v>
+        <v>2958.324093828008</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>1758.891310774237</v>
+        <v>667.2004359104453</v>
       </c>
       <c r="C45" t="n">
-        <v>1641.385407291742</v>
+        <v>549.6945324279501</v>
       </c>
       <c r="D45" t="n">
-        <v>1537.545448807027</v>
+        <v>445.8545739432351</v>
       </c>
       <c r="E45" t="n">
-        <v>1432.843515079964</v>
+        <v>341.1526402161723</v>
       </c>
       <c r="F45" t="n">
-        <v>1339.197684762868</v>
+        <v>247.5068098990765</v>
       </c>
       <c r="G45" t="n">
-        <v>1245.143912980472</v>
+        <v>153.4530381166805</v>
       </c>
       <c r="H45" t="n">
-        <v>1191.767819742782</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="I45" t="n">
-        <v>1191.767819742782</v>
+        <v>107.5235878409019</v>
       </c>
       <c r="J45" t="n">
-        <v>1191.767819742782</v>
+        <v>107.5235878409019</v>
       </c>
       <c r="K45" t="n">
-        <v>1191.767819742782</v>
+        <v>107.5235878409019</v>
       </c>
       <c r="L45" t="n">
-        <v>1191.767819742782</v>
+        <v>555.1378205852488</v>
       </c>
       <c r="M45" t="n">
-        <v>1934.380543697796</v>
+        <v>555.1378205852488</v>
       </c>
       <c r="N45" t="n">
-        <v>1934.380543697796</v>
+        <v>555.1378205852488</v>
       </c>
       <c r="O45" t="n">
-        <v>1934.380543697796</v>
+        <v>1444.619098596721</v>
       </c>
       <c r="P45" t="n">
-        <v>2454.290663375808</v>
+        <v>1444.619098596721</v>
       </c>
       <c r="Q45" t="n">
-        <v>2918.436140238588</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="R45" t="n">
-        <v>3000.455450323291</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="S45" t="n">
-        <v>2919.131202884546</v>
+        <v>1827.440328020754</v>
       </c>
       <c r="T45" t="n">
-        <v>2777.251267182224</v>
+        <v>1685.560392318433</v>
       </c>
       <c r="U45" t="n">
-        <v>2592.483071101861</v>
+        <v>1500.792196238069</v>
       </c>
       <c r="V45" t="n">
-        <v>2387.509932241127</v>
+        <v>1295.819057377335</v>
       </c>
       <c r="W45" t="n">
-        <v>2190.988555074344</v>
+        <v>1099.297680210553</v>
       </c>
       <c r="X45" t="n">
-        <v>2027.511208841007</v>
+        <v>935.8203339772157</v>
       </c>
       <c r="Y45" t="n">
-        <v>1887.8183201943</v>
+        <v>796.1274453305081</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1143.190231530703</v>
+        <v>845.1393234720196</v>
       </c>
       <c r="C46" t="n">
-        <v>971.2176684096187</v>
+        <v>673.1667603509355</v>
       </c>
       <c r="D46" t="n">
-        <v>807.9008955363894</v>
+        <v>509.8499874777062</v>
       </c>
       <c r="E46" t="n">
-        <v>641.6926896892429</v>
+        <v>343.6417816305598</v>
       </c>
       <c r="F46" t="n">
-        <v>469.8309154638034</v>
+        <v>343.6417816305598</v>
       </c>
       <c r="G46" t="n">
-        <v>303.5739457580355</v>
+        <v>343.6417816305598</v>
       </c>
       <c r="H46" t="n">
-        <v>159.7776772661899</v>
+        <v>199.8455131387141</v>
       </c>
       <c r="I46" t="n">
-        <v>60.00910900646583</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J46" t="n">
-        <v>117.5004372306238</v>
+        <v>157.5682731031481</v>
       </c>
       <c r="K46" t="n">
-        <v>344.028038436461</v>
+        <v>384.0958743089853</v>
       </c>
       <c r="L46" t="n">
-        <v>698.7173597308818</v>
+        <v>738.785195603406</v>
       </c>
       <c r="M46" t="n">
-        <v>1089.903154701133</v>
+        <v>1129.970990573657</v>
       </c>
       <c r="N46" t="n">
-        <v>1467.394665577168</v>
+        <v>1507.462501449693</v>
       </c>
       <c r="O46" t="n">
-        <v>1822.822794256932</v>
+        <v>1862.890630129456</v>
       </c>
       <c r="P46" t="n">
-        <v>2113.422006178832</v>
+        <v>2153.489842051356</v>
       </c>
       <c r="Q46" t="n">
-        <v>2240.422136419594</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="R46" t="n">
-        <v>2240.422136419594</v>
+        <v>2233.451358979291</v>
       </c>
       <c r="S46" t="n">
-        <v>2240.422136419594</v>
+        <v>2063.316311498426</v>
       </c>
       <c r="T46" t="n">
-        <v>1997.082788645494</v>
+        <v>1819.976963724326</v>
       </c>
       <c r="U46" t="n">
-        <v>1997.082788645494</v>
+        <v>1539.792515224631</v>
       </c>
       <c r="V46" t="n">
-        <v>1997.082788645494</v>
+        <v>1258.081047832659</v>
       </c>
       <c r="W46" t="n">
-        <v>1722.230384818007</v>
+        <v>1035.305292184085</v>
       </c>
       <c r="X46" t="n">
-        <v>1479.666488263812</v>
+        <v>1035.305292184085</v>
       </c>
       <c r="Y46" t="n">
-        <v>1333.356200242768</v>
+        <v>1035.305292184085</v>
       </c>
     </row>
   </sheetData>
@@ -7979,28 +7981,28 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K2" t="n">
-        <v>35.76460079480934</v>
+        <v>591.9924139104035</v>
       </c>
       <c r="L2" t="n">
-        <v>182.5915214642101</v>
+        <v>594.539855548217</v>
       </c>
       <c r="M2" t="n">
-        <v>37.43126289943181</v>
+        <v>593.6590760150259</v>
       </c>
       <c r="N2" t="n">
-        <v>593.5074359500402</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O2" t="n">
         <v>37.3909593560241</v>
       </c>
       <c r="P2" t="n">
-        <v>593.8031749258255</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q2" t="n">
-        <v>496.8170781441769</v>
+        <v>203.6125166681525</v>
       </c>
       <c r="R2" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8055,28 +8057,28 @@
         <v>16.17238675</v>
       </c>
       <c r="J3" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K3" t="n">
-        <v>549.852899948183</v>
+        <v>180.6729970931265</v>
       </c>
       <c r="L3" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M3" t="n">
-        <v>23.09678051232798</v>
+        <v>579.3245936279221</v>
       </c>
       <c r="N3" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O3" t="n">
-        <v>23.17188972222222</v>
+        <v>579.3997028378163</v>
       </c>
       <c r="P3" t="n">
         <v>577.9986543204228</v>
       </c>
       <c r="Q3" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R3" t="n">
         <v>23.67291939414415</v>
@@ -8213,13 +8215,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K5" t="n">
-        <v>108.8261593358512</v>
+        <v>591.9924139104035</v>
       </c>
       <c r="L5" t="n">
-        <v>594.539855548217</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M5" t="n">
         <v>593.6590760150259</v>
@@ -8234,7 +8236,7 @@
         <v>593.8031749258255</v>
       </c>
       <c r="Q5" t="n">
-        <v>496.8170781441769</v>
+        <v>203.6125166681525</v>
       </c>
       <c r="R5" t="n">
         <v>35.03264989479647</v>
@@ -8292,25 +8294,25 @@
         <v>16.17238675</v>
       </c>
       <c r="J6" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K6" t="n">
         <v>578.6270469489275</v>
       </c>
       <c r="L6" t="n">
-        <v>578.7428998298237</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M6" t="n">
-        <v>23.09678051232798</v>
+        <v>579.3245936279221</v>
       </c>
       <c r="N6" t="n">
-        <v>21.34302821354166</v>
+        <v>96.76900350898808</v>
       </c>
       <c r="O6" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P6" t="n">
-        <v>378.9827212526459</v>
+        <v>577.9986543204228</v>
       </c>
       <c r="Q6" t="n">
         <v>22.7470382889785</v>
@@ -8450,28 +8452,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K8" t="n">
-        <v>758.5002654165255</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L8" t="n">
-        <v>38.31204243262292</v>
+        <v>548.8576414812762</v>
       </c>
       <c r="M8" t="n">
-        <v>787.5451254802546</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N8" t="n">
-        <v>787.3934854152689</v>
+        <v>593.5074359500402</v>
       </c>
       <c r="O8" t="n">
-        <v>299.5654964595583</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P8" t="n">
-        <v>37.5753618102313</v>
+        <v>593.8031749258255</v>
       </c>
       <c r="Q8" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R8" t="n">
         <v>153.7764225027789</v>
@@ -8532,25 +8534,25 @@
         <v>295.0530226965566</v>
       </c>
       <c r="K9" t="n">
-        <v>265.5972009409189</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L9" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M9" t="n">
-        <v>23.09678051232798</v>
+        <v>579.3245936279221</v>
       </c>
       <c r="N9" t="n">
-        <v>771.4568907943644</v>
+        <v>371.0330466836703</v>
       </c>
       <c r="O9" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P9" t="n">
-        <v>21.77084120482866</v>
+        <v>577.9986543204228</v>
       </c>
       <c r="Q9" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R9" t="n">
         <v>106.5207073584907</v>
@@ -8690,25 +8692,25 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K11" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L11" t="n">
-        <v>38.31204243262292</v>
+        <v>607.201212966307</v>
       </c>
       <c r="M11" t="n">
-        <v>787.5451254802546</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N11" t="n">
-        <v>787.3934854152689</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O11" t="n">
-        <v>787.5048219368468</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P11" t="n">
-        <v>272.3717009546589</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q11" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R11" t="n">
         <v>153.7764225027789</v>
@@ -8766,7 +8768,7 @@
         <v>16.17238675</v>
       </c>
       <c r="J12" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K12" t="n">
         <v>22.39923383333334</v>
@@ -8775,22 +8777,22 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M12" t="n">
-        <v>631.1063055251724</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N12" t="n">
-        <v>771.4568907943644</v>
+        <v>298.7446820670145</v>
       </c>
       <c r="O12" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P12" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q12" t="n">
         <v>491.5808533018869</v>
       </c>
       <c r="R12" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8924,31 +8926,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K14" t="n">
         <v>758.5002654165255</v>
       </c>
       <c r="L14" t="n">
-        <v>788.4259050134457</v>
+        <v>886.6939262492853</v>
       </c>
       <c r="M14" t="n">
         <v>37.43126289943181</v>
       </c>
       <c r="N14" t="n">
-        <v>665.7202799550464</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O14" t="n">
-        <v>787.5048219368468</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P14" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q14" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R14" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9003,28 +9005,28 @@
         <v>16.17238675</v>
       </c>
       <c r="J15" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K15" t="n">
-        <v>22.39923383333334</v>
+        <v>482.0566840416755</v>
       </c>
       <c r="L15" t="n">
-        <v>101.4844809641347</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M15" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N15" t="n">
-        <v>771.4568907943644</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O15" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P15" t="n">
-        <v>745.2028786174529</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q15" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R15" t="n">
         <v>23.67291939414415</v>
@@ -9176,10 +9178,10 @@
         <v>1023.391803124043</v>
       </c>
       <c r="O17" t="n">
-        <v>891.0724241548241</v>
+        <v>835.1882033210079</v>
       </c>
       <c r="P17" t="n">
-        <v>697.124756287453</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q17" t="n">
         <v>496.8170781441769</v>
@@ -9237,7 +9239,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J18" t="n">
         <v>20.61111433333334</v>
@@ -9246,7 +9248,7 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L18" t="n">
-        <v>313.9854056452248</v>
+        <v>775.2973590804446</v>
       </c>
       <c r="M18" t="n">
         <v>1089.749849175</v>
@@ -9261,7 +9263,7 @@
         <v>21.77084120482866</v>
       </c>
       <c r="Q18" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R18" t="n">
         <v>23.67291939414415</v>
@@ -9398,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K20" t="n">
         <v>758.5002654165255</v>
@@ -9407,22 +9409,22 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M20" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N20" t="n">
-        <v>1023.391803124043</v>
+        <v>924.1790155406098</v>
       </c>
       <c r="O20" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P20" t="n">
-        <v>585.0680802286672</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q20" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R20" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9474,7 +9476,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J21" t="n">
         <v>20.61111433333334</v>
@@ -9483,13 +9485,13 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L21" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M21" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N21" t="n">
-        <v>781.6471621574452</v>
+        <v>912.679259982217</v>
       </c>
       <c r="O21" t="n">
         <v>23.17188972222222</v>
@@ -9501,7 +9503,7 @@
         <v>22.7470382889785</v>
       </c>
       <c r="R21" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9644,7 +9646,7 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M23" t="n">
-        <v>1051.861668373228</v>
+        <v>772.395863235019</v>
       </c>
       <c r="N23" t="n">
         <v>1023.391803124043</v>
@@ -9653,10 +9655,10 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P23" t="n">
-        <v>218.8019602116015</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q23" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R23" t="n">
         <v>35.03264989479647</v>
@@ -9717,13 +9719,13 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K24" t="n">
-        <v>22.39923383333334</v>
+        <v>197.3567057122801</v>
       </c>
       <c r="L24" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M24" t="n">
-        <v>749.7358553685299</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N24" t="n">
         <v>1121.661155963915</v>
@@ -9735,10 +9737,10 @@
         <v>21.77084120482866</v>
       </c>
       <c r="Q24" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R24" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9872,13 +9874,13 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K26" t="n">
         <v>758.5002654165255</v>
       </c>
       <c r="L26" t="n">
-        <v>977.3272420480539</v>
+        <v>324.3764525304035</v>
       </c>
       <c r="M26" t="n">
         <v>1051.861668373228</v>
@@ -9890,13 +9892,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P26" t="n">
-        <v>585.0680802286672</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q26" t="n">
         <v>36.12467460459804</v>
       </c>
       <c r="R26" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9948,10 +9950,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J27" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K27" t="n">
         <v>22.39923383333334</v>
@@ -9960,22 +9962,22 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M27" t="n">
-        <v>951.5880457335786</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N27" t="n">
-        <v>21.34302821354166</v>
+        <v>291.2228204893258</v>
       </c>
       <c r="O27" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P27" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q27" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R27" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10112,10 +10114,10 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K29" t="n">
-        <v>583.8722719747271</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L29" t="n">
-        <v>38.31204243262292</v>
+        <v>324.3764525304035</v>
       </c>
       <c r="M29" t="n">
         <v>1051.861668373228</v>
@@ -10130,7 +10132,7 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q29" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R29" t="n">
         <v>153.7764225027789</v>
@@ -10194,19 +10196,19 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L30" t="n">
-        <v>22.51508671422956</v>
+        <v>227.5743145228559</v>
       </c>
       <c r="M30" t="n">
-        <v>749.7358553685299</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N30" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O30" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P30" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q30" t="n">
         <v>22.7470382889785</v>
@@ -10352,25 +10354,25 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L32" t="n">
-        <v>977.3272420480539</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M32" t="n">
-        <v>1051.861668373228</v>
+        <v>877.2336749314295</v>
       </c>
       <c r="N32" t="n">
         <v>1023.391803124043</v>
       </c>
       <c r="O32" t="n">
-        <v>37.3909593560241</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P32" t="n">
-        <v>611.7910214708227</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q32" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R32" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10425,31 +10427,31 @@
         <v>16.17238675</v>
       </c>
       <c r="J33" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K33" t="n">
         <v>22.39923383333334</v>
       </c>
       <c r="L33" t="n">
-        <v>22.51508671422956</v>
+        <v>768.7505555806109</v>
       </c>
       <c r="M33" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N33" t="n">
-        <v>781.6471621574452</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O33" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P33" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q33" t="n">
         <v>22.7470382889785</v>
       </c>
       <c r="R33" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10583,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K35" t="n">
         <v>758.5002654165255</v>
@@ -10598,16 +10600,16 @@
         <v>1023.391803124043</v>
       </c>
       <c r="O35" t="n">
-        <v>723.1315272622221</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P35" t="n">
-        <v>753.0089771212694</v>
+        <v>493.0472488628404</v>
       </c>
       <c r="Q35" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R35" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10668,22 +10670,22 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L36" t="n">
-        <v>867.7664080100944</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M36" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N36" t="n">
-        <v>1003.048909524252</v>
+        <v>481.0004784218839</v>
       </c>
       <c r="O36" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P36" t="n">
         <v>21.77084120482866</v>
       </c>
       <c r="Q36" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R36" t="n">
         <v>23.67291939414415</v>
@@ -10823,10 +10825,10 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K38" t="n">
-        <v>702.6160445827093</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L38" t="n">
-        <v>38.31204243262292</v>
+        <v>579.1176643018625</v>
       </c>
       <c r="M38" t="n">
         <v>1051.861668373228</v>
@@ -10838,13 +10840,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P38" t="n">
-        <v>753.0089771212694</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q38" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R38" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10902,7 +10904,7 @@
         <v>295.0530226965566</v>
       </c>
       <c r="K39" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L39" t="n">
         <v>22.51508671422956</v>
@@ -10911,19 +10913,19 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N39" t="n">
-        <v>977.4089016807933</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O39" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P39" t="n">
-        <v>21.77084120482866</v>
+        <v>124.138595085601</v>
       </c>
       <c r="Q39" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R39" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11063,25 +11065,25 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L41" t="n">
-        <v>788.4259050134457</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M41" t="n">
-        <v>787.5451254802546</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N41" t="n">
-        <v>418.1979325459629</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O41" t="n">
-        <v>37.3909593560241</v>
+        <v>382.6985455853151</v>
       </c>
       <c r="P41" t="n">
         <v>37.5753618102313</v>
       </c>
       <c r="Q41" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R41" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11148,16 +11150,16 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N42" t="n">
-        <v>771.4568907943644</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O42" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P42" t="n">
-        <v>745.2028786174529</v>
+        <v>279.5761010481211</v>
       </c>
       <c r="Q42" t="n">
-        <v>376.1583409021071</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R42" t="n">
         <v>23.67291939414415</v>
@@ -11294,22 +11296,22 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K44" t="n">
         <v>758.5002654165255</v>
       </c>
       <c r="L44" t="n">
-        <v>38.31204243262292</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M44" t="n">
-        <v>623.7075063139945</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N44" t="n">
-        <v>37.27962283444602</v>
+        <v>165.8504292605622</v>
       </c>
       <c r="O44" t="n">
-        <v>37.3909593560241</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P44" t="n">
         <v>753.0089771212694</v>
@@ -11370,7 +11372,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J45" t="n">
         <v>20.61111433333334</v>
@@ -11379,25 +11381,25 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L45" t="n">
-        <v>22.51508671422956</v>
+        <v>474.650675344883</v>
       </c>
       <c r="M45" t="n">
-        <v>773.2106430931508</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N45" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O45" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P45" t="n">
-        <v>546.9325782533261</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q45" t="n">
         <v>491.5808533018869</v>
       </c>
       <c r="R45" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23258,22 +23260,22 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>107.9720312369328</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>42.07918684145091</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23306,13 +23308,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23321,7 +23323,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23413,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23428,7 +23430,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23464,25 +23466,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>168.4336970060565</v>
+        <v>33.4347291553637</v>
       </c>
       <c r="T13" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>163.7887810877128</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="14">
@@ -23492,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>22.10122798525003</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -23501,19 +23503,19 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,7 +23545,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -23552,13 +23554,13 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>107.9720312369328</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23650,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>55.29561009208696</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H16" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23713,13 +23715,13 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X16" t="n">
-        <v>215.1593509104327</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23890,7 +23892,7 @@
         <v>188.264309024945</v>
       </c>
       <c r="C19" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -23899,7 +23901,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G19" t="n">
         <v>164.5944000087102</v>
@@ -23908,7 +23910,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>40.6930051129476</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23953,7 +23955,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>240.1382575886529</v>
+        <v>228.7382883108599</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24130,7 +24132,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E22" t="n">
         <v>164.546123788675</v>
@@ -24139,10 +24141,10 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G22" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>98.77088257712678</v>
@@ -24172,13 +24174,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>63.52994056050434</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>86.93357140528681</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24361,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -24370,16 +24372,16 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>34.55431016026014</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I25" t="n">
         <v>98.77088257712678</v>
@@ -24409,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24421,7 +24423,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>52.6900194072484</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24430,7 +24432,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y25" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24607,16 +24609,16 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G28" t="n">
-        <v>18.44967133088784</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I28" t="n">
         <v>98.77088257712678</v>
@@ -24646,16 +24648,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24664,7 +24666,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>110.0981677402029</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24841,16 +24843,16 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>112.9606863843808</v>
       </c>
       <c r="F31" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H31" t="n">
         <v>142.3583058069271</v>
@@ -24883,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24898,10 +24900,10 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>152.5322067692364</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25072,28 +25074,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D34" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25126,7 +25128,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25135,13 +25137,13 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>198.2230562345409</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>160.1671282623269</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25315,22 +25317,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>113.008962604416</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,25 +25359,25 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>12.03862242150598</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25558,16 +25560,16 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25600,22 +25602,22 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>53.32812537571462</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>50.56495090171933</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="41">
@@ -25625,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -25634,13 +25636,13 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>407.2414581415994</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -25685,13 +25687,13 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>107.9720312369334</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25786,16 +25788,16 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25804,7 +25806,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25837,13 +25839,13 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>195.4631970949499</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U43" t="n">
-        <v>277.3826040146988</v>
+        <v>107.5254829909125</v>
       </c>
       <c r="V43" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25871,19 +25873,19 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25922,16 +25924,16 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>107.9720312369334</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>372.9451672919013</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26032,10 +26034,10 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -26068,28 +26070,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>51.55588169712365</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y46" t="n">
-        <v>79.23215548632203</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
   </sheetData>
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>656577.0890181287</v>
+        <v>651993.857822164</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>459073.1228116067</v>
+        <v>637234.1759778485</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>459073.1228116068</v>
+        <v>637234.1759778485</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>647131.0235667081</v>
+        <v>647131.023566708</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>647131.0235667081</v>
+        <v>647131.023566708</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>647131.023566708</v>
+        <v>647131.0235667081</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>647131.0235667081</v>
+        <v>647131.023566708</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>647131.023566708</v>
+        <v>647131.0235667081</v>
       </c>
     </row>
     <row r="13">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>459073.1228116067</v>
+        <v>637234.1759778485</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>459073.1228116067</v>
+        <v>637234.1759778485</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>393148.800907535</v>
+        <v>393148.8009075351</v>
       </c>
       <c r="C2" t="n">
+        <v>393148.8009075352</v>
+      </c>
+      <c r="D2" t="n">
         <v>393148.8009075351</v>
       </c>
-      <c r="D2" t="n">
-        <v>393148.800907535</v>
-      </c>
       <c r="E2" t="n">
-        <v>269134.6825918119</v>
+        <v>373569.1848794163</v>
       </c>
       <c r="F2" t="n">
-        <v>269134.682591812</v>
+        <v>373569.1848794166</v>
       </c>
       <c r="G2" t="n">
         <v>379370.522117777</v>
       </c>
       <c r="H2" t="n">
-        <v>379370.5221177767</v>
+        <v>379370.5221177771</v>
       </c>
       <c r="I2" t="n">
-        <v>379370.5221177768</v>
+        <v>379370.5221177769</v>
       </c>
       <c r="J2" t="n">
-        <v>379370.5221177767</v>
+        <v>379370.522117777</v>
       </c>
       <c r="K2" t="n">
         <v>379370.5221177769</v>
       </c>
       <c r="L2" t="n">
+        <v>379370.5221177769</v>
+      </c>
+      <c r="M2" t="n">
         <v>379370.522117777</v>
       </c>
-      <c r="M2" t="n">
-        <v>379370.5221177768</v>
-      </c>
       <c r="N2" t="n">
-        <v>379370.5221177768</v>
+        <v>379370.5221177769</v>
       </c>
       <c r="O2" t="n">
-        <v>269134.6825918119</v>
+        <v>373569.1848794166</v>
       </c>
       <c r="P2" t="n">
-        <v>269134.6825918119</v>
+        <v>373569.1848794165</v>
       </c>
     </row>
     <row r="3">
@@ -26369,16 +26371,16 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>60226.823545384</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>207432.2876165609</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>144900.5320224917</v>
+        <v>7625.622083481478</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26393,10 +26395,10 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>49070.81414520418</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>173130.4912056396</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26421,19 +26423,19 @@
         <v>165375.7390424566</v>
       </c>
       <c r="D4" t="n">
-        <v>135865.3026917699</v>
+        <v>165375.7390424566</v>
       </c>
       <c r="E4" t="n">
-        <v>31001.33878031528</v>
+        <v>43077.56596046206</v>
       </c>
       <c r="F4" t="n">
-        <v>31001.33878031528</v>
+        <v>43077.56596046205</v>
       </c>
       <c r="G4" t="n">
-        <v>43748.40045389556</v>
+        <v>43748.40045389557</v>
       </c>
       <c r="H4" t="n">
-        <v>43748.40045389553</v>
+        <v>43748.40045389557</v>
       </c>
       <c r="I4" t="n">
         <v>43748.40045389556</v>
@@ -26442,22 +26444,22 @@
         <v>43748.40045389556</v>
       </c>
       <c r="K4" t="n">
+        <v>43748.40045389556</v>
+      </c>
+      <c r="L4" t="n">
         <v>43748.40045389557</v>
-      </c>
-      <c r="L4" t="n">
-        <v>43748.40045389556</v>
       </c>
       <c r="M4" t="n">
         <v>43748.40045389557</v>
       </c>
       <c r="N4" t="n">
-        <v>43748.40045389556</v>
+        <v>43748.40045389557</v>
       </c>
       <c r="O4" t="n">
-        <v>31001.33878031528</v>
+        <v>43077.56596046206</v>
       </c>
       <c r="P4" t="n">
-        <v>31001.33878031527</v>
+        <v>43077.56596046205</v>
       </c>
     </row>
     <row r="5">
@@ -26473,13 +26475,13 @@
         <v>67446.25103742813</v>
       </c>
       <c r="D5" t="n">
-        <v>79234.52284491403</v>
+        <v>67446.25103742813</v>
       </c>
       <c r="E5" t="n">
-        <v>45606.92284491402</v>
+        <v>76058.47810803246</v>
       </c>
       <c r="F5" t="n">
-        <v>45606.92284491402</v>
+        <v>76058.47810803246</v>
       </c>
       <c r="G5" t="n">
         <v>77750.06218842969</v>
@@ -26506,10 +26508,10 @@
         <v>77750.06218842969</v>
       </c>
       <c r="O5" t="n">
-        <v>45606.92284491402</v>
+        <v>76058.47810803246</v>
       </c>
       <c r="P5" t="n">
-        <v>45606.92284491402</v>
+        <v>76058.47810803246</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-26077.92258708697</v>
+        <v>-26077.92258708691</v>
       </c>
       <c r="C6" t="n">
+        <v>160326.8108276505</v>
+      </c>
+      <c r="D6" t="n">
         <v>160326.8108276503</v>
       </c>
-      <c r="D6" t="n">
-        <v>117822.151825467</v>
-      </c>
       <c r="E6" t="n">
-        <v>192526.4209665826</v>
+        <v>47000.85319436085</v>
       </c>
       <c r="F6" t="n">
-        <v>192526.4209665827</v>
+        <v>254433.1408109221</v>
       </c>
       <c r="G6" t="n">
-        <v>112971.5274529601</v>
+        <v>250246.4373919702</v>
       </c>
       <c r="H6" t="n">
-        <v>257872.0594754515</v>
+        <v>257872.0594754518</v>
       </c>
       <c r="I6" t="n">
-        <v>257872.0594754515</v>
+        <v>257872.0594754516</v>
       </c>
       <c r="J6" t="n">
-        <v>112338.389540635</v>
+        <v>112338.3895406353</v>
       </c>
       <c r="K6" t="n">
         <v>257872.0594754516</v>
       </c>
       <c r="L6" t="n">
-        <v>208801.2453302475</v>
+        <v>257872.0594754516</v>
       </c>
       <c r="M6" t="n">
-        <v>257872.0594754515</v>
+        <v>84741.56826981217</v>
       </c>
       <c r="N6" t="n">
-        <v>257872.0594754515</v>
+        <v>257872.0594754516</v>
       </c>
       <c r="O6" t="n">
-        <v>192526.4209665826</v>
+        <v>254433.1408109221</v>
       </c>
       <c r="P6" t="n">
-        <v>192526.4209665826</v>
+        <v>254433.1408109221</v>
       </c>
     </row>
   </sheetData>
@@ -26793,13 +26795,13 @@
         <v>556.2278131155941</v>
       </c>
       <c r="D4" t="n">
-        <v>750.1138625808228</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="E4" t="n">
-        <v>750.1138625808228</v>
+        <v>1250.961810987376</v>
       </c>
       <c r="F4" t="n">
-        <v>750.1138625808228</v>
+        <v>1250.961810987376</v>
       </c>
       <c r="G4" t="n">
         <v>1278.783917572857</v>
@@ -26826,10 +26828,10 @@
         <v>1278.783917572857</v>
       </c>
       <c r="O4" t="n">
-        <v>750.1138625808228</v>
+        <v>1250.961810987376</v>
       </c>
       <c r="P4" t="n">
-        <v>750.1138625808228</v>
+        <v>1250.961810987376</v>
       </c>
     </row>
   </sheetData>
@@ -27015,16 +27017,16 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>193.8860494652287</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>694.733997871782</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>528.670054992034</v>
+        <v>27.8221065854807</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27039,10 +27041,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>193.8860494652286</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>694.733997871782</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27261,16 +27263,16 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>193.8860494652287</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>694.733997871782</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>528.670054992034</v>
+        <v>27.8221065854807</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27376,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>120.7436121680615</v>
+        <v>400</v>
       </c>
       <c r="C2" t="n">
         <v>400</v>
@@ -27394,10 +27396,10 @@
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,7 +27429,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>4.095730177743476</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27436,13 +27438,13 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27537,7 +27539,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27549,13 +27551,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>162.7373373116017</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>53.32812537571718</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27588,19 +27590,19 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V4" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27616,25 +27618,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>385.0527817684122</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,13 +27666,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>218.7163152458132</v>
+        <v>23.20587070611069</v>
       </c>
       <c r="U5" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>353.914520725013</v>
@@ -27682,7 +27684,7 @@
         <v>400</v>
       </c>
       <c r="Y5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27774,7 +27776,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27786,13 +27788,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>25.65775573016205</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,25 +27821,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>46.56822717969948</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>185.3716196335905</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W7" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27853,7 +27855,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>129.6228129816802</v>
+        <v>157.6836177392387</v>
       </c>
       <c r="D8" t="n">
         <v>400</v>
@@ -27862,13 +27864,13 @@
         <v>400</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27904,22 +27906,22 @@
         <v>103.323621185591</v>
       </c>
       <c r="T8" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28011,22 +28013,22 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>129.3279385133177</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -28059,25 +28061,25 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>184.4546917542627</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y10" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28801,7 +28803,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>-8.526512829121202e-13</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -30229,7 +30231,7 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>-9.663381206337363e-13</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -30423,7 +30425,7 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>3.205021433435225e-12</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -34699,28 +34701,28 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L2" t="n">
-        <v>144.2794790315872</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="N2" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>460.6924035395789</v>
+        <v>167.4878420635545</v>
       </c>
       <c r="R2" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>527.4536661148496</v>
+        <v>158.2737632597931</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="P3" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="Q3" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,13 +34935,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K5" t="n">
-        <v>73.06155854104185</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L5" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
         <v>556.2278131155941</v>
@@ -34954,7 +34956,7 @@
         <v>556.2278131155941</v>
       </c>
       <c r="Q5" t="n">
-        <v>460.6924035395789</v>
+        <v>167.4878420635545</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,25 +35014,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
         <v>556.2278131155941</v>
       </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>75.42597529544641</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>357.2118800478172</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -35170,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>722.7356646217162</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>510.5455990486533</v>
       </c>
       <c r="M8" t="n">
-        <v>750.1138625808228</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>750.1138625808228</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="O8" t="n">
-        <v>262.1745371035342</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R8" t="n">
         <v>118.7437726079824</v>
@@ -35252,25 +35254,25 @@
         <v>274.4419083632233</v>
       </c>
       <c r="K9" t="n">
-        <v>243.1979671075856</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="N9" t="n">
-        <v>750.1138625808228</v>
+        <v>349.6900184701286</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q9" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>82.84778796434657</v>
@@ -35410,25 +35412,25 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>568.8891705336841</v>
       </c>
       <c r="M11" t="n">
-        <v>750.1138625808228</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N11" t="n">
-        <v>750.1138625808228</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O11" t="n">
-        <v>750.1138625808228</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>234.7963391444276</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R11" t="n">
         <v>118.7437726079824</v>
@@ -35486,7 +35488,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -35495,22 +35497,22 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>608.0095250128444</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>750.1138625808228</v>
+        <v>277.4016538534729</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q12" t="n">
         <v>468.8338150129084</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35644,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K14" t="n">
         <v>722.7356646217162</v>
       </c>
       <c r="L14" t="n">
-        <v>750.1138625808228</v>
+        <v>848.3818838166624</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>628.4406571206003</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O14" t="n">
-        <v>750.1138625808228</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R14" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>459.6574502083421</v>
       </c>
       <c r="L15" t="n">
-        <v>78.96939424990516</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>750.1138625808228</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P15" t="n">
-        <v>723.4320374126243</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35896,10 +35898,10 @@
         <v>986.1121802895968</v>
       </c>
       <c r="O17" t="n">
-        <v>853.6814647988001</v>
+        <v>797.7972439649839</v>
       </c>
       <c r="P17" t="n">
-        <v>659.5493944772218</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q17" t="n">
         <v>460.6924035395789</v>
@@ -35957,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -35966,7 +35968,7 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>291.4703189309952</v>
+        <v>752.782272366215</v>
       </c>
       <c r="M18" t="n">
         <v>1066.653068662672</v>
@@ -35981,7 +35983,7 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36118,7 +36120,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K20" t="n">
         <v>722.7356646217162</v>
@@ -36127,22 +36129,22 @@
         <v>939.015199615431</v>
       </c>
       <c r="M20" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>986.1121802895968</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="O20" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P20" t="n">
-        <v>547.4927184184359</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -36203,13 +36205,13 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M21" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>760.3041339439036</v>
+        <v>891.3362317686754</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -36221,7 +36223,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36364,7 +36366,7 @@
         <v>939.015199615431</v>
       </c>
       <c r="M23" t="n">
-        <v>1014.430405473796</v>
+        <v>734.9646003355872</v>
       </c>
       <c r="N23" t="n">
         <v>986.1121802895968</v>
@@ -36373,10 +36375,10 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P23" t="n">
-        <v>181.2265984013702</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36437,13 +36439,13 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>174.9574718789468</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>726.6390748562019</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>1100.318127750374</v>
@@ -36455,10 +36457,10 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36592,13 +36594,13 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K26" t="n">
         <v>722.7356646217162</v>
       </c>
       <c r="L26" t="n">
-        <v>939.015199615431</v>
+        <v>286.0644100977806</v>
       </c>
       <c r="M26" t="n">
         <v>1014.430405473796</v>
@@ -36610,13 +36612,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P26" t="n">
-        <v>547.4927184184359</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,10 +36670,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -36680,22 +36682,22 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>928.4912652212506</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>269.8797922757842</v>
       </c>
       <c r="O27" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36832,10 +36834,10 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K29" t="n">
-        <v>548.1076711799178</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>286.0644100977806</v>
       </c>
       <c r="M29" t="n">
         <v>1014.430405473796</v>
@@ -36850,7 +36852,7 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q29" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>118.7437726079824</v>
@@ -36914,19 +36916,19 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>205.0592278086264</v>
       </c>
       <c r="M30" t="n">
-        <v>726.6390748562019</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37072,25 +37074,25 @@
         <v>722.7356646217162</v>
       </c>
       <c r="L32" t="n">
-        <v>939.015199615431</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>1014.430405473796</v>
+        <v>839.8024120319977</v>
       </c>
       <c r="N32" t="n">
         <v>986.1121802895968</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P32" t="n">
-        <v>574.2156596605913</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q32" t="n">
         <v>460.6924035395789</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,31 +37147,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>746.2354688663813</v>
       </c>
       <c r="M33" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>760.3041339439036</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37303,7 +37305,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K35" t="n">
         <v>722.7356646217162</v>
@@ -37318,16 +37320,16 @@
         <v>986.1121802895968</v>
       </c>
       <c r="O35" t="n">
-        <v>685.740567906198</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>715.433615311038</v>
+        <v>455.4718870526091</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37388,22 +37390,22 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>845.2513212958648</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>981.7058813107108</v>
+        <v>459.6574502083422</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37543,10 +37545,10 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K38" t="n">
-        <v>666.8514437878999</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>540.8056218692396</v>
       </c>
       <c r="M38" t="n">
         <v>1014.430405473796</v>
@@ -37558,13 +37560,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P38" t="n">
-        <v>715.433615311038</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
         <v>460.6924035395789</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37622,7 +37624,7 @@
         <v>274.4419083632233</v>
       </c>
       <c r="K39" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -37631,19 +37633,19 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>956.0658734672517</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>102.3677538807724</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,7 +37700,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>58.07204871127072</v>
+        <v>58.07204871127374</v>
       </c>
       <c r="K40" t="n">
         <v>228.8157587937749</v>
@@ -37719,7 +37721,7 @@
         <v>293.5345574968697</v>
       </c>
       <c r="Q40" t="n">
-        <v>128.2829598391567</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37783,25 +37785,25 @@
         <v>722.7356646217162</v>
       </c>
       <c r="L41" t="n">
-        <v>750.1138625808228</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M41" t="n">
-        <v>750.1138625808228</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N41" t="n">
-        <v>380.9183097115169</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>345.307586229291</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37868,16 +37870,16 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>750.1138625808228</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>723.4320374126243</v>
+        <v>257.8052598432924</v>
       </c>
       <c r="Q42" t="n">
-        <v>353.4113026131286</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38014,22 +38016,22 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>722.7356646217162</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M44" t="n">
-        <v>586.2762434145627</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>128.5708064261162</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P44" t="n">
         <v>715.433615311038</v>
@@ -38090,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -38099,25 +38101,25 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>452.1355886306534</v>
       </c>
       <c r="M45" t="n">
-        <v>750.1138625808228</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P45" t="n">
-        <v>525.1617370484975</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>468.8338150129084</v>
       </c>
       <c r="R45" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_3_27.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_3_27.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1431892.191025798</v>
+        <v>1431174.20091094</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>698313.6830760745</v>
+        <v>698313.6830760734</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7467973.075670605</v>
+        <v>7467973.075670606</v>
       </c>
     </row>
     <row r="11">
@@ -658,25 +658,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>15.64988064861473</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C2" t="n">
-        <v>22.63172268683286</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D2" t="n">
-        <v>19.05969460684969</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E2" t="n">
         <v>21.71717045362101</v>
       </c>
       <c r="F2" t="n">
-        <v>20.87293999249374</v>
+        <v>35.82015822408124</v>
       </c>
       <c r="G2" t="n">
-        <v>0.2956717864458369</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H2" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>34.5479025439635</v>
@@ -709,25 +709,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>99.22789100784752</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>7.602798843930202</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y2" t="n">
-        <v>401.2838973446586</v>
+        <v>1.283897344658556</v>
       </c>
     </row>
     <row r="3">
@@ -819,7 +819,7 @@
         <v>188.264309024945</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D4" t="n">
         <v>161.683605144497</v>
@@ -831,13 +831,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G4" t="n">
-        <v>1.857062697108432</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H4" t="n">
-        <v>142.3583058069271</v>
+        <v>77.34040729634172</v>
       </c>
       <c r="I4" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -867,10 +867,10 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S4" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -882,7 +882,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y4" t="n">
         <v>224.0793406271554</v>
@@ -898,22 +898,22 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C5" t="n">
-        <v>22.63172268683286</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D5" t="n">
-        <v>419.0596946068497</v>
+        <v>19.05969460684969</v>
       </c>
       <c r="E5" t="n">
-        <v>21.71717045362101</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F5" t="n">
-        <v>20.87293999249374</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G5" t="n">
-        <v>0.2956717864458369</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H5" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -946,13 +946,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>195.5104445397025</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -964,7 +964,7 @@
         <v>7.602798843930202</v>
       </c>
       <c r="Y5" t="n">
-        <v>401.2838973446586</v>
+        <v>50.77901812021</v>
       </c>
     </row>
     <row r="6">
@@ -1065,7 +1065,7 @@
         <v>164.546123788675</v>
       </c>
       <c r="F7" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>164.5944000087102</v>
@@ -1101,19 +1101,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S7" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>92.01098438110826</v>
+        <v>105.1252579725992</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W7" t="n">
         <v>272.1038797892121</v>
@@ -1132,16 +1132,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>415.6498806486147</v>
+        <v>66.93168549786934</v>
       </c>
       <c r="C8" t="n">
-        <v>264.9481049475941</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D8" t="n">
-        <v>19.05969460684969</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E8" t="n">
-        <v>21.71717045362101</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F8" t="n">
         <v>20.87293999249374</v>
@@ -1150,10 +1150,10 @@
         <v>400.2956717864458</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I8" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,16 +1183,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T8" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1201,7 +1201,7 @@
         <v>7.602798843930202</v>
       </c>
       <c r="Y8" t="n">
-        <v>401.2838973446586</v>
+        <v>1.283897344658556</v>
       </c>
     </row>
     <row r="9">
@@ -1293,13 +1293,13 @@
         <v>188.264309024945</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D10" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E10" t="n">
-        <v>35.21818527535722</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F10" t="n">
         <v>170.1431564831852</v>
@@ -1308,7 +1308,7 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I10" t="n">
         <v>98.77088257712678</v>
@@ -1341,7 +1341,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T10" t="n">
         <v>240.905954296359</v>
@@ -1350,16 +1350,16 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V10" t="n">
-        <v>278.8943527180514</v>
+        <v>164.7047943182444</v>
       </c>
       <c r="W10" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1372,7 +1372,7 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C11" t="n">
-        <v>314.6596914499</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D11" t="n">
         <v>419.0596946068497</v>
@@ -1387,7 +1387,7 @@
         <v>400.2956717864458</v>
       </c>
       <c r="H11" t="n">
-        <v>294.8896947407055</v>
+        <v>290.2412846893639</v>
       </c>
       <c r="I11" t="n">
         <v>34.5479025439635</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>218.7163152458132</v>
@@ -1527,13 +1527,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C13" t="n">
-        <v>170.2528374898731</v>
+        <v>70.2532687131298</v>
       </c>
       <c r="D13" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>164.546123788675</v>
@@ -1548,7 +1548,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I13" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>134.9989678506928</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T13" t="n">
         <v>240.905954296359</v>
@@ -1587,16 +1587,16 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V13" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="14">
@@ -1660,7 +1660,7 @@
         <v>103.323621185591</v>
       </c>
       <c r="T14" t="n">
-        <v>218.7163152458132</v>
+        <v>110.7442840088803</v>
       </c>
       <c r="U14" t="n">
         <v>255.7713603095518</v>
@@ -1672,7 +1672,7 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X14" t="n">
-        <v>299.6307676069974</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y14" t="n">
         <v>401.2838973446586</v>
@@ -1764,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>106.38799505241</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E16" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H16" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>168.4336970060565</v>
+        <v>110.5621939267151</v>
       </c>
       <c r="T16" t="n">
         <v>240.905954296359</v>
@@ -1827,7 +1827,7 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X16" t="n">
         <v>240.1382575886529</v>
@@ -1858,7 +1858,7 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G17" t="n">
-        <v>400.2956717864467</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H17" t="n">
         <v>294.8896947407055</v>
@@ -2001,25 +2001,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C19" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D19" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T19" t="n">
         <v>240.905954296359</v>
@@ -2067,7 +2067,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X19" t="n">
-        <v>11.39996927779299</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y19" t="n">
         <v>224.0793406271554</v>
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>415.6498806486147</v>
+        <v>415.6498806486159</v>
       </c>
       <c r="C20" t="n">
         <v>422.6317226868329</v>
@@ -2092,7 +2092,7 @@
         <v>421.717170453621</v>
       </c>
       <c r="F20" t="n">
-        <v>420.8729399924947</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G20" t="n">
         <v>400.2956717864458</v>
@@ -2241,7 +2241,7 @@
         <v>188.264309024945</v>
       </c>
       <c r="C22" t="n">
-        <v>170.2528374898731</v>
+        <v>98.26334559068425</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2250,13 +2250,13 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G22" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T22" t="n">
-        <v>153.9723828910722</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U22" t="n">
         <v>277.3826040146988</v>
@@ -2481,16 +2481,16 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D25" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G25" t="n">
-        <v>130.04008984845</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2523,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T25" t="n">
         <v>240.905954296359</v>
@@ -2541,7 +2541,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y25" t="n">
         <v>224.0793406271554</v>
@@ -2721,19 +2721,19 @@
         <v>161.683605144497</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>31.14955135701854</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>168.4336970060565</v>
@@ -2775,13 +2775,13 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W28" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>130.0400898484501</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2955,16 +2955,16 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>155.1469410361724</v>
       </c>
       <c r="E31" t="n">
-        <v>51.58543740429417</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>168.4336970060565</v>
@@ -3006,10 +3006,10 @@
         <v>240.905954296359</v>
       </c>
       <c r="U31" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>272.1038797892121</v>
@@ -3189,19 +3189,19 @@
         <v>188.264309024945</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D34" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G34" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3234,13 +3234,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U34" t="n">
         <v>277.3826040146988</v>
@@ -3249,7 +3249,7 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W34" t="n">
-        <v>73.88082355467124</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X34" t="n">
         <v>240.1382575886529</v>
@@ -3432,13 +3432,13 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>98.15366458399268</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>51.58543740429417</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>168.4336970060565</v>
@@ -3514,7 +3514,7 @@
         <v>421.717170453621</v>
       </c>
       <c r="F38" t="n">
-        <v>420.8729399924947</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G38" t="n">
         <v>400.2956717864458</v>
@@ -3556,7 +3556,7 @@
         <v>103.323621185591</v>
       </c>
       <c r="T38" t="n">
-        <v>218.7163152458132</v>
+        <v>218.7163152458144</v>
       </c>
       <c r="U38" t="n">
         <v>255.7713603095518</v>
@@ -3675,13 +3675,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3714,22 +3714,22 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T40" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V40" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X40" t="n">
-        <v>189.5733066869336</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>63.51176771992807</v>
       </c>
     </row>
     <row r="41">
@@ -3760,7 +3760,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I41" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3793,13 +3793,13 @@
         <v>103.323621185591</v>
       </c>
       <c r="T41" t="n">
-        <v>218.7163152458132</v>
+        <v>145.2921865528443</v>
       </c>
       <c r="U41" t="n">
         <v>255.7713603095518</v>
       </c>
       <c r="V41" t="n">
-        <v>245.9424894880796</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W41" t="n">
         <v>392.4274362026566</v>
@@ -3900,25 +3900,25 @@
         <v>188.264309024945</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>164.546123788675</v>
+        <v>96.44420510686372</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G43" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,16 +3945,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U43" t="n">
-        <v>169.8571210237862</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V43" t="n">
         <v>278.8943527180514</v>
@@ -3997,7 +3997,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I44" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4030,13 +4030,13 @@
         <v>103.323621185591</v>
       </c>
       <c r="T44" t="n">
-        <v>218.7163152458132</v>
+        <v>145.2921865528443</v>
       </c>
       <c r="U44" t="n">
         <v>255.7713603095518</v>
       </c>
       <c r="V44" t="n">
-        <v>245.9424894880796</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W44" t="n">
         <v>392.4274362026566</v>
@@ -4140,10 +4140,10 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D46" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4152,7 +4152,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>142.3583058069271</v>
+        <v>121.2482518332236</v>
       </c>
       <c r="I46" t="n">
         <v>98.77088257712678</v>
@@ -4185,7 +4185,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S46" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>240.905954296359</v>
@@ -4197,13 +4197,13 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W46" t="n">
-        <v>220.5479980920884</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
   </sheetData>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>462.6949895047144</v>
+        <v>1392.046023333888</v>
       </c>
       <c r="C2" t="n">
-        <v>439.8346635584186</v>
+        <v>965.1452933471883</v>
       </c>
       <c r="D2" t="n">
-        <v>420.5824467838229</v>
+        <v>541.8526725321885</v>
       </c>
       <c r="E2" t="n">
-        <v>398.6459109720846</v>
+        <v>519.9161367204501</v>
       </c>
       <c r="F2" t="n">
-        <v>377.5621332018889</v>
+        <v>483.7341587163277</v>
       </c>
       <c r="G2" t="n">
-        <v>377.2634748317415</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="H2" t="n">
         <v>79.39509630577632</v>
@@ -4330,25 +4330,25 @@
         <v>44.49822504924753</v>
       </c>
       <c r="J2" t="n">
-        <v>407.101683866143</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K2" t="n">
-        <v>957.7672188505812</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="L2" t="n">
-        <v>1508.432753835019</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="M2" t="n">
-        <v>2059.098288819458</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="N2" t="n">
-        <v>2059.098288819458</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="O2" t="n">
-        <v>2059.098288819458</v>
+        <v>1696.494830002562</v>
       </c>
       <c r="P2" t="n">
-        <v>2059.098288819458</v>
+        <v>1768.825772958194</v>
       </c>
       <c r="Q2" t="n">
         <v>2224.911252462377</v>
@@ -4357,25 +4357,25 @@
         <v>2224.911252462377</v>
       </c>
       <c r="S2" t="n">
-        <v>2124.681059525157</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T2" t="n">
-        <v>1903.75548856979</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="U2" t="n">
-        <v>1645.400579166202</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="V2" t="n">
-        <v>1287.911164292452</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="W2" t="n">
-        <v>891.5198145927988</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="X2" t="n">
-        <v>883.8402198009501</v>
+        <v>1813.191253630124</v>
       </c>
       <c r="Y2" t="n">
-        <v>478.5029497558403</v>
+        <v>1811.894387625418</v>
       </c>
     </row>
     <row r="3">
@@ -4406,31 +4406,31 @@
         <v>44.49822504924753</v>
       </c>
       <c r="I3" t="n">
-        <v>44.49822504924753</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J3" t="n">
-        <v>44.49822504924753</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K3" t="n">
-        <v>201.1892506764427</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="L3" t="n">
-        <v>201.1892506764427</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="M3" t="n">
-        <v>751.8547856608809</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="N3" t="n">
-        <v>751.8547856608809</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="O3" t="n">
-        <v>1302.520320645319</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="P3" t="n">
-        <v>1853.185855629757</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="Q3" t="n">
-        <v>1853.185855629757</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="R3" t="n">
         <v>1853.185855629757</v>
@@ -4464,43 +4464,43 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>791.3256356528027</v>
+        <v>962.2361343535731</v>
       </c>
       <c r="C4" t="n">
-        <v>791.3256356528027</v>
+        <v>790.2635712324891</v>
       </c>
       <c r="D4" t="n">
-        <v>628.0088627795734</v>
+        <v>626.9467983592598</v>
       </c>
       <c r="E4" t="n">
-        <v>461.8006569324269</v>
+        <v>460.7385925121133</v>
       </c>
       <c r="F4" t="n">
-        <v>289.9388827069873</v>
+        <v>288.8768182866737</v>
       </c>
       <c r="G4" t="n">
-        <v>288.0630618008172</v>
+        <v>122.6198485809059</v>
       </c>
       <c r="H4" t="n">
-        <v>144.2667933089716</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I4" t="n">
         <v>44.49822504924753</v>
       </c>
       <c r="J4" t="n">
-        <v>101.9895532734058</v>
+        <v>101.9895532734062</v>
       </c>
       <c r="K4" t="n">
-        <v>328.5171544792431</v>
+        <v>328.5171544792433</v>
       </c>
       <c r="L4" t="n">
-        <v>683.2064757736639</v>
+        <v>683.2064757736641</v>
       </c>
       <c r="M4" t="n">
         <v>1074.392270743915</v>
       </c>
       <c r="N4" t="n">
-        <v>1451.88378161995</v>
+        <v>1451.883781619951</v>
       </c>
       <c r="O4" t="n">
         <v>1807.311910299714</v>
@@ -4515,25 +4515,25 @@
         <v>2177.87263914955</v>
       </c>
       <c r="S4" t="n">
-        <v>2007.737591668685</v>
+        <v>2177.87263914955</v>
       </c>
       <c r="T4" t="n">
-        <v>1764.398243894585</v>
+        <v>2177.87263914955</v>
       </c>
       <c r="U4" t="n">
-        <v>1764.398243894585</v>
+        <v>2177.87263914955</v>
       </c>
       <c r="V4" t="n">
-        <v>1482.686776502613</v>
+        <v>1896.161171757579</v>
       </c>
       <c r="W4" t="n">
-        <v>1207.834372675126</v>
+        <v>1621.308767930092</v>
       </c>
       <c r="X4" t="n">
-        <v>1207.834372675126</v>
+        <v>1378.744871375897</v>
       </c>
       <c r="Y4" t="n">
-        <v>981.4916043648684</v>
+        <v>1152.402103065639</v>
       </c>
     </row>
     <row r="5">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>831.8385222885896</v>
+        <v>1746.091355883837</v>
       </c>
       <c r="C5" t="n">
-        <v>808.9781963422938</v>
+        <v>1319.190625897137</v>
       </c>
       <c r="D5" t="n">
-        <v>385.6855755272941</v>
+        <v>1299.938409122541</v>
       </c>
       <c r="E5" t="n">
-        <v>363.7490397155557</v>
+        <v>873.9614692703988</v>
       </c>
       <c r="F5" t="n">
-        <v>342.66526194536</v>
+        <v>448.8372874597989</v>
       </c>
       <c r="G5" t="n">
-        <v>342.3666035752127</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H5" t="n">
         <v>44.49822504924753</v>
@@ -4567,25 +4567,25 @@
         <v>44.49822504924753</v>
       </c>
       <c r="J5" t="n">
-        <v>407.101683866143</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K5" t="n">
-        <v>957.7672188505812</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="L5" t="n">
-        <v>957.7672188505812</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="M5" t="n">
-        <v>1508.432753835019</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="N5" t="n">
-        <v>1508.432753835019</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="O5" t="n">
-        <v>1508.432753835019</v>
+        <v>1218.160237973755</v>
       </c>
       <c r="P5" t="n">
-        <v>2059.098288819458</v>
+        <v>1768.825772958194</v>
       </c>
       <c r="Q5" t="n">
         <v>2224.911252462377</v>
@@ -4594,25 +4594,25 @@
         <v>2224.911252462377</v>
       </c>
       <c r="S5" t="n">
-        <v>2120.543958335517</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T5" t="n">
-        <v>1923.058660820666</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="U5" t="n">
-        <v>1664.703751417078</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="V5" t="n">
-        <v>1664.703751417078</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="W5" t="n">
-        <v>1664.703751417078</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="X5" t="n">
-        <v>1657.024156625229</v>
+        <v>2217.231657670528</v>
       </c>
       <c r="Y5" t="n">
-        <v>1251.68688658012</v>
+        <v>2165.939720175366</v>
       </c>
     </row>
     <row r="6">
@@ -4646,25 +4646,25 @@
         <v>44.49822504924753</v>
       </c>
       <c r="J6" t="n">
-        <v>44.49822504924753</v>
+        <v>316.1957143288386</v>
       </c>
       <c r="K6" t="n">
-        <v>595.1637600336857</v>
+        <v>756.3555336978366</v>
       </c>
       <c r="L6" t="n">
-        <v>595.1637600336857</v>
+        <v>756.3555336978366</v>
       </c>
       <c r="M6" t="n">
-        <v>1145.829295018124</v>
+        <v>756.3555336978366</v>
       </c>
       <c r="N6" t="n">
-        <v>1220.501010560616</v>
+        <v>756.3555336978366</v>
       </c>
       <c r="O6" t="n">
-        <v>1220.501010560616</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="P6" t="n">
-        <v>1771.166545545054</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="Q6" t="n">
         <v>1771.166545545054</v>
@@ -4701,16 +4701,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1027.91077931376</v>
+        <v>856.0490050883208</v>
       </c>
       <c r="C7" t="n">
-        <v>855.9382161926764</v>
+        <v>684.0764419672367</v>
       </c>
       <c r="D7" t="n">
-        <v>692.6214433194471</v>
+        <v>520.7596690940074</v>
       </c>
       <c r="E7" t="n">
-        <v>526.4132374723006</v>
+        <v>354.551463246861</v>
       </c>
       <c r="F7" t="n">
         <v>354.551463246861</v>
@@ -4749,28 +4749,28 @@
         <v>2224.911252462376</v>
       </c>
       <c r="R7" t="n">
-        <v>2224.911252462377</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="S7" t="n">
-        <v>2054.776204981511</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="T7" t="n">
-        <v>2054.776204981511</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="U7" t="n">
-        <v>1961.835816717766</v>
+        <v>2071.685509884297</v>
       </c>
       <c r="V7" t="n">
-        <v>1961.835816717766</v>
+        <v>1789.974042492326</v>
       </c>
       <c r="W7" t="n">
-        <v>1686.983412890279</v>
+        <v>1515.121638664839</v>
       </c>
       <c r="X7" t="n">
-        <v>1444.419516336084</v>
+        <v>1272.557742110644</v>
       </c>
       <c r="Y7" t="n">
-        <v>1218.076748025826</v>
+        <v>1046.214973800386</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>813.6310375047708</v>
+        <v>2043.959734409802</v>
       </c>
       <c r="C8" t="n">
-        <v>546.0066890728575</v>
+        <v>1617.059004423102</v>
       </c>
       <c r="D8" t="n">
-        <v>526.7544722982618</v>
+        <v>1193.766383608102</v>
       </c>
       <c r="E8" t="n">
-        <v>504.8179364865234</v>
+        <v>767.7894437559598</v>
       </c>
       <c r="F8" t="n">
-        <v>483.7341587163277</v>
+        <v>746.7056659857641</v>
       </c>
       <c r="G8" t="n">
-        <v>79.39509630577632</v>
+        <v>342.3666035752127</v>
       </c>
       <c r="H8" t="n">
-        <v>79.39509630577632</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I8" t="n">
         <v>44.49822504924753</v>
       </c>
       <c r="J8" t="n">
-        <v>44.49822504924753</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K8" t="n">
-        <v>44.49822504924753</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="L8" t="n">
-        <v>549.9383681074144</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="M8" t="n">
-        <v>549.9383681074144</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="N8" t="n">
-        <v>1100.603903091853</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="O8" t="n">
-        <v>1100.603903091853</v>
+        <v>1768.825772958194</v>
       </c>
       <c r="P8" t="n">
-        <v>1651.269438076291</v>
+        <v>1768.825772958194</v>
       </c>
       <c r="Q8" t="n">
-        <v>2107.354917580474</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R8" t="n">
         <v>2224.911252462377</v>
       </c>
       <c r="S8" t="n">
-        <v>2224.911252462377</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="T8" t="n">
-        <v>2003.98568150701</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="U8" t="n">
-        <v>2003.98568150701</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="V8" t="n">
-        <v>1646.496266633259</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="W8" t="n">
-        <v>1646.496266633259</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="X8" t="n">
-        <v>1638.81667184141</v>
+        <v>2112.864363543668</v>
       </c>
       <c r="Y8" t="n">
-        <v>1233.479401796301</v>
+        <v>2111.567497538963</v>
       </c>
     </row>
     <row r="9">
@@ -4883,25 +4883,25 @@
         <v>51.94486801115937</v>
       </c>
       <c r="J9" t="n">
-        <v>323.6423572907505</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="K9" t="n">
-        <v>323.6423572907505</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="L9" t="n">
-        <v>323.6423572907505</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="M9" t="n">
-        <v>874.3078922751886</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="N9" t="n">
-        <v>1220.501010560616</v>
+        <v>205.6899987133984</v>
       </c>
       <c r="O9" t="n">
-        <v>1220.501010560616</v>
+        <v>756.3555336978366</v>
       </c>
       <c r="P9" t="n">
-        <v>1771.166545545054</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="Q9" t="n">
         <v>1771.166545545054</v>
@@ -4938,22 +4938,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>681.2762346339712</v>
+        <v>1127.679347573484</v>
       </c>
       <c r="C10" t="n">
-        <v>681.2762346339712</v>
+        <v>955.7067844524004</v>
       </c>
       <c r="D10" t="n">
-        <v>517.9594617607419</v>
+        <v>792.3900115791711</v>
       </c>
       <c r="E10" t="n">
-        <v>482.385537240179</v>
+        <v>626.1818057320246</v>
       </c>
       <c r="F10" t="n">
-        <v>310.5237630147394</v>
+        <v>454.3200315065851</v>
       </c>
       <c r="G10" t="n">
-        <v>144.2667933089716</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="H10" t="n">
         <v>144.2667933089716</v>
@@ -4989,25 +4989,25 @@
         <v>2177.872639149549</v>
       </c>
       <c r="S10" t="n">
-        <v>2177.872639149549</v>
+        <v>2007.737591668684</v>
       </c>
       <c r="T10" t="n">
-        <v>1934.533291375449</v>
+        <v>1764.398243894584</v>
       </c>
       <c r="U10" t="n">
-        <v>1654.348842875753</v>
+        <v>1484.213795394888</v>
       </c>
       <c r="V10" t="n">
-        <v>1372.637375483782</v>
+        <v>1317.84531628555</v>
       </c>
       <c r="W10" t="n">
-        <v>1097.784971656295</v>
+        <v>1317.84531628555</v>
       </c>
       <c r="X10" t="n">
-        <v>1097.784971656295</v>
+        <v>1317.84531628555</v>
       </c>
       <c r="Y10" t="n">
-        <v>871.4422033460369</v>
+        <v>1317.84531628555</v>
       </c>
     </row>
     <row r="11">
@@ -5017,22 +5017,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2429.413071721394</v>
+        <v>2533.780365848253</v>
       </c>
       <c r="C11" t="n">
-        <v>2111.574999549778</v>
+        <v>2106.879635861554</v>
       </c>
       <c r="D11" t="n">
-        <v>1688.282378734778</v>
+        <v>1683.587015046554</v>
       </c>
       <c r="E11" t="n">
-        <v>1262.305438882635</v>
+        <v>1257.610075194411</v>
       </c>
       <c r="F11" t="n">
-        <v>837.1812570720355</v>
+        <v>832.4858933838116</v>
       </c>
       <c r="G11" t="n">
-        <v>432.8421946614841</v>
+        <v>428.1468309732602</v>
       </c>
       <c r="H11" t="n">
         <v>134.9738161355189</v>
@@ -5047,13 +5047,13 @@
         <v>1178.188711671385</v>
       </c>
       <c r="L11" t="n">
-        <v>1741.388990499732</v>
+        <v>1178.188711671385</v>
       </c>
       <c r="M11" t="n">
-        <v>2745.67509191879</v>
+        <v>1900.530441767978</v>
       </c>
       <c r="N11" t="n">
-        <v>3721.926150405491</v>
+        <v>2876.781500254679</v>
       </c>
       <c r="O11" t="n">
         <v>3721.926150405491</v>
@@ -5068,25 +5068,25 @@
         <v>5003.847243949504</v>
       </c>
       <c r="S11" t="n">
-        <v>4899.479949822645</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="T11" t="n">
-        <v>4678.554378867278</v>
+        <v>4782.921672994137</v>
       </c>
       <c r="U11" t="n">
-        <v>4420.19946946369</v>
+        <v>4524.566763590549</v>
       </c>
       <c r="V11" t="n">
-        <v>4062.710054589939</v>
+        <v>4167.077348716799</v>
       </c>
       <c r="W11" t="n">
-        <v>3666.318704890286</v>
+        <v>3770.685999017146</v>
       </c>
       <c r="X11" t="n">
-        <v>3254.598706058034</v>
+        <v>3358.966000184893</v>
       </c>
       <c r="Y11" t="n">
-        <v>2849.261436012924</v>
+        <v>2953.628730139784</v>
       </c>
     </row>
     <row r="12">
@@ -5117,31 +5117,31 @@
         <v>100.0769448789901</v>
       </c>
       <c r="I12" t="n">
-        <v>100.0769448789901</v>
+        <v>107.5235878409019</v>
       </c>
       <c r="J12" t="n">
-        <v>371.7744341585812</v>
+        <v>379.221077120493</v>
       </c>
       <c r="K12" t="n">
-        <v>371.7744341585812</v>
+        <v>969.7060036888327</v>
       </c>
       <c r="L12" t="n">
-        <v>371.7744341585812</v>
+        <v>1019.283297448028</v>
       </c>
       <c r="M12" t="n">
-        <v>371.7744341585812</v>
+        <v>1019.283297448028</v>
       </c>
       <c r="N12" t="n">
-        <v>646.4020714735193</v>
+        <v>1019.283297448028</v>
       </c>
       <c r="O12" t="n">
-        <v>646.4020714735193</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="P12" t="n">
-        <v>1362.599788512017</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="Q12" t="n">
-        <v>1826.745265374797</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="R12" t="n">
         <v>1908.7645754595</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1017.001097697459</v>
+        <v>652.9060911334518</v>
       </c>
       <c r="C13" t="n">
-        <v>845.0285345763751</v>
+        <v>581.9431934434217</v>
       </c>
       <c r="D13" t="n">
-        <v>681.7117617031458</v>
+        <v>581.9431934434217</v>
       </c>
       <c r="E13" t="n">
-        <v>515.5035558559994</v>
+        <v>415.7349875962752</v>
       </c>
       <c r="F13" t="n">
-        <v>343.6417816305598</v>
+        <v>243.8732133708357</v>
       </c>
       <c r="G13" t="n">
-        <v>343.6417816305598</v>
+        <v>243.8732133708357</v>
       </c>
       <c r="H13" t="n">
-        <v>199.8455131387141</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="I13" t="n">
         <v>100.0769448789901</v>
@@ -5223,28 +5223,28 @@
         <v>2280.489972292118</v>
       </c>
       <c r="R13" t="n">
-        <v>2233.451358979291</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="S13" t="n">
-        <v>2097.088765190713</v>
+        <v>2110.354924811253</v>
       </c>
       <c r="T13" t="n">
-        <v>1853.749417416613</v>
+        <v>1867.015577037153</v>
       </c>
       <c r="U13" t="n">
-        <v>1573.564968916917</v>
+        <v>1586.831128537457</v>
       </c>
       <c r="V13" t="n">
-        <v>1291.853501524946</v>
+        <v>1586.831128537457</v>
       </c>
       <c r="W13" t="n">
-        <v>1017.001097697459</v>
+        <v>1311.97872470997</v>
       </c>
       <c r="X13" t="n">
-        <v>1017.001097697459</v>
+        <v>1069.414828155775</v>
       </c>
       <c r="Y13" t="n">
-        <v>1017.001097697459</v>
+        <v>843.0720598455175</v>
       </c>
     </row>
     <row r="14">
@@ -5284,22 +5284,22 @@
         <v>1178.188711671385</v>
       </c>
       <c r="L14" t="n">
-        <v>2018.08677664988</v>
+        <v>2107.813759290661</v>
       </c>
       <c r="M14" t="n">
-        <v>2018.08677664988</v>
+        <v>2107.813759290661</v>
       </c>
       <c r="N14" t="n">
-        <v>2994.337835136581</v>
+        <v>2876.781500254679</v>
       </c>
       <c r="O14" t="n">
-        <v>3839.482485287394</v>
+        <v>3721.926150405491</v>
       </c>
       <c r="P14" t="n">
-        <v>4547.761764445321</v>
+        <v>4430.205429563419</v>
       </c>
       <c r="Q14" t="n">
-        <v>5003.847243949504</v>
+        <v>4886.290909067602</v>
       </c>
       <c r="R14" t="n">
         <v>5003.847243949504</v>
@@ -5308,16 +5308,16 @@
         <v>4899.479949822645</v>
       </c>
       <c r="T14" t="n">
-        <v>4678.554378867278</v>
+        <v>4787.617036682362</v>
       </c>
       <c r="U14" t="n">
-        <v>4420.19946946369</v>
+        <v>4529.262127278774</v>
       </c>
       <c r="V14" t="n">
-        <v>4062.710054589939</v>
+        <v>4171.772712405023</v>
       </c>
       <c r="W14" t="n">
-        <v>3666.318704890286</v>
+        <v>3775.38136270537</v>
       </c>
       <c r="X14" t="n">
         <v>3363.661363873117</v>
@@ -5354,28 +5354,28 @@
         <v>100.0769448789901</v>
       </c>
       <c r="I15" t="n">
-        <v>100.0769448789901</v>
+        <v>107.5235878409019</v>
       </c>
       <c r="J15" t="n">
-        <v>100.0769448789901</v>
+        <v>379.221077120493</v>
       </c>
       <c r="K15" t="n">
-        <v>555.1378205852488</v>
+        <v>969.7060036888327</v>
       </c>
       <c r="L15" t="n">
-        <v>555.1378205852488</v>
+        <v>1806.504811771739</v>
       </c>
       <c r="M15" t="n">
-        <v>555.1378205852488</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="N15" t="n">
-        <v>555.1378205852488</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="O15" t="n">
-        <v>1444.619098596721</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="P15" t="n">
-        <v>1444.619098596721</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="Q15" t="n">
         <v>1908.7645754595</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>789.1743829682065</v>
+        <v>429.6506874579873</v>
       </c>
       <c r="C16" t="n">
-        <v>789.1743829682065</v>
+        <v>429.6506874579873</v>
       </c>
       <c r="D16" t="n">
-        <v>681.7117617031458</v>
+        <v>266.333914584758</v>
       </c>
       <c r="E16" t="n">
-        <v>515.5035558559994</v>
+        <v>266.333914584758</v>
       </c>
       <c r="F16" t="n">
-        <v>343.6417816305598</v>
+        <v>266.333914584758</v>
       </c>
       <c r="G16" t="n">
-        <v>343.6417816305598</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="H16" t="n">
-        <v>199.8455131387141</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="I16" t="n">
         <v>100.0769448789901</v>
@@ -5460,28 +5460,28 @@
         <v>2280.489972292118</v>
       </c>
       <c r="R16" t="n">
-        <v>2233.451358979291</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="S16" t="n">
-        <v>2063.316311498426</v>
+        <v>2168.810988527759</v>
       </c>
       <c r="T16" t="n">
-        <v>1819.976963724326</v>
+        <v>1925.47164075366</v>
       </c>
       <c r="U16" t="n">
-        <v>1539.792515224631</v>
+        <v>1645.287192253964</v>
       </c>
       <c r="V16" t="n">
-        <v>1258.081047832659</v>
+        <v>1363.575724861993</v>
       </c>
       <c r="W16" t="n">
-        <v>1258.081047832659</v>
+        <v>1088.723321034506</v>
       </c>
       <c r="X16" t="n">
-        <v>1015.517151278464</v>
+        <v>846.1594244803109</v>
       </c>
       <c r="Y16" t="n">
-        <v>789.1743829682065</v>
+        <v>619.816656170053</v>
       </c>
     </row>
     <row r="17">
@@ -5491,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2540.701498063317</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C17" t="n">
-        <v>2113.800768076617</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D17" t="n">
-        <v>1690.508147261617</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E17" t="n">
-        <v>1264.531207409475</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F17" t="n">
-        <v>839.4070255988747</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G17" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H17" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I17" t="n">
         <v>102.3027134058285</v>
@@ -5521,22 +5521,22 @@
         <v>1180.414480198223</v>
       </c>
       <c r="L17" t="n">
-        <v>1180.414480198223</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M17" t="n">
-        <v>2184.700581617281</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N17" t="n">
-        <v>3160.951640103982</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O17" t="n">
-        <v>3950.770911629316</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P17" t="n">
-        <v>4659.050190787244</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q17" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R17" t="n">
         <v>5115.135670291427</v>
@@ -5551,16 +5551,16 @@
         <v>4531.487895805612</v>
       </c>
       <c r="V17" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W17" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X17" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y17" t="n">
-        <v>2960.549862354847</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="18">
@@ -5594,16 +5594,16 @@
         <v>109.7493563677404</v>
       </c>
       <c r="J18" t="n">
-        <v>109.7493563677404</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K18" t="n">
-        <v>109.7493563677404</v>
+        <v>821.6753975134684</v>
       </c>
       <c r="L18" t="n">
-        <v>855.0038060102931</v>
+        <v>821.6753975134684</v>
       </c>
       <c r="M18" t="n">
-        <v>1910.990343986338</v>
+        <v>821.6753975134684</v>
       </c>
       <c r="N18" t="n">
         <v>1910.990343986338</v>
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>747.5965237391339</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C19" t="n">
-        <v>575.6239606180499</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D19" t="n">
-        <v>412.3071877448206</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E19" t="n">
-        <v>246.0989818976742</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F19" t="n">
-        <v>246.0989818976742</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G19" t="n">
-        <v>246.0989818976742</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H19" t="n">
         <v>102.3027134058285</v>
@@ -5697,28 +5697,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R19" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S19" t="n">
-        <v>2065.542080025265</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T19" t="n">
-        <v>1822.202732251165</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U19" t="n">
-        <v>1542.018283751469</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V19" t="n">
-        <v>1260.306816359498</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W19" t="n">
-        <v>985.454412532011</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X19" t="n">
-        <v>973.9392920493918</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y19" t="n">
-        <v>747.5965237391339</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="20">
@@ -5728,16 +5728,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2540.701498063317</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C20" t="n">
-        <v>2113.800768076617</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D20" t="n">
-        <v>1690.508147261617</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E20" t="n">
-        <v>1264.531207409475</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F20" t="n">
         <v>839.4070255988738</v>
@@ -5761,19 +5761,19 @@
         <v>2110.0395278175</v>
       </c>
       <c r="M20" t="n">
-        <v>2110.0395278175</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N20" t="n">
-        <v>2988.069926596602</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O20" t="n">
-        <v>3833.214576747414</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="P20" t="n">
-        <v>4541.493855905342</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q20" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R20" t="n">
         <v>5115.135670291427</v>
@@ -5834,22 +5834,22 @@
         <v>109.7493563677404</v>
       </c>
       <c r="K21" t="n">
-        <v>109.7493563677404</v>
+        <v>700.2342829360799</v>
       </c>
       <c r="L21" t="n">
-        <v>946.5481644506465</v>
+        <v>700.2342829360799</v>
       </c>
       <c r="M21" t="n">
-        <v>946.5481644506465</v>
+        <v>700.2342829360799</v>
       </c>
       <c r="N21" t="n">
-        <v>1828.971033901635</v>
+        <v>700.2342829360799</v>
       </c>
       <c r="O21" t="n">
-        <v>1828.971033901635</v>
+        <v>700.2342829360799</v>
       </c>
       <c r="P21" t="n">
-        <v>1828.971033901635</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q21" t="n">
         <v>1828.971033901635</v>
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>584.328514724526</v>
+        <v>373.4203922683229</v>
       </c>
       <c r="C22" t="n">
-        <v>412.355951603442</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D22" t="n">
-        <v>412.355951603442</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E22" t="n">
-        <v>412.355951603442</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F22" t="n">
-        <v>412.355951603442</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G22" t="n">
-        <v>246.0989818976742</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H22" t="n">
         <v>102.3027134058285</v>
@@ -5910,52 +5910,52 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J22" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299903</v>
       </c>
       <c r="K22" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358274</v>
       </c>
       <c r="L22" t="n">
-        <v>741.0109641302445</v>
+        <v>741.0109641302482</v>
       </c>
       <c r="M22" t="n">
-        <v>1132.196759100495</v>
+        <v>1132.196759100499</v>
       </c>
       <c r="N22" t="n">
-        <v>1509.688269976531</v>
+        <v>1509.688269976535</v>
       </c>
       <c r="O22" t="n">
-        <v>1865.116398656294</v>
+        <v>1865.116398656298</v>
       </c>
       <c r="P22" t="n">
-        <v>2155.715610578195</v>
+        <v>2155.715610578199</v>
       </c>
       <c r="Q22" t="n">
-        <v>2282.715740818957</v>
+        <v>2282.715740818961</v>
       </c>
       <c r="R22" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818961</v>
       </c>
       <c r="S22" t="n">
-        <v>2235.67712750613</v>
+        <v>2112.580693338095</v>
       </c>
       <c r="T22" t="n">
-        <v>2080.149468020199</v>
+        <v>1869.241345563995</v>
       </c>
       <c r="U22" t="n">
-        <v>1799.965019520503</v>
+        <v>1589.0568970643</v>
       </c>
       <c r="V22" t="n">
-        <v>1518.253552128532</v>
+        <v>1307.345429672328</v>
       </c>
       <c r="W22" t="n">
-        <v>1243.401148301044</v>
+        <v>1032.493025844841</v>
       </c>
       <c r="X22" t="n">
-        <v>1000.83725174685</v>
+        <v>789.9291292906465</v>
       </c>
       <c r="Y22" t="n">
-        <v>774.4944834365917</v>
+        <v>563.5863609803886</v>
       </c>
     </row>
     <row r="23">
@@ -5998,19 +5998,19 @@
         <v>2110.0395278175</v>
       </c>
       <c r="M23" t="n">
-        <v>2837.654482149731</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N23" t="n">
-        <v>3813.905540636432</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O23" t="n">
-        <v>4659.050190787244</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P23" t="n">
-        <v>4659.050190787244</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q23" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R23" t="n">
         <v>5115.135670291427</v>
@@ -6071,19 +6071,19 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K24" t="n">
-        <v>275.5106105659859</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L24" t="n">
-        <v>275.5106105659859</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M24" t="n">
-        <v>275.5106105659859</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="N24" t="n">
-        <v>1364.825557038856</v>
+        <v>1191.617659878699</v>
       </c>
       <c r="O24" t="n">
-        <v>1364.825557038856</v>
+        <v>1191.617659878699</v>
       </c>
       <c r="P24" t="n">
         <v>1364.825557038856</v>
@@ -6123,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>568.9456755096874</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C25" t="n">
-        <v>396.9731123886033</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D25" t="n">
-        <v>233.656339515374</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E25" t="n">
-        <v>233.656339515374</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F25" t="n">
-        <v>233.656339515374</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G25" t="n">
         <v>102.3027134058285</v>
@@ -6171,28 +6171,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R25" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S25" t="n">
-        <v>2065.542080025265</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T25" t="n">
-        <v>1822.202732251165</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U25" t="n">
-        <v>1542.018283751469</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V25" t="n">
-        <v>1260.306816359498</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W25" t="n">
-        <v>985.454412532011</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X25" t="n">
-        <v>985.454412532011</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y25" t="n">
-        <v>759.1116442217531</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="26">
@@ -6232,16 +6232,16 @@
         <v>1180.414480198223</v>
       </c>
       <c r="L26" t="n">
-        <v>1463.618246195026</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M26" t="n">
-        <v>2467.904347614084</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N26" t="n">
-        <v>3444.155406100785</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O26" t="n">
-        <v>4289.300056251597</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="P26" t="n">
         <v>4997.579335409525</v>
@@ -6308,19 +6308,19 @@
         <v>381.4468456473314</v>
       </c>
       <c r="K27" t="n">
-        <v>381.4468456473314</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L27" t="n">
-        <v>381.4468456473314</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M27" t="n">
-        <v>381.4468456473314</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N27" t="n">
-        <v>648.6278400003578</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O27" t="n">
-        <v>648.6278400003578</v>
+        <v>971.931772215671</v>
       </c>
       <c r="P27" t="n">
         <v>1364.825557038856</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>437.5920494001418</v>
+        <v>1117.179460960259</v>
       </c>
       <c r="C28" t="n">
-        <v>265.6194862790578</v>
+        <v>945.2068978391751</v>
       </c>
       <c r="D28" t="n">
-        <v>102.3027134058285</v>
+        <v>781.8901249659458</v>
       </c>
       <c r="E28" t="n">
-        <v>102.3027134058285</v>
+        <v>615.6819191187993</v>
       </c>
       <c r="F28" t="n">
-        <v>102.3027134058285</v>
+        <v>443.8201448933597</v>
       </c>
       <c r="G28" t="n">
-        <v>102.3027134058285</v>
+        <v>277.5631751875919</v>
       </c>
       <c r="H28" t="n">
-        <v>102.3027134058285</v>
+        <v>133.7669066957463</v>
       </c>
       <c r="I28" t="n">
         <v>102.3027134058285</v>
@@ -6408,28 +6408,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R28" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S28" t="n">
-        <v>2065.542080025265</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T28" t="n">
-        <v>1822.202732251165</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U28" t="n">
-        <v>1542.018283751469</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V28" t="n">
-        <v>1260.306816359498</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="W28" t="n">
-        <v>985.454412532011</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="X28" t="n">
-        <v>854.1007864224655</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="Y28" t="n">
-        <v>627.7580181122075</v>
+        <v>1307.345429672325</v>
       </c>
     </row>
     <row r="29">
@@ -6463,25 +6463,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J29" t="n">
-        <v>464.9061722227241</v>
+        <v>366.6855125151251</v>
       </c>
       <c r="K29" t="n">
-        <v>1180.414480198223</v>
+        <v>1082.193820490624</v>
       </c>
       <c r="L29" t="n">
-        <v>1463.618246195026</v>
+        <v>2011.818868109901</v>
       </c>
       <c r="M29" t="n">
-        <v>2467.904347614084</v>
+        <v>2011.818868109901</v>
       </c>
       <c r="N29" t="n">
-        <v>3444.155406100785</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O29" t="n">
-        <v>4289.300056251597</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P29" t="n">
-        <v>4997.579335409525</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q29" t="n">
         <v>4997.579335409525</v>
@@ -6539,31 +6539,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I30" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J30" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K30" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L30" t="n">
-        <v>305.3113489363686</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M30" t="n">
-        <v>305.3113489363686</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N30" t="n">
-        <v>305.3113489363686</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O30" t="n">
-        <v>1194.79262694784</v>
+        <v>971.931772215671</v>
       </c>
       <c r="P30" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q30" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R30" t="n">
         <v>1910.990343986338</v>
@@ -6597,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>326.3817789554925</v>
+        <v>935.3163081599862</v>
       </c>
       <c r="C31" t="n">
-        <v>154.4092158344085</v>
+        <v>763.3437450389022</v>
       </c>
       <c r="D31" t="n">
-        <v>154.4092158344085</v>
+        <v>606.6296631841825</v>
       </c>
       <c r="E31" t="n">
-        <v>102.3027134058285</v>
+        <v>440.421457337036</v>
       </c>
       <c r="F31" t="n">
-        <v>102.3027134058285</v>
+        <v>268.5596831115964</v>
       </c>
       <c r="G31" t="n">
         <v>102.3027134058285</v>
@@ -6645,28 +6645,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R31" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S31" t="n">
-        <v>2065.542080025265</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T31" t="n">
-        <v>1822.202732251165</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U31" t="n">
-        <v>1542.018283751469</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="V31" t="n">
-        <v>1260.306816359498</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="W31" t="n">
-        <v>985.454412532011</v>
+        <v>1594.388941736505</v>
       </c>
       <c r="X31" t="n">
-        <v>742.8905159778161</v>
+        <v>1351.82504518231</v>
       </c>
       <c r="Y31" t="n">
-        <v>516.5477476675582</v>
+        <v>1125.482276872052</v>
       </c>
     </row>
     <row r="32">
@@ -6706,22 +6706,22 @@
         <v>1180.414480198223</v>
       </c>
       <c r="L32" t="n">
-        <v>1180.414480198223</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M32" t="n">
-        <v>2011.818868109901</v>
+        <v>2129.375202991803</v>
       </c>
       <c r="N32" t="n">
-        <v>2988.069926596602</v>
+        <v>3105.626261478504</v>
       </c>
       <c r="O32" t="n">
-        <v>3833.214576747414</v>
+        <v>3950.770911629316</v>
       </c>
       <c r="P32" t="n">
-        <v>4541.493855905342</v>
+        <v>4659.050190787244</v>
       </c>
       <c r="Q32" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R32" t="n">
         <v>5115.135670291427</v>
@@ -6779,28 +6779,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J33" t="n">
-        <v>374.0002026854196</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K33" t="n">
-        <v>374.0002026854196</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="L33" t="n">
-        <v>1112.773316863137</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="M33" t="n">
-        <v>1112.773316863137</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="N33" t="n">
-        <v>1112.773316863137</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="O33" t="n">
-        <v>1112.773316863137</v>
+        <v>730.647150085061</v>
       </c>
       <c r="P33" t="n">
-        <v>1828.971033901635</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q33" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R33" t="n">
         <v>1910.990343986338</v>
@@ -6834,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>769.9464360574118</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C34" t="n">
-        <v>769.9464360574118</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D34" t="n">
-        <v>606.6296631841825</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E34" t="n">
-        <v>440.421457337036</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F34" t="n">
-        <v>268.5596831115964</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G34" t="n">
         <v>102.3027134058285</v>
@@ -6882,28 +6882,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R34" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S34" t="n">
-        <v>2065.542080025265</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T34" t="n">
-        <v>2065.542080025265</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U34" t="n">
-        <v>1785.357631525569</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V34" t="n">
-        <v>1503.646164133598</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W34" t="n">
-        <v>1429.01906963393</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X34" t="n">
-        <v>1186.455173079735</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y34" t="n">
-        <v>960.1124047694775</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="35">
@@ -6952,13 +6952,13 @@
         <v>4090.576687723259</v>
       </c>
       <c r="O35" t="n">
-        <v>4090.576687723259</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="P35" t="n">
-        <v>4541.493855905342</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q35" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R35" t="n">
         <v>5115.135670291427</v>
@@ -7013,31 +7013,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I36" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J36" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="K36" t="n">
-        <v>102.3027134058285</v>
+        <v>308.8390190628106</v>
       </c>
       <c r="L36" t="n">
-        <v>102.3027134058285</v>
+        <v>308.8390190628106</v>
       </c>
       <c r="M36" t="n">
-        <v>102.3027134058285</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="N36" t="n">
-        <v>557.3635891120873</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="O36" t="n">
-        <v>1446.844867123559</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="P36" t="n">
-        <v>1446.844867123559</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q36" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R36" t="n">
         <v>1910.990343986338</v>
@@ -7071,19 +7071,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>326.3817789554925</v>
+        <v>373.4203922683193</v>
       </c>
       <c r="C37" t="n">
-        <v>154.4092158344085</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="D37" t="n">
-        <v>154.4092158344085</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="E37" t="n">
-        <v>154.4092158344085</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="F37" t="n">
-        <v>154.4092158344085</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G37" t="n">
         <v>102.3027134058285</v>
@@ -7119,28 +7119,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R37" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S37" t="n">
-        <v>2065.542080025265</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T37" t="n">
-        <v>1822.202732251165</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U37" t="n">
-        <v>1542.018283751469</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V37" t="n">
-        <v>1260.306816359498</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="W37" t="n">
-        <v>985.454412532011</v>
+        <v>1032.493025844838</v>
       </c>
       <c r="X37" t="n">
-        <v>742.8905159778161</v>
+        <v>789.9291292906429</v>
       </c>
       <c r="Y37" t="n">
-        <v>516.5477476675582</v>
+        <v>563.5863609803849</v>
       </c>
     </row>
     <row r="38">
@@ -7150,16 +7150,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2540.701498063317</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C38" t="n">
-        <v>2113.800768076617</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D38" t="n">
-        <v>1690.508147261617</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E38" t="n">
-        <v>1264.531207409475</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F38" t="n">
         <v>839.4070255988738</v>
@@ -7180,16 +7180,16 @@
         <v>1180.414480198223</v>
       </c>
       <c r="L38" t="n">
-        <v>1715.81204584877</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M38" t="n">
-        <v>2720.098147267829</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N38" t="n">
-        <v>3696.34920575453</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="O38" t="n">
-        <v>4541.493855905342</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P38" t="n">
         <v>4541.493855905342</v>
@@ -7204,22 +7204,22 @@
         <v>5010.768376164568</v>
       </c>
       <c r="T38" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U38" t="n">
         <v>4531.487895805612</v>
       </c>
       <c r="V38" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W38" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X38" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y38" t="n">
-        <v>2960.549862354847</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="39">
@@ -7250,25 +7250,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I39" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J39" t="n">
-        <v>374.0002026854196</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K39" t="n">
-        <v>374.0002026854196</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="L39" t="n">
-        <v>374.0002026854196</v>
+        <v>1218.245653730238</v>
       </c>
       <c r="M39" t="n">
-        <v>374.0002026854196</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="N39" t="n">
-        <v>374.0002026854196</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="O39" t="n">
-        <v>1263.481480696891</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="P39" t="n">
         <v>1364.825557038856</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>603.8002552472883</v>
+        <v>1013.622061704626</v>
       </c>
       <c r="C40" t="n">
-        <v>431.8276921262043</v>
+        <v>841.6494985835419</v>
       </c>
       <c r="D40" t="n">
-        <v>268.510919252975</v>
+        <v>678.3327257103126</v>
       </c>
       <c r="E40" t="n">
-        <v>102.3027134058285</v>
+        <v>512.1245198631661</v>
       </c>
       <c r="F40" t="n">
-        <v>102.3027134058285</v>
+        <v>512.1245198631661</v>
       </c>
       <c r="G40" t="n">
-        <v>102.3027134058285</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H40" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I40" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J40" t="n">
-        <v>159.7940416299896</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K40" t="n">
-        <v>386.3216428358268</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L40" t="n">
-        <v>741.0109641302475</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M40" t="n">
-        <v>1132.196759100498</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N40" t="n">
-        <v>1509.688269976534</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O40" t="n">
-        <v>1865.116398656297</v>
+        <v>1865.116398656298</v>
       </c>
       <c r="P40" t="n">
-        <v>2155.715610578198</v>
+        <v>2155.715610578199</v>
       </c>
       <c r="Q40" t="n">
-        <v>2282.71574081896</v>
+        <v>2282.715740818961</v>
       </c>
       <c r="R40" t="n">
-        <v>2235.677127506133</v>
+        <v>2235.677127506134</v>
       </c>
       <c r="S40" t="n">
-        <v>2065.542080025268</v>
+        <v>2065.542080025269</v>
       </c>
       <c r="T40" t="n">
-        <v>1822.202732251168</v>
+        <v>2065.542080025269</v>
       </c>
       <c r="U40" t="n">
-        <v>1542.018283751472</v>
+        <v>1785.357631525573</v>
       </c>
       <c r="V40" t="n">
-        <v>1260.306816359501</v>
+        <v>1785.357631525573</v>
       </c>
       <c r="W40" t="n">
-        <v>985.4544125320142</v>
+        <v>1510.505227698086</v>
       </c>
       <c r="X40" t="n">
-        <v>793.966223959354</v>
+        <v>1267.941331143892</v>
       </c>
       <c r="Y40" t="n">
-        <v>793.966223959354</v>
+        <v>1203.788030416692</v>
       </c>
     </row>
     <row r="41">
@@ -7387,25 +7387,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2538.475729536478</v>
+        <v>2503.578858279949</v>
       </c>
       <c r="C41" t="n">
-        <v>2111.574999549778</v>
+        <v>2076.678128293249</v>
       </c>
       <c r="D41" t="n">
-        <v>1688.282378734778</v>
+        <v>1653.385507478249</v>
       </c>
       <c r="E41" t="n">
-        <v>1262.305438882635</v>
+        <v>1227.408567626107</v>
       </c>
       <c r="F41" t="n">
-        <v>837.1812570720355</v>
+        <v>802.2843858155067</v>
       </c>
       <c r="G41" t="n">
-        <v>432.8421946614841</v>
+        <v>397.9453234049553</v>
       </c>
       <c r="H41" t="n">
-        <v>134.9738161355189</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="I41" t="n">
         <v>100.0769448789901</v>
@@ -7420,13 +7420,13 @@
         <v>2107.813759290661</v>
       </c>
       <c r="M41" t="n">
-        <v>3112.09986070972</v>
+        <v>2107.813759290661</v>
       </c>
       <c r="N41" t="n">
-        <v>4088.350919196421</v>
+        <v>2876.781500254679</v>
       </c>
       <c r="O41" t="n">
-        <v>4430.205429563419</v>
+        <v>3721.926150405491</v>
       </c>
       <c r="P41" t="n">
         <v>4430.205429563419</v>
@@ -7441,22 +7441,22 @@
         <v>4899.479949822645</v>
       </c>
       <c r="T41" t="n">
-        <v>4678.554378867278</v>
+        <v>4752.720165425832</v>
       </c>
       <c r="U41" t="n">
-        <v>4420.19946946369</v>
+        <v>4494.365256022244</v>
       </c>
       <c r="V41" t="n">
-        <v>4171.772712405023</v>
+        <v>4136.875841148494</v>
       </c>
       <c r="W41" t="n">
-        <v>3775.38136270537</v>
+        <v>3740.484491448841</v>
       </c>
       <c r="X41" t="n">
-        <v>3363.661363873117</v>
+        <v>3328.764492616588</v>
       </c>
       <c r="Y41" t="n">
-        <v>2958.324093828008</v>
+        <v>2923.427222571479</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>3762.283104400451</v>
+        <v>667.2004359104453</v>
       </c>
       <c r="C42" t="n">
-        <v>3644.777200917955</v>
+        <v>549.6945324279501</v>
       </c>
       <c r="D42" t="n">
-        <v>3540.93724243324</v>
+        <v>445.8545739432351</v>
       </c>
       <c r="E42" t="n">
-        <v>3436.235308706178</v>
+        <v>341.1526402161723</v>
       </c>
       <c r="F42" t="n">
-        <v>3342.589478389082</v>
+        <v>247.5068098990765</v>
       </c>
       <c r="G42" t="n">
-        <v>3248.535706606686</v>
+        <v>153.4530381166805</v>
       </c>
       <c r="H42" t="n">
-        <v>3195.159613368996</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="I42" t="n">
-        <v>3195.159613368996</v>
+        <v>107.5235878409019</v>
       </c>
       <c r="J42" t="n">
-        <v>3195.159613368996</v>
+        <v>379.221077120493</v>
       </c>
       <c r="K42" t="n">
-        <v>3195.159613368996</v>
+        <v>969.7060036888327</v>
       </c>
       <c r="L42" t="n">
-        <v>3195.159613368996</v>
+        <v>969.7060036888327</v>
       </c>
       <c r="M42" t="n">
-        <v>3195.159613368996</v>
+        <v>969.7060036888327</v>
       </c>
       <c r="N42" t="n">
-        <v>4284.474559841866</v>
+        <v>969.7060036888327</v>
       </c>
       <c r="O42" t="n">
-        <v>4284.474559841866</v>
+        <v>1192.566858421002</v>
       </c>
       <c r="P42" t="n">
-        <v>4539.701767086725</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="Q42" t="n">
-        <v>5003.847243949504</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="R42" t="n">
-        <v>5003.847243949504</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="S42" t="n">
-        <v>4922.522996510759</v>
+        <v>1827.440328020754</v>
       </c>
       <c r="T42" t="n">
-        <v>4780.643060808437</v>
+        <v>1685.560392318433</v>
       </c>
       <c r="U42" t="n">
-        <v>4595.874864728074</v>
+        <v>1500.792196238069</v>
       </c>
       <c r="V42" t="n">
-        <v>4390.901725867341</v>
+        <v>1295.819057377335</v>
       </c>
       <c r="W42" t="n">
-        <v>4194.380348700558</v>
+        <v>1099.297680210553</v>
       </c>
       <c r="X42" t="n">
-        <v>4030.903002467221</v>
+        <v>935.8203339772157</v>
       </c>
       <c r="Y42" t="n">
-        <v>3891.210113820513</v>
+        <v>796.1274453305081</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>3399.46422884086</v>
+        <v>541.3296712223457</v>
       </c>
       <c r="C43" t="n">
-        <v>3399.46422884086</v>
+        <v>369.3571081012617</v>
       </c>
       <c r="D43" t="n">
-        <v>3399.46422884086</v>
+        <v>369.3571081012617</v>
       </c>
       <c r="E43" t="n">
-        <v>3233.256022993713</v>
+        <v>271.9387191044297</v>
       </c>
       <c r="F43" t="n">
-        <v>3233.256022993713</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="G43" t="n">
-        <v>3066.999053287946</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="H43" t="n">
-        <v>2923.2027847961</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="I43" t="n">
-        <v>2823.434216536376</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J43" t="n">
-        <v>2880.925544760534</v>
+        <v>157.5682731031481</v>
       </c>
       <c r="K43" t="n">
-        <v>3107.453145966371</v>
+        <v>384.0958743089853</v>
       </c>
       <c r="L43" t="n">
-        <v>3462.142467260792</v>
+        <v>738.785195603406</v>
       </c>
       <c r="M43" t="n">
-        <v>3853.328262231043</v>
+        <v>1129.970990573657</v>
       </c>
       <c r="N43" t="n">
-        <v>4230.819773107079</v>
+        <v>1507.462501449693</v>
       </c>
       <c r="O43" t="n">
-        <v>4586.247901786842</v>
+        <v>1862.890630129456</v>
       </c>
       <c r="P43" t="n">
-        <v>4876.847113708743</v>
+        <v>2153.489842051356</v>
       </c>
       <c r="Q43" t="n">
-        <v>5003.847243949504</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="R43" t="n">
-        <v>4956.808630636678</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="S43" t="n">
-        <v>4786.673583155813</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="T43" t="n">
-        <v>4786.673583155813</v>
+        <v>2037.150624518018</v>
       </c>
       <c r="U43" t="n">
-        <v>4615.100733636837</v>
+        <v>1756.966176018322</v>
       </c>
       <c r="V43" t="n">
-        <v>4333.389266244865</v>
+        <v>1475.254708626351</v>
       </c>
       <c r="W43" t="n">
-        <v>4058.536862417378</v>
+        <v>1200.402304798864</v>
       </c>
       <c r="X43" t="n">
-        <v>3815.972965863184</v>
+        <v>957.8384082446693</v>
       </c>
       <c r="Y43" t="n">
-        <v>3589.630197552925</v>
+        <v>731.4956399344113</v>
       </c>
     </row>
     <row r="44">
@@ -7624,40 +7624,40 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2538.475729536478</v>
+        <v>2503.578858279949</v>
       </c>
       <c r="C44" t="n">
-        <v>2111.574999549778</v>
+        <v>2076.678128293249</v>
       </c>
       <c r="D44" t="n">
-        <v>1688.282378734778</v>
+        <v>1653.385507478249</v>
       </c>
       <c r="E44" t="n">
-        <v>1262.305438882635</v>
+        <v>1227.408567626107</v>
       </c>
       <c r="F44" t="n">
-        <v>837.1812570720355</v>
+        <v>802.2843858155067</v>
       </c>
       <c r="G44" t="n">
-        <v>432.8421946614841</v>
+        <v>397.9453234049553</v>
       </c>
       <c r="H44" t="n">
-        <v>134.9738161355189</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="I44" t="n">
         <v>100.0769448789901</v>
       </c>
       <c r="J44" t="n">
-        <v>100.0769448789901</v>
+        <v>462.6804036958856</v>
       </c>
       <c r="K44" t="n">
-        <v>815.5852528544891</v>
+        <v>1178.188711671385</v>
       </c>
       <c r="L44" t="n">
-        <v>1745.210300473766</v>
+        <v>2107.813759290661</v>
       </c>
       <c r="M44" t="n">
-        <v>2749.496401892824</v>
+        <v>2107.813759290661</v>
       </c>
       <c r="N44" t="n">
         <v>2876.781500254679</v>
@@ -7678,22 +7678,22 @@
         <v>4899.479949822645</v>
       </c>
       <c r="T44" t="n">
-        <v>4678.554378867278</v>
+        <v>4752.720165425832</v>
       </c>
       <c r="U44" t="n">
-        <v>4420.19946946369</v>
+        <v>4494.365256022244</v>
       </c>
       <c r="V44" t="n">
-        <v>4171.772712405023</v>
+        <v>4136.875841148494</v>
       </c>
       <c r="W44" t="n">
-        <v>3775.38136270537</v>
+        <v>3740.484491448841</v>
       </c>
       <c r="X44" t="n">
-        <v>3363.661363873117</v>
+        <v>3328.764492616588</v>
       </c>
       <c r="Y44" t="n">
-        <v>2958.324093828008</v>
+        <v>2923.427222571479</v>
       </c>
     </row>
     <row r="45">
@@ -7730,22 +7730,22 @@
         <v>107.5235878409019</v>
       </c>
       <c r="K45" t="n">
-        <v>107.5235878409019</v>
+        <v>698.0085144092415</v>
       </c>
       <c r="L45" t="n">
-        <v>555.1378205852488</v>
+        <v>852.7780374834547</v>
       </c>
       <c r="M45" t="n">
-        <v>555.1378205852488</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="N45" t="n">
-        <v>555.1378205852488</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="O45" t="n">
-        <v>1444.619098596721</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="P45" t="n">
-        <v>1444.619098596721</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="Q45" t="n">
         <v>1908.7645754595</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>845.1393234720196</v>
+        <v>494.2910579095189</v>
       </c>
       <c r="C46" t="n">
-        <v>673.1667603509355</v>
+        <v>322.3184947884349</v>
       </c>
       <c r="D46" t="n">
-        <v>509.8499874777062</v>
+        <v>322.3184947884349</v>
       </c>
       <c r="E46" t="n">
-        <v>343.6417816305598</v>
+        <v>322.3184947884349</v>
       </c>
       <c r="F46" t="n">
-        <v>343.6417816305598</v>
+        <v>322.3184947884349</v>
       </c>
       <c r="G46" t="n">
-        <v>343.6417816305598</v>
+        <v>322.3184947884349</v>
       </c>
       <c r="H46" t="n">
         <v>199.8455131387141</v>
@@ -7833,25 +7833,25 @@
         <v>2233.451358979291</v>
       </c>
       <c r="S46" t="n">
-        <v>2063.316311498426</v>
+        <v>2233.451358979291</v>
       </c>
       <c r="T46" t="n">
-        <v>1819.976963724326</v>
+        <v>1990.112011205191</v>
       </c>
       <c r="U46" t="n">
-        <v>1539.792515224631</v>
+        <v>1709.927562705496</v>
       </c>
       <c r="V46" t="n">
-        <v>1258.081047832659</v>
+        <v>1428.216095313524</v>
       </c>
       <c r="W46" t="n">
-        <v>1035.305292184085</v>
+        <v>1153.363691486037</v>
       </c>
       <c r="X46" t="n">
-        <v>1035.305292184085</v>
+        <v>910.7997949318425</v>
       </c>
       <c r="Y46" t="n">
-        <v>1035.305292184085</v>
+        <v>684.4570266215845</v>
       </c>
     </row>
   </sheetData>
@@ -7978,28 +7978,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K2" t="n">
         <v>591.9924139104035</v>
       </c>
       <c r="L2" t="n">
-        <v>594.539855548217</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M2" t="n">
-        <v>593.6590760150259</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N2" t="n">
-        <v>37.27962283444602</v>
+        <v>593.5074359500402</v>
       </c>
       <c r="O2" t="n">
-        <v>37.3909593560241</v>
+        <v>593.6187724716183</v>
       </c>
       <c r="P2" t="n">
-        <v>37.5753618102313</v>
+        <v>110.6369203512731</v>
       </c>
       <c r="Q2" t="n">
-        <v>203.6125166681525</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R2" t="n">
         <v>35.03264989479647</v>
@@ -8054,34 +8054,34 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J3" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K3" t="n">
-        <v>180.6729970931265</v>
+        <v>578.6270469489275</v>
       </c>
       <c r="L3" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M3" t="n">
-        <v>579.3245936279221</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N3" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O3" t="n">
-        <v>579.3997028378163</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P3" t="n">
-        <v>577.9986543204228</v>
+        <v>458.854857777643</v>
       </c>
       <c r="Q3" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R3" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8136,7 +8136,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>78.70880469517259</v>
+        <v>78.70880469517321</v>
       </c>
       <c r="K4" t="n">
         <v>249.7804132464869</v>
@@ -8215,28 +8215,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K5" t="n">
         <v>591.9924139104035</v>
       </c>
       <c r="L5" t="n">
-        <v>38.31204243262292</v>
+        <v>594.539855548217</v>
       </c>
       <c r="M5" t="n">
-        <v>593.6590760150259</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N5" t="n">
         <v>37.27962283444602</v>
       </c>
       <c r="O5" t="n">
-        <v>37.3909593560241</v>
+        <v>110.4525178970659</v>
       </c>
       <c r="P5" t="n">
         <v>593.8031749258255</v>
       </c>
       <c r="Q5" t="n">
-        <v>203.6125166681525</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R5" t="n">
         <v>35.03264989479647</v>
@@ -8294,28 +8294,28 @@
         <v>16.17238675</v>
       </c>
       <c r="J6" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K6" t="n">
-        <v>578.6270469489275</v>
+        <v>467.0051119838363</v>
       </c>
       <c r="L6" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M6" t="n">
-        <v>579.3245936279221</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N6" t="n">
-        <v>96.76900350898808</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O6" t="n">
-        <v>23.17188972222222</v>
+        <v>579.3997028378163</v>
       </c>
       <c r="P6" t="n">
-        <v>577.9986543204228</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q6" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R6" t="n">
         <v>106.5207073584907</v>
@@ -8452,31 +8452,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K8" t="n">
-        <v>35.76460079480934</v>
+        <v>591.9924139104035</v>
       </c>
       <c r="L8" t="n">
-        <v>548.8576414812762</v>
+        <v>594.539855548217</v>
       </c>
       <c r="M8" t="n">
         <v>37.43126289943181</v>
       </c>
       <c r="N8" t="n">
-        <v>593.5074359500402</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O8" t="n">
-        <v>37.3909593560241</v>
+        <v>300.4142109955939</v>
       </c>
       <c r="P8" t="n">
-        <v>593.8031749258255</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q8" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R8" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8531,7 +8531,7 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J9" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K9" t="n">
         <v>22.39923383333334</v>
@@ -8540,19 +8540,19 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M9" t="n">
-        <v>579.3245936279221</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N9" t="n">
-        <v>371.0330466836703</v>
+        <v>176.6411400339851</v>
       </c>
       <c r="O9" t="n">
-        <v>23.17188972222222</v>
+        <v>579.3997028378163</v>
       </c>
       <c r="P9" t="n">
         <v>577.9986543204228</v>
       </c>
       <c r="Q9" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R9" t="n">
         <v>106.5207073584907</v>
@@ -8695,16 +8695,16 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L11" t="n">
-        <v>607.201212966307</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M11" t="n">
-        <v>1051.861668373228</v>
+        <v>767.069374108112</v>
       </c>
       <c r="N11" t="n">
         <v>1023.391803124043</v>
       </c>
       <c r="O11" t="n">
-        <v>37.3909593560241</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P11" t="n">
         <v>753.0089771212694</v>
@@ -8765,34 +8765,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J12" t="n">
         <v>295.0530226965566</v>
       </c>
       <c r="K12" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L12" t="n">
-        <v>22.51508671422956</v>
+        <v>72.59316121846746</v>
       </c>
       <c r="M12" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N12" t="n">
-        <v>298.7446820670145</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O12" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P12" t="n">
-        <v>745.2028786174529</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q12" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R12" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8932,13 +8932,13 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L14" t="n">
-        <v>886.6939262492853</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M14" t="n">
         <v>37.43126289943181</v>
       </c>
       <c r="N14" t="n">
-        <v>1023.391803124043</v>
+        <v>814.0147147172921</v>
       </c>
       <c r="O14" t="n">
         <v>891.0724241548241</v>
@@ -8950,7 +8950,7 @@
         <v>496.8170781441769</v>
       </c>
       <c r="R14" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9002,31 +9002,31 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J15" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K15" t="n">
-        <v>482.0566840416755</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L15" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M15" t="n">
-        <v>23.09678051232798</v>
+        <v>126.389471106026</v>
       </c>
       <c r="N15" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O15" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P15" t="n">
         <v>21.77084120482866</v>
       </c>
       <c r="Q15" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R15" t="n">
         <v>23.67291939414415</v>
@@ -9169,16 +9169,16 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L17" t="n">
-        <v>38.31204243262292</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M17" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N17" t="n">
-        <v>1023.391803124043</v>
+        <v>924.1790155406098</v>
       </c>
       <c r="O17" t="n">
-        <v>835.1882033210079</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P17" t="n">
         <v>753.0089771212694</v>
@@ -9187,7 +9187,7 @@
         <v>496.8170781441769</v>
       </c>
       <c r="R17" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9242,19 +9242,19 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J18" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K18" t="n">
-        <v>22.39923383333334</v>
+        <v>467.0745387486232</v>
       </c>
       <c r="L18" t="n">
-        <v>775.2973590804446</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M18" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N18" t="n">
-        <v>21.34302821354166</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O18" t="n">
         <v>23.17188972222222</v>
@@ -9409,22 +9409,22 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M20" t="n">
-        <v>37.43126289943181</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N20" t="n">
-        <v>924.1790155406098</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O20" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P20" t="n">
-        <v>753.0089771212694</v>
+        <v>218.8019602116015</v>
       </c>
       <c r="Q20" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R20" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9482,25 +9482,25 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K21" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L21" t="n">
-        <v>867.7664080100944</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M21" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N21" t="n">
-        <v>912.679259982217</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O21" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P21" t="n">
-        <v>21.77084120482866</v>
+        <v>693.0751584803598</v>
       </c>
       <c r="Q21" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R21" t="n">
         <v>106.5207073584907</v>
@@ -9646,22 +9646,22 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M23" t="n">
-        <v>772.395863235019</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N23" t="n">
-        <v>1023.391803124043</v>
+        <v>924.1790155406098</v>
       </c>
       <c r="O23" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P23" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q23" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R23" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9719,7 +9719,7 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K24" t="n">
-        <v>197.3567057122801</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L24" t="n">
         <v>22.51508671422956</v>
@@ -9734,7 +9734,7 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P24" t="n">
-        <v>21.77084120482866</v>
+        <v>196.7283130837754</v>
       </c>
       <c r="Q24" t="n">
         <v>491.5808533018869</v>
@@ -9880,7 +9880,7 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L26" t="n">
-        <v>324.3764525304035</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M26" t="n">
         <v>1051.861668373228</v>
@@ -9892,7 +9892,7 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P26" t="n">
-        <v>753.0089771212694</v>
+        <v>100.0581876036193</v>
       </c>
       <c r="Q26" t="n">
         <v>36.12467460459804</v>
@@ -9956,7 +9956,7 @@
         <v>295.0530226965566</v>
       </c>
       <c r="K27" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L27" t="n">
         <v>22.51508671422956</v>
@@ -9965,13 +9965,13 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N27" t="n">
-        <v>291.2228204893258</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O27" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P27" t="n">
-        <v>745.2028786174529</v>
+        <v>418.6332501171365</v>
       </c>
       <c r="Q27" t="n">
         <v>491.5808533018869</v>
@@ -10111,16 +10111,16 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>395.6860795026527</v>
+        <v>296.4732919192194</v>
       </c>
       <c r="K29" t="n">
         <v>758.5002654165255</v>
       </c>
       <c r="L29" t="n">
-        <v>324.3764525304035</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M29" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N29" t="n">
         <v>1023.391803124043</v>
@@ -10132,7 +10132,7 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q29" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R29" t="n">
         <v>153.7764225027789</v>
@@ -10187,16 +10187,16 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J30" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K30" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L30" t="n">
-        <v>227.5743145228559</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M30" t="n">
         <v>23.09678051232798</v>
@@ -10205,16 +10205,16 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O30" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P30" t="n">
-        <v>745.2028786174529</v>
+        <v>418.6332501171365</v>
       </c>
       <c r="Q30" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R30" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10354,10 +10354,10 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L32" t="n">
-        <v>38.31204243262292</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M32" t="n">
-        <v>877.2336749314295</v>
+        <v>56.96224792398087</v>
       </c>
       <c r="N32" t="n">
         <v>1023.391803124043</v>
@@ -10372,7 +10372,7 @@
         <v>496.8170781441769</v>
       </c>
       <c r="R32" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10427,13 +10427,13 @@
         <v>16.17238675</v>
       </c>
       <c r="J33" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K33" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L33" t="n">
-        <v>768.7505555806109</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M33" t="n">
         <v>23.09678051232798</v>
@@ -10442,16 +10442,16 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O33" t="n">
-        <v>23.17188972222222</v>
+        <v>61.41381912716452</v>
       </c>
       <c r="P33" t="n">
         <v>745.2028786174529</v>
       </c>
       <c r="Q33" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R33" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10600,16 +10600,16 @@
         <v>1023.391803124043</v>
       </c>
       <c r="O35" t="n">
-        <v>37.3909593560241</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P35" t="n">
-        <v>493.0472488628404</v>
+        <v>218.8019602116015</v>
       </c>
       <c r="Q35" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R35" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10661,25 +10661,25 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J36" t="n">
         <v>20.61111433333334</v>
       </c>
       <c r="K36" t="n">
-        <v>22.39923383333334</v>
+        <v>223.4999032222932</v>
       </c>
       <c r="L36" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M36" t="n">
-        <v>23.09678051232798</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N36" t="n">
-        <v>481.0004784218839</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O36" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P36" t="n">
         <v>21.77084120482866</v>
@@ -10688,7 +10688,7 @@
         <v>491.5808533018869</v>
       </c>
       <c r="R36" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10828,19 +10828,19 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L38" t="n">
-        <v>579.1176643018625</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M38" t="n">
         <v>1051.861668373228</v>
       </c>
       <c r="N38" t="n">
-        <v>1023.391803124043</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O38" t="n">
-        <v>891.0724241548241</v>
+        <v>763.5414113871921</v>
       </c>
       <c r="P38" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q38" t="n">
         <v>496.8170781441769</v>
@@ -10898,7 +10898,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J39" t="n">
         <v>295.0530226965566</v>
@@ -10907,19 +10907,19 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L39" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M39" t="n">
-        <v>23.09678051232798</v>
+        <v>171.1572889048716</v>
       </c>
       <c r="N39" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O39" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P39" t="n">
-        <v>124.138595085601</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q39" t="n">
         <v>491.5808533018869</v>
@@ -11068,16 +11068,16 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M41" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N41" t="n">
-        <v>1023.391803124043</v>
+        <v>814.0147147172921</v>
       </c>
       <c r="O41" t="n">
-        <v>382.6985455853151</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P41" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q41" t="n">
         <v>496.8170781441769</v>
@@ -11135,13 +11135,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J42" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K42" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L42" t="n">
         <v>22.51508671422956</v>
@@ -11150,16 +11150,16 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N42" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O42" t="n">
-        <v>23.17188972222222</v>
+        <v>248.2838641991608</v>
       </c>
       <c r="P42" t="n">
-        <v>279.5761010481211</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q42" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R42" t="n">
         <v>23.67291939414415</v>
@@ -11296,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K44" t="n">
         <v>758.5002654165255</v>
@@ -11305,10 +11305,10 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M44" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N44" t="n">
-        <v>165.8504292605622</v>
+        <v>814.0147147172921</v>
       </c>
       <c r="O44" t="n">
         <v>891.0724241548241</v>
@@ -11378,25 +11378,25 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K45" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L45" t="n">
-        <v>474.650675344883</v>
+        <v>178.8479383043439</v>
       </c>
       <c r="M45" t="n">
-        <v>23.09678051232798</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N45" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O45" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P45" t="n">
         <v>21.77084120482866</v>
       </c>
       <c r="Q45" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R45" t="n">
         <v>23.67291939414415</v>
@@ -23260,7 +23260,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>107.9720312369328</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23275,7 +23275,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>4.648410051341614</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23308,7 +23308,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23415,13 +23415,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>99.99956877674335</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23436,7 +23436,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S13" t="n">
-        <v>33.4347291553637</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23475,16 +23475,16 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23548,7 +23548,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>107.9720312369329</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23560,7 +23560,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>107.9720312369328</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23652,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D16" t="n">
-        <v>55.29561009208696</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G16" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>57.87150307934139</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23715,7 +23715,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23889,25 +23889,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F19" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I19" t="n">
         <v>98.77088257712678</v>
@@ -23937,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23955,7 +23955,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>228.7382883108599</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24129,7 +24129,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>71.98949189918889</v>
       </c>
       <c r="D22" t="n">
         <v>161.683605144497</v>
@@ -24138,13 +24138,13 @@
         <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I22" t="n">
         <v>98.77088257712678</v>
@@ -24174,13 +24174,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S22" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>86.93357140528681</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24369,16 +24369,16 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E25" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F25" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>34.55431016026014</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H25" t="n">
         <v>142.3583058069271</v>
@@ -24411,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24429,7 +24429,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24609,19 +24609,19 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>98.77088257712678</v>
+        <v>67.62133122010825</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24663,13 +24663,13 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X28" t="n">
-        <v>110.0981677402029</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="29">
@@ -24843,16 +24843,16 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>161.683605144497</v>
+        <v>6.536664108324544</v>
       </c>
       <c r="E31" t="n">
-        <v>112.9606863843808</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>142.3583058069271</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24894,10 +24894,10 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25077,19 +25077,19 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H34" t="n">
         <v>142.3583058069271</v>
@@ -25122,13 +25122,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T34" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25137,7 +25137,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>198.2230562345409</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25320,13 +25320,13 @@
         <v>161.683605144497</v>
       </c>
       <c r="E37" t="n">
-        <v>164.546123788675</v>
+        <v>66.3924592046823</v>
       </c>
       <c r="F37" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G37" t="n">
-        <v>113.008962604416</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H37" t="n">
         <v>142.3583058069271</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25563,13 +25563,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G40" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25602,22 +25602,22 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>50.56495090171933</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>224.0793406271554</v>
+        <v>160.5675729072273</v>
       </c>
     </row>
     <row r="41">
@@ -25648,7 +25648,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25681,13 +25681,13 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>73.42412869296891</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>107.9720312369334</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -25788,25 +25788,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>68.10191868181126</v>
       </c>
       <c r="F43" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,16 +25833,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T43" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>107.5254829909125</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25885,7 +25885,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25918,13 +25918,13 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>73.42412869296891</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>107.9720312369334</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -26028,10 +26028,10 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F46" t="n">
         <v>170.1431564831852</v>
@@ -26040,7 +26040,7 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>21.11005397370357</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -26073,7 +26073,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26085,13 +26085,13 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>51.55588169712365</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>647131.023566708</v>
+        <v>647131.0235667081</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>647131.0235667081</v>
+        <v>647131.023566708</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>647131.023566708</v>
+        <v>647131.0235667081</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>647131.0235667081</v>
+        <v>647131.023566708</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>647131.023566708</v>
+        <v>647131.0235667081</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>647131.0235667081</v>
+        <v>647131.0235667082</v>
       </c>
     </row>
     <row r="15">
@@ -26313,22 +26313,22 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>393148.8009075352</v>
+      </c>
+      <c r="C2" t="n">
         <v>393148.8009075351</v>
-      </c>
-      <c r="C2" t="n">
-        <v>393148.8009075352</v>
       </c>
       <c r="D2" t="n">
         <v>393148.8009075351</v>
       </c>
       <c r="E2" t="n">
-        <v>373569.1848794163</v>
+        <v>373569.1848794166</v>
       </c>
       <c r="F2" t="n">
-        <v>373569.1848794166</v>
+        <v>373569.1848794167</v>
       </c>
       <c r="G2" t="n">
-        <v>379370.522117777</v>
+        <v>379370.5221177769</v>
       </c>
       <c r="H2" t="n">
         <v>379370.5221177771</v>
@@ -26340,19 +26340,19 @@
         <v>379370.522117777</v>
       </c>
       <c r="K2" t="n">
-        <v>379370.5221177769</v>
+        <v>379370.5221177771</v>
       </c>
       <c r="L2" t="n">
-        <v>379370.5221177769</v>
+        <v>379370.522117777</v>
       </c>
       <c r="M2" t="n">
         <v>379370.522117777</v>
       </c>
       <c r="N2" t="n">
-        <v>379370.5221177769</v>
+        <v>379370.522117777</v>
       </c>
       <c r="O2" t="n">
-        <v>373569.1848794166</v>
+        <v>373569.1848794165</v>
       </c>
       <c r="P2" t="n">
         <v>373569.1848794165</v>
@@ -26429,28 +26429,28 @@
         <v>43077.56596046206</v>
       </c>
       <c r="F4" t="n">
-        <v>43077.56596046205</v>
+        <v>43077.56596046206</v>
       </c>
       <c r="G4" t="n">
-        <v>43748.40045389557</v>
+        <v>43748.40045389556</v>
       </c>
       <c r="H4" t="n">
-        <v>43748.40045389557</v>
+        <v>43748.40045389556</v>
       </c>
       <c r="I4" t="n">
         <v>43748.40045389556</v>
       </c>
       <c r="J4" t="n">
+        <v>43748.40045389557</v>
+      </c>
+      <c r="K4" t="n">
+        <v>43748.40045389557</v>
+      </c>
+      <c r="L4" t="n">
         <v>43748.40045389556</v>
       </c>
-      <c r="K4" t="n">
+      <c r="M4" t="n">
         <v>43748.40045389556</v>
-      </c>
-      <c r="L4" t="n">
-        <v>43748.40045389557</v>
-      </c>
-      <c r="M4" t="n">
-        <v>43748.40045389557</v>
       </c>
       <c r="N4" t="n">
         <v>43748.40045389557</v>
@@ -26459,7 +26459,7 @@
         <v>43077.56596046206</v>
       </c>
       <c r="P4" t="n">
-        <v>43077.56596046205</v>
+        <v>43077.56596046206</v>
       </c>
     </row>
     <row r="5">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-26077.92258708691</v>
+        <v>-26077.92258708677</v>
       </c>
       <c r="C6" t="n">
-        <v>160326.8108276505</v>
+        <v>160326.8108276504</v>
       </c>
       <c r="D6" t="n">
-        <v>160326.8108276503</v>
+        <v>160326.8108276504</v>
       </c>
       <c r="E6" t="n">
-        <v>47000.85319436085</v>
+        <v>46928.3360979607</v>
       </c>
       <c r="F6" t="n">
-        <v>254433.1408109221</v>
+        <v>254360.6237145217</v>
       </c>
       <c r="G6" t="n">
-        <v>250246.4373919702</v>
+        <v>250195.4067297859</v>
       </c>
       <c r="H6" t="n">
-        <v>257872.0594754518</v>
+        <v>257821.0288132675</v>
       </c>
       <c r="I6" t="n">
-        <v>257872.0594754516</v>
+        <v>257821.0288132673</v>
       </c>
       <c r="J6" t="n">
-        <v>112338.3895406353</v>
+        <v>112287.3588784509</v>
       </c>
       <c r="K6" t="n">
-        <v>257872.0594754516</v>
+        <v>257821.0288132675</v>
       </c>
       <c r="L6" t="n">
-        <v>257872.0594754516</v>
+        <v>257821.0288132674</v>
       </c>
       <c r="M6" t="n">
-        <v>84741.56826981217</v>
+        <v>84690.53760762788</v>
       </c>
       <c r="N6" t="n">
-        <v>257872.0594754516</v>
+        <v>257821.0288132674</v>
       </c>
       <c r="O6" t="n">
-        <v>254433.1408109221</v>
+        <v>254360.6237145215</v>
       </c>
       <c r="P6" t="n">
-        <v>254433.1408109221</v>
+        <v>254360.6237145216</v>
       </c>
     </row>
   </sheetData>
@@ -27378,76 +27378,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>400</v>
       </c>
       <c r="F2" t="n">
+        <v>385.0527817684125</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>294.8896947407055</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
+        <v>103.323621185591</v>
+      </c>
+      <c r="T2" t="n">
+        <v>218.7163152458132</v>
+      </c>
+      <c r="U2" t="n">
+        <v>255.7713603095518</v>
+      </c>
+      <c r="V2" t="n">
+        <v>353.914520725013</v>
+      </c>
+      <c r="W2" t="n">
+        <v>392.4274362026566</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y2" t="n">
         <v>400</v>
-      </c>
-      <c r="G2" t="n">
-        <v>400</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S2" t="n">
-        <v>4.095730177743476</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0</v>
-      </c>
-      <c r="X2" t="n">
-        <v>400</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27539,7 +27539,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27551,13 +27551,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>162.7373373116017</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>65.01789851058543</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27587,10 +27587,10 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U4" t="n">
         <v>277.3826040146988</v>
@@ -27602,7 +27602,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27618,22 +27618,22 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
         <v>400</v>
       </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
       <c r="E5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I5" t="n">
         <v>34.5479025439635</v>
@@ -27666,13 +27666,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T5" t="n">
-        <v>23.20587070611069</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V5" t="n">
         <v>353.914520725013</v>
@@ -27684,7 +27684,7 @@
         <v>400</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>350.5048792244486</v>
       </c>
     </row>
     <row r="6">
@@ -27785,7 +27785,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -27821,19 +27821,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>46.56822717969948</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T7" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U7" t="n">
-        <v>185.3716196335905</v>
+        <v>172.2573460420995</v>
       </c>
       <c r="V7" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27852,16 +27852,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>348.7181951507454</v>
       </c>
       <c r="C8" t="n">
-        <v>157.6836177392387</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
@@ -27870,10 +27870,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,16 +27903,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U8" t="n">
         <v>255.7713603095518</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W8" t="n">
         <v>392.4274362026566</v>
@@ -27921,7 +27921,7 @@
         <v>400</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="9">
@@ -28013,13 +28013,13 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>129.3279385133177</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -28028,7 +28028,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -28061,7 +28061,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -28070,16 +28070,16 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>114.1895583998069</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X10" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="11">
@@ -28800,7 +28800,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>-4.484950034982556e-13</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -28982,7 +28982,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>3.770613451100265e-12</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -30276,7 +30276,7 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>-5.621818412198717e-13</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -30419,7 +30419,7 @@
         <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>4.147674796210292e-12</v>
       </c>
       <c r="P40" t="n">
         <v>0</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
         <v>556.2278131155941</v>
       </c>
-      <c r="M2" t="n">
+      <c r="O2" t="n">
         <v>556.2278131155941</v>
       </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>73.06155854104179</v>
       </c>
       <c r="Q2" t="n">
-        <v>167.4878420635545</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34774,34 +34774,34 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K3" t="n">
-        <v>158.2737632597931</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>556.2278131155941</v>
+        <v>437.0840165728143</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34856,7 +34856,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>58.07204871127072</v>
+        <v>58.07204871127134</v>
       </c>
       <c r="K4" t="n">
         <v>228.8157587937749</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M5" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>73.06155854104179</v>
       </c>
       <c r="P5" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="Q5" t="n">
-        <v>167.4878420635545</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K6" t="n">
+        <v>444.605878150503</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
         <v>556.2278131155941</v>
       </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>556.2278131155941</v>
-      </c>
-      <c r="N6" t="n">
-        <v>75.42597529544641</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0</v>
-      </c>
       <c r="P6" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R6" t="n">
         <v>82.84778796434657</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L8" t="n">
-        <v>510.5455990486533</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>263.0232516395698</v>
       </c>
       <c r="P8" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>460.6924035395789</v>
       </c>
       <c r="R8" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,7 +35251,7 @@
         <v>7.521861577688728</v>
       </c>
       <c r="J9" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -35260,19 +35260,19 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>155.2981118204434</v>
+      </c>
+      <c r="O9" t="n">
         <v>556.2278131155941</v>
-      </c>
-      <c r="N9" t="n">
-        <v>349.6900184701286</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R9" t="n">
         <v>82.84778796434657</v>
@@ -35415,16 +35415,16 @@
         <v>722.7356646217162</v>
       </c>
       <c r="L11" t="n">
-        <v>568.8891705336841</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>1014.430405473796</v>
+        <v>729.6381112086802</v>
       </c>
       <c r="N11" t="n">
         <v>986.1121802895968</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P11" t="n">
         <v>715.433615311038</v>
@@ -35485,34 +35485,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J12" t="n">
         <v>274.4419083632233</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>50.0780745042379</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>277.4016538534729</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P12" t="n">
-        <v>723.4320374126243</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35652,13 +35652,13 @@
         <v>722.7356646217162</v>
       </c>
       <c r="L14" t="n">
-        <v>848.3818838166624</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>986.1121802895968</v>
+        <v>776.7350918828461</v>
       </c>
       <c r="O14" t="n">
         <v>853.6814647988001</v>
@@ -35670,7 +35670,7 @@
         <v>460.6924035395789</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,31 +35722,31 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K15" t="n">
-        <v>459.6574502083421</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>103.292690593698</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35889,16 +35889,16 @@
         <v>722.7356646217162</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M17" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>986.1121802895968</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="O17" t="n">
-        <v>797.7972439649839</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P17" t="n">
         <v>715.433615311038</v>
@@ -35907,7 +35907,7 @@
         <v>460.6924035395789</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,19 +35962,19 @@
         <v>7.521861577688728</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>444.6753049152899</v>
       </c>
       <c r="L18" t="n">
-        <v>752.782272366215</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -36129,22 +36129,22 @@
         <v>939.015199615431</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N20" t="n">
-        <v>886.8993927061638</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O20" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P20" t="n">
-        <v>715.433615311038</v>
+        <v>181.2265984013702</v>
       </c>
       <c r="Q20" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36202,25 +36202,25 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L21" t="n">
-        <v>845.2513212958648</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>891.3362317686754</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>671.3043172755312</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R21" t="n">
         <v>82.84778796434657</v>
@@ -36278,7 +36278,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>58.07204871127072</v>
+        <v>58.0720487112745</v>
       </c>
       <c r="K22" t="n">
         <v>228.8157587937749</v>
@@ -36366,22 +36366,22 @@
         <v>939.015199615431</v>
       </c>
       <c r="M23" t="n">
-        <v>734.9646003355872</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>986.1121802895968</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="O23" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q23" t="n">
         <v>460.6924035395789</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36439,7 +36439,7 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>174.9574718789468</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -36454,7 +36454,7 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>174.9574718789467</v>
       </c>
       <c r="Q24" t="n">
         <v>468.8338150129084</v>
@@ -36600,7 +36600,7 @@
         <v>722.7356646217162</v>
       </c>
       <c r="L26" t="n">
-        <v>286.0644100977806</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M26" t="n">
         <v>1014.430405473796</v>
@@ -36612,7 +36612,7 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P26" t="n">
-        <v>715.433615311038</v>
+        <v>62.48282579338804</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
@@ -36676,7 +36676,7 @@
         <v>274.4419083632233</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -36685,13 +36685,13 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>269.8797922757842</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>723.4320374126243</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="Q27" t="n">
         <v>468.8338150129084</v>
@@ -36831,16 +36831,16 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>366.2661200170662</v>
+        <v>267.0533324336329</v>
       </c>
       <c r="K29" t="n">
         <v>722.7356646217162</v>
       </c>
       <c r="L29" t="n">
-        <v>286.0644100977806</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M29" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
         <v>986.1121802895968</v>
@@ -36852,7 +36852,7 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R29" t="n">
         <v>118.7437726079824</v>
@@ -36907,16 +36907,16 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L30" t="n">
-        <v>205.0592278086264</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -36925,16 +36925,16 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>723.4320374126243</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37074,10 +37074,10 @@
         <v>722.7356646217162</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M32" t="n">
-        <v>839.8024120319977</v>
+        <v>19.53098502454905</v>
       </c>
       <c r="N32" t="n">
         <v>986.1121802895968</v>
@@ -37092,7 +37092,7 @@
         <v>460.6924035395789</v>
       </c>
       <c r="R32" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,13 +37147,13 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L33" t="n">
-        <v>746.2354688663813</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -37162,16 +37162,16 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>38.24192940494229</v>
       </c>
       <c r="P33" t="n">
         <v>723.4320374126243</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R33" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37320,16 +37320,16 @@
         <v>986.1121802895968</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P35" t="n">
-        <v>455.4718870526091</v>
+        <v>181.2265984013702</v>
       </c>
       <c r="Q35" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,25 +37381,25 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>201.1006693889599</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N36" t="n">
-        <v>459.6574502083422</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37408,7 +37408,7 @@
         <v>468.8338150129084</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37548,19 +37548,19 @@
         <v>722.7356646217162</v>
       </c>
       <c r="L38" t="n">
-        <v>540.8056218692396</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M38" t="n">
         <v>1014.430405473796</v>
       </c>
       <c r="N38" t="n">
-        <v>986.1121802895968</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>853.6814647988001</v>
+        <v>726.1504520311679</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q38" t="n">
         <v>460.6924035395789</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J39" t="n">
         <v>274.4419083632233</v>
@@ -37627,19 +37627,19 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>148.0605083925437</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>102.3677538807724</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>468.8338150129084</v>
@@ -37700,7 +37700,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>58.07204871127374</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K40" t="n">
         <v>228.8157587937749</v>
@@ -37715,7 +37715,7 @@
         <v>381.3045564404402</v>
       </c>
       <c r="O40" t="n">
-        <v>359.0183117977405</v>
+        <v>359.0183117977446</v>
       </c>
       <c r="P40" t="n">
         <v>293.5345574968697</v>
@@ -37788,16 +37788,16 @@
         <v>939.015199615431</v>
       </c>
       <c r="M41" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>986.1121802895968</v>
+        <v>776.7350918828461</v>
       </c>
       <c r="O41" t="n">
-        <v>345.307586229291</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q41" t="n">
         <v>460.6924035395789</v>
@@ -37855,13 +37855,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -37870,16 +37870,16 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>225.1119744769386</v>
       </c>
       <c r="P42" t="n">
-        <v>257.8052598432924</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q42" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38016,7 +38016,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K44" t="n">
         <v>722.7356646217162</v>
@@ -38025,10 +38025,10 @@
         <v>939.015199615431</v>
       </c>
       <c r="M44" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>128.5708064261162</v>
+        <v>776.7350918828461</v>
       </c>
       <c r="O44" t="n">
         <v>853.6814647988001</v>
@@ -38098,25 +38098,25 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L45" t="n">
-        <v>452.1355886306534</v>
+        <v>156.3328515901144</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
